--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B391974-5E4C-BA48-8283-775AACAE77F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA06C48-C863-2449-9D3E-10890EB3A199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="14520" yWindow="460" windowWidth="14280" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,23 +1378,23 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>31.21502795799087</v>
+        <v>32.358635663770201</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>22.013231211355922</v>
+        <v>23.014056151640094</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>25.855136585103825</v>
+        <v>26.930451723302046</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>30.050951676760317</v>
+        <v>31.298402972701329</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>27.421003403649383</v>
+        <v>28.552426594394607</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
@@ -1623,39 +1623,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3571751286082987</v>
+        <v>1.348276485990425</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.0006014186979966</v>
+        <v>1.0006111370278301</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1752334811410829</v>
+        <v>1.1708892053609585</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3659523489436507</v>
+        <v>1.360800129247884</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.3590975554138154</v>
+        <v>1.300006357352345</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.3223714339120551</v>
+        <v>1.2648770237419658</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2464092456204265</v>
+        <v>1.2414098519302004</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.19079721880689</v>
+        <v>1.1390234266848513</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2724,11 +2724,11 @@
         <v>1.0821092808985249</v>
       </c>
       <c r="H23">
-        <v>51825</v>
+        <v>52825</v>
       </c>
       <c r="I23">
         <f>Table2[[#This Row],[EEUU]]/H22</f>
-        <v>1.2122239895209581</v>
+        <v>1.2356147080838322</v>
       </c>
       <c r="J23">
         <v>42058</v>
@@ -2770,6 +2770,27 @@
         <f>Table2[[#This Row],[Chile]]/B23</f>
         <v>1.2386117136659436</v>
       </c>
+      <c r="D24">
+        <v>81285</v>
+      </c>
+      <c r="E24">
+        <f>Table2[[#This Row],[China]]/D23</f>
+        <v>1.0008249402841736</v>
+      </c>
+      <c r="F24">
+        <v>74386</v>
+      </c>
+      <c r="G24">
+        <f>Table2[[#This Row],[Italia]]/F23</f>
+        <v>1.0753151381982191</v>
+      </c>
+      <c r="H24">
+        <v>64661</v>
+      </c>
+      <c r="I24">
+        <f>Table2[[#This Row],[EEUU]]/H23</f>
+        <v>1.2240605773781355</v>
+      </c>
       <c r="J24">
         <v>42610</v>
       </c>
@@ -2784,6 +2805,13 @@
         <f>Table2[[#This Row],[Alemania]]/L23</f>
         <v>1.1500947660008747</v>
       </c>
+      <c r="N24">
+        <v>25233</v>
+      </c>
+      <c r="O24">
+        <f>Table2[[#This Row],[Francia]]/N23</f>
+        <v>1.1314231907452246</v>
+      </c>
       <c r="P24">
         <v>27077</v>
       </c>
@@ -2796,6 +2824,13 @@
       <c r="A25" s="1">
         <v>43916</v>
       </c>
+      <c r="B25">
+        <v>1306</v>
+      </c>
+      <c r="C25">
+        <f>Table2[[#This Row],[Chile]]/B24</f>
+        <v>1.1436077057793346</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -2863,7 +2898,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="O2:O25">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2877,7 +2912,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23">
+  <conditionalFormatting sqref="I2:I25">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -2891,7 +2926,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23">
+  <conditionalFormatting sqref="E2:E24">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2905,7 +2940,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M24">
+  <conditionalFormatting sqref="M2:M25">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -2919,7 +2954,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C24">
+  <conditionalFormatting sqref="C2:C25">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -2933,7 +2968,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K24">
+  <conditionalFormatting sqref="K2:K25">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -2947,7 +2982,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G23">
+  <conditionalFormatting sqref="G2:G24">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -2961,7 +2996,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q24">
+  <conditionalFormatting sqref="Q2:Q25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2993,7 +3028,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O23</xm:sqref>
+          <xm:sqref>O2:O25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3004,7 +3039,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I23</xm:sqref>
+          <xm:sqref>I2:I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3015,7 +3050,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E23</xm:sqref>
+          <xm:sqref>E2:E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3026,7 +3061,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M24</xm:sqref>
+          <xm:sqref>M2:M25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3037,7 +3072,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C24</xm:sqref>
+          <xm:sqref>C2:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3048,7 +3083,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K24</xm:sqref>
+          <xm:sqref>K2:K25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3059,7 +3094,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G23</xm:sqref>
+          <xm:sqref>G2:G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3070,7 +3105,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q24</xm:sqref>
+          <xm:sqref>Q2:Q25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3083,7 +3118,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3117,10 +3152,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>1.8E-3</v>
@@ -3134,10 +3169,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>3.5000000000000001E-3</v>
@@ -3151,10 +3186,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <v>1.66E-2</v>
@@ -3188,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>1.0500000000000001E-2</v>
@@ -3202,10 +3237,10 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>2.8000000000000001E-2</v>
@@ -3219,16 +3254,16 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="D8" s="3">
         <v>0.59719999999999995</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3236,10 +3271,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
         <v>9.5999999999999992E-3</v>
@@ -3256,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>2.63E-2</v>
@@ -3270,10 +3305,10 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D11" s="3">
         <v>9.7199999999999995E-2</v>
@@ -3287,10 +3322,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D12" s="3">
         <v>8.3199999999999996E-2</v>
@@ -3304,10 +3339,10 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3">
         <v>6.4799999999999996E-2</v>
@@ -3321,10 +3356,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>9.5999999999999992E-3</v>
@@ -3338,10 +3373,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3">
         <v>3.85E-2</v>
@@ -3355,10 +3390,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
         <v>8.9999999999999998E-4</v>
@@ -3372,10 +3407,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>1.14E-2</v>
@@ -3390,11 +3425,11 @@
       </c>
       <c r="B18" s="5">
         <f>SUM(B2:B17)</f>
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C2:C17)</f>
-        <v>1142</v>
+        <v>1306</v>
       </c>
       <c r="D18" s="6">
         <f>SUM(D2:D17)</f>
@@ -3402,7 +3437,7 @@
       </c>
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA06C48-C863-2449-9D3E-10890EB3A199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA70B4B-B511-C142-BB25-FD9B5F3C5620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="460" windowWidth="14280" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -895,6 +895,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
+  <sortState ref="A2:E17">
+    <sortCondition descending="1" ref="C1:C17"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
@@ -3118,7 +3121,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,33 +3152,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
+        <v>746</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="E2" s="2">
         <v>3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.8E-3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3">
-        <v>3.5000000000000001E-3</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3183,16 +3186,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3">
-        <v>1.66E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3200,33 +3203,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3">
-        <v>1.0500000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3251,33 +3254,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>746</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
-        <v>0.59719999999999995</v>
+        <v>2.63E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>9.5999999999999992E-3</v>
+        <v>1.66E-2</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3285,16 +3288,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
-        <v>2.63E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3302,16 +3305,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3">
-        <v>9.7199999999999995E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3319,33 +3322,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
-        <v>109</v>
-      </c>
       <c r="D12" s="3">
-        <v>8.3199999999999996E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>6.4799999999999996E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -3353,16 +3356,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3">
-        <v>9.5999999999999992E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3370,16 +3373,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>3.85E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3404,16 +3407,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>1.14E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3433,7 +3436,7 @@
       </c>
       <c r="D18" s="6">
         <f>SUM(D2:D17)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA70B4B-B511-C142-BB25-FD9B5F3C5620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DDE012-3F66-AB43-922F-8A9544A065C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,31 +1389,31 @@
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>23.014056151640094</v>
+        <v>24.014732783244941</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>26.930451723302046</v>
+        <v>28.013841070759902</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>31.298402972701329</v>
+        <v>32.619678548396109</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>29.900146219103938</v>
+        <v>31.158798063467131</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>29.092171546065213</v>
+        <v>30.249172243282683</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>28.552426594394607</v>
+        <v>29.707857973937269</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>26.197538813751581</v>
+        <v>27.283552773939196</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
@@ -1634,31 +1634,31 @@
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.0006111370278301</v>
+        <v>1.0006138659685393</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1708892053609585</v>
+        <v>1.1672433779483293</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.360800129247884</v>
+        <v>1.3591532728498379</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.300006357352345</v>
+        <v>1.2982832526444639</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2648770237419658</v>
+        <v>1.2603821768034451</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2414098519302004</v>
+        <v>1.2378274155807196</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1390234266848513</v>
+        <v>1.1368146989141332</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1938,11 +1938,11 @@
         <v>1.2873931623931625</v>
       </c>
       <c r="J10">
-        <v>2277</v>
+        <v>2128</v>
       </c>
       <c r="K10">
         <f>Table2[[#This Row],[España]]/J9</f>
-        <v>1.343362831858407</v>
+        <v>1.2554572271386431</v>
       </c>
       <c r="L10">
         <v>1884</v>
@@ -2002,11 +2002,11 @@
         <v>1.3261410788381742</v>
       </c>
       <c r="J11">
-        <v>3146</v>
+        <v>2950</v>
       </c>
       <c r="K11">
         <f>Table2[[#This Row],[España]]/J10</f>
-        <v>1.3816425120772946</v>
+        <v>1.3862781954887218</v>
       </c>
       <c r="L11">
         <v>2369</v>
@@ -2063,11 +2063,11 @@
         <v>1.353566958698373</v>
       </c>
       <c r="J12">
-        <v>5232</v>
+        <v>4209</v>
       </c>
       <c r="K12">
         <f>Table2[[#This Row],[España]]/J11</f>
-        <v>1.6630642085187539</v>
+        <v>1.4267796610169492</v>
       </c>
       <c r="L12">
         <v>3062</v>
@@ -2124,11 +2124,11 @@
         <v>1.3060564031437818</v>
       </c>
       <c r="J13">
-        <v>6391</v>
+        <v>5753</v>
       </c>
       <c r="K13">
         <f>Table2[[#This Row],[España]]/J12</f>
-        <v>1.2215214067278288</v>
+        <v>1.3668329769541459</v>
       </c>
       <c r="L13">
         <v>3795</v>
@@ -2185,11 +2185,11 @@
         <v>1.2392920353982302</v>
       </c>
       <c r="J14">
-        <v>7988</v>
+        <v>7753</v>
       </c>
       <c r="K14">
         <f>Table2[[#This Row],[España]]/J13</f>
-        <v>1.2498826474730089</v>
+        <v>1.3476447071093343</v>
       </c>
       <c r="L14">
         <v>4838</v>
@@ -2246,11 +2246,11 @@
         <v>1.249071693801771</v>
       </c>
       <c r="J15">
-        <v>9942</v>
+        <v>9191</v>
       </c>
       <c r="K15">
         <f>Table2[[#This Row],[España]]/J14</f>
-        <v>1.2446169253880821</v>
+        <v>1.1854765897072101</v>
       </c>
       <c r="L15">
         <v>6012</v>
@@ -2307,11 +2307,11 @@
         <v>1.2947633203750286</v>
       </c>
       <c r="J16">
-        <v>11826</v>
+        <v>11178</v>
       </c>
       <c r="K16">
         <f>Table2[[#This Row],[España]]/J15</f>
-        <v>1.1894990947495474</v>
+        <v>1.2161897508432162</v>
       </c>
       <c r="L16">
         <v>7156</v>
@@ -2368,11 +2368,11 @@
         <v>1.4259978806075593</v>
       </c>
       <c r="J17">
-        <v>14769</v>
+        <v>13716</v>
       </c>
       <c r="K17">
         <f>Table2[[#This Row],[España]]/J16</f>
-        <v>1.2488584474885844</v>
+        <v>1.2270531400966183</v>
       </c>
       <c r="L17">
         <v>8198</v>
@@ -2429,11 +2429,11 @@
         <v>1.4884815457022542</v>
       </c>
       <c r="J18">
-        <v>18077</v>
+        <v>17147</v>
       </c>
       <c r="K18">
         <f>Table2[[#This Row],[España]]/J17</f>
-        <v>1.2239826663958291</v>
+        <v>1.2501458151064451</v>
       </c>
       <c r="L18">
         <v>10999</v>
@@ -2490,11 +2490,11 @@
         <v>1.4509901813945747</v>
       </c>
       <c r="J19">
-        <v>21571</v>
+        <v>19980</v>
       </c>
       <c r="K19">
         <f>Table2[[#This Row],[España]]/J18</f>
-        <v>1.1932842838966642</v>
+        <v>1.1652184055519916</v>
       </c>
       <c r="L19">
         <v>13957</v>
@@ -2551,11 +2551,11 @@
         <v>1.3596742745727721</v>
       </c>
       <c r="J20">
-        <v>25496</v>
+        <v>24926</v>
       </c>
       <c r="K20">
         <f>Table2[[#This Row],[España]]/J19</f>
-        <v>1.1819572574289556</v>
+        <v>1.2475475475475475</v>
       </c>
       <c r="L20">
         <v>16662</v>
@@ -2612,11 +2612,11 @@
         <v>1.3640236187262758</v>
       </c>
       <c r="J21">
-        <v>29909</v>
+        <v>28572</v>
       </c>
       <c r="K21">
         <f>Table2[[#This Row],[España]]/J20</f>
-        <v>1.1730859742704738</v>
+        <v>1.1462729679852364</v>
       </c>
       <c r="L21">
         <v>18610</v>
@@ -2673,11 +2673,11 @@
         <v>1.321913360749513</v>
       </c>
       <c r="J22">
-        <v>35480</v>
+        <v>33089</v>
       </c>
       <c r="K22">
         <f>Table2[[#This Row],[España]]/J21</f>
-        <v>1.1862650038449964</v>
+        <v>1.1580918381632368</v>
       </c>
       <c r="L22">
         <v>22672</v>
@@ -2734,11 +2734,11 @@
         <v>1.2356147080838322</v>
       </c>
       <c r="J23">
-        <v>42058</v>
+        <v>39673</v>
       </c>
       <c r="K23">
         <f>Table2[[#This Row],[España]]/J22</f>
-        <v>1.1854002254791431</v>
+        <v>1.1989785124966001</v>
       </c>
       <c r="L23">
         <v>27436</v>
@@ -2795,11 +2795,11 @@
         <v>1.2240605773781355</v>
       </c>
       <c r="J24">
-        <v>42610</v>
+        <v>47610</v>
       </c>
       <c r="K24">
         <f>Table2[[#This Row],[España]]/J23</f>
-        <v>1.013124732512245</v>
+        <v>1.2000604945428881</v>
       </c>
       <c r="L24">
         <v>31554</v>
@@ -2833,6 +2833,55 @@
       <c r="C25">
         <f>Table2[[#This Row],[Chile]]/B24</f>
         <v>1.1436077057793346</v>
+      </c>
+      <c r="D25">
+        <v>81340</v>
+      </c>
+      <c r="E25">
+        <f>Table2[[#This Row],[China]]/D24</f>
+        <v>1.0006766316048472</v>
+      </c>
+      <c r="F25">
+        <v>80589</v>
+      </c>
+      <c r="G25">
+        <f>Table2[[#This Row],[Italia]]/F24</f>
+        <v>1.0833893474578549</v>
+      </c>
+      <c r="H25">
+        <v>85435</v>
+      </c>
+      <c r="I25">
+        <f>Table2[[#This Row],[EEUU]]/H24</f>
+        <v>1.3212755756947774</v>
+      </c>
+      <c r="J25">
+        <v>56188</v>
+      </c>
+      <c r="K25">
+        <f>Table2[[#This Row],[España]]/J24</f>
+        <v>1.1801722327242177</v>
+      </c>
+      <c r="L25">
+        <v>36508</v>
+      </c>
+      <c r="M25">
+        <f>Table2[[#This Row],[Alemania]]/L24</f>
+        <v>1.1570006972174685</v>
+      </c>
+      <c r="N25">
+        <v>29155</v>
+      </c>
+      <c r="O25">
+        <f>Table2[[#This Row],[Francia]]/N24</f>
+        <v>1.1554313795426623</v>
+      </c>
+      <c r="P25">
+        <v>29406</v>
+      </c>
+      <c r="Q25">
+        <f>Table2[[#This Row],[Iran]]/P24</f>
+        <v>1.0860139601876131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -2929,7 +2978,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E24">
+  <conditionalFormatting sqref="E2:E25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2943,7 +2992,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M25">
+  <conditionalFormatting sqref="M2:M27">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -2971,7 +3020,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K25">
+  <conditionalFormatting sqref="K2:K26">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -2985,7 +3034,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G24">
+  <conditionalFormatting sqref="G2:G25">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3053,7 +3102,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E24</xm:sqref>
+          <xm:sqref>E2:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3064,7 +3113,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M25</xm:sqref>
+          <xm:sqref>M2:M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3086,7 +3135,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K25</xm:sqref>
+          <xm:sqref>K2:K26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3097,7 +3146,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G24</xm:sqref>
+          <xm:sqref>G2:G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3120,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DDE012-3F66-AB43-922F-8A9544A065C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2284E669-8B9B-0844-80CA-5DC3D4C109BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -285,11 +285,7 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -303,11 +299,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -321,11 +313,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -339,30 +327,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -376,11 +341,21 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -893,17 +868,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition descending="1" ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
+      <calculatedColumnFormula>(Table6[[#This Row],[Casos totales]]/C18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1208,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,11 +1358,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>32.358635663770201</v>
+        <v>33.591407486128546</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
@@ -1630,7 +1607,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.348276485990425</v>
+        <v>1.3436562994451418</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -2887,6 +2864,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43917</v>
+      </c>
+      <c r="B26">
+        <v>1610</v>
+      </c>
+      <c r="C26">
+        <f>Table2[[#This Row],[Chile]]/B25</f>
+        <v>1.2327718223583461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -3006,7 +2990,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="C2:C26">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3124,7 +3108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C25</xm:sqref>
+          <xm:sqref>C2:C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3169,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3201,33 +3185,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>746</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0.59719999999999995</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>1.8633540372670807E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>9.7199999999999995E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>3.105590062111801E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3235,16 +3221,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3">
-        <v>6.4799999999999996E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>1.3043478260869565E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3252,33 +3239,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>8.3199999999999996E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>6.2111801242236027E-4</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>3.85E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>8.6956521739130436E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3289,13 +3278,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3">
-        <v>2.8000000000000001E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>3.0434782608695653E-2</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3303,33 +3293,35 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2">
-        <v>31</v>
+        <v>938</v>
       </c>
       <c r="D8" s="3">
-        <v>2.63E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>0.58260869565217388</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
-        <v>1.66E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>9.9378881987577643E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3337,16 +3329,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3">
-        <v>1.14E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>1.9875776397515529E-2</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3354,16 +3347,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3">
-        <v>9.5999999999999992E-3</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>8.9440993788819881E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3371,33 +3365,35 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3">
-        <v>9.5999999999999992E-3</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>8.3850931677018639E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3">
-        <v>1.0500000000000001E-2</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>8.8819875776397522E-2</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -3405,16 +3401,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3">
-        <v>3.5000000000000001E-3</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>1.3664596273291925E-2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3422,16 +3419,17 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3">
-        <v>1.8E-3</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>3.9130434782608699E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3442,13 +3440,14 @@
         <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>8.9999999999999998E-4</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>1.2422360248447205E-3</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3456,16 +3455,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3">
-        <v>8.9999999999999998E-4</v>
+        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
+        <v>1.3664596273291925E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3477,19 +3477,19 @@
       </c>
       <c r="B18" s="5">
         <f>SUM(B2:B17)</f>
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C2:C17)</f>
-        <v>1306</v>
+        <v>1610</v>
       </c>
       <c r="D18" s="6">
         <f>SUM(D2:D17)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(E2:E17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2284E669-8B9B-0844-80CA-5DC3D4C109BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FB0546-6ED4-EA4A-8B36-63D597357EEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -285,63 +285,11 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -387,11 +335,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -423,6 +367,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -441,11 +399,53 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -868,19 +868,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition descending="1" ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>(Table6[[#This Row],[Casos totales]]/C18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,39 +1358,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>33.591407486128546</v>
+        <v>34.777121771842829</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>24.014732783244941</v>
+        <v>25.015396663254776</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>28.013841070759902</v>
+        <v>29.087163732661651</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>32.619678548396109</v>
+        <v>33.789543251010578</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>31.158798063467131</v>
+        <v>32.29888135527321</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>30.249172243282683</v>
+        <v>31.407493707071442</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>29.707857973937269</v>
+        <v>30.838504518269289</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>27.283552773939196</v>
+        <v>28.383056276625723</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1603,39 +1603,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3436562994451418</v>
+        <v>1.3375816066093396</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.0006138659685393</v>
+        <v>1.000615866530191</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1672433779483293</v>
+        <v>1.1634865493064661</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3591532728498379</v>
+        <v>1.3515817300404231</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.2982832526444639</v>
+        <v>1.2919552542109285</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2603821768034451</v>
+        <v>1.2562997482828577</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2378274155807196</v>
+        <v>1.2335401807307715</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1368146989141332</v>
+        <v>1.1353222510650289</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2826,11 +2826,11 @@
         <v>1.0833893474578549</v>
       </c>
       <c r="H25">
-        <v>85435</v>
+        <v>81836</v>
       </c>
       <c r="I25">
         <f>Table2[[#This Row],[EEUU]]/H24</f>
-        <v>1.3212755756947774</v>
+        <v>1.2656160591392029</v>
       </c>
       <c r="J25">
         <v>56188</v>
@@ -2872,11 +2872,67 @@
         <f>Table2[[#This Row],[Chile]]/B25</f>
         <v>1.2327718223583461</v>
       </c>
+      <c r="D26">
+        <v>81394</v>
+      </c>
+      <c r="E26">
+        <f>Table2[[#This Row],[China]]/D25</f>
+        <v>1.0006638800098353</v>
+      </c>
+      <c r="F26">
+        <v>86498</v>
+      </c>
+      <c r="G26">
+        <f>Table2[[#This Row],[Italia]]/F25</f>
+        <v>1.0733226619017484</v>
+      </c>
+      <c r="H26">
+        <v>100292</v>
+      </c>
+      <c r="I26">
+        <f>Table2[[#This Row],[EEUU]]/H25</f>
+        <v>1.2255242191700475</v>
+      </c>
+      <c r="J26">
+        <v>64059</v>
+      </c>
+      <c r="K26">
+        <f>Table2[[#This Row],[España]]/J25</f>
+        <v>1.1400832918060795</v>
+      </c>
+      <c r="L26">
+        <v>42288</v>
+      </c>
+      <c r="M26">
+        <f>Table2[[#This Row],[Alemania]]/L25</f>
+        <v>1.1583214637887587</v>
+      </c>
+      <c r="N26">
+        <v>32964</v>
+      </c>
+      <c r="O26">
+        <f>Table2[[#This Row],[Francia]]/N25</f>
+        <v>1.1306465443320186</v>
+      </c>
+      <c r="P26">
+        <v>32332</v>
+      </c>
+      <c r="Q26">
+        <f>Table2[[#This Row],[Iran]]/P25</f>
+        <v>1.0995035026865265</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43918</v>
       </c>
+      <c r="B27">
+        <v>1909</v>
+      </c>
+      <c r="C27">
+        <f>Table2[[#This Row],[Chile]]/B26</f>
+        <v>1.1857142857142857</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -2934,7 +2990,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O25">
+  <conditionalFormatting sqref="O2:O26">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -2948,7 +3004,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25">
+  <conditionalFormatting sqref="I2:I26">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -2962,7 +3018,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E26">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2990,7 +3046,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C26">
+  <conditionalFormatting sqref="C2:C27">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3018,7 +3074,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G25">
+  <conditionalFormatting sqref="G2:G26">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3032,7 +3088,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q25">
+  <conditionalFormatting sqref="Q2:Q26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3064,7 +3120,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O25</xm:sqref>
+          <xm:sqref>O2:O26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3075,7 +3131,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25</xm:sqref>
+          <xm:sqref>I2:I26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3086,7 +3142,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E25</xm:sqref>
+          <xm:sqref>E2:E26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3108,7 +3164,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C26</xm:sqref>
+          <xm:sqref>C2:C27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3130,7 +3186,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G25</xm:sqref>
+          <xm:sqref>G2:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3141,7 +3197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q25</xm:sqref>
+          <xm:sqref>Q2:Q26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3153,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FB0546-6ED4-EA4A-8B36-63D597357EEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE20F7-37A0-6944-8EF9-B91A461459E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -270,14 +270,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,11 +286,63 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -335,7 +388,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -367,7 +424,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -386,66 +447,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -868,19 +869,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition descending="1" ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>(Table6[[#This Row],[Casos totales]]/C18)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -3209,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3249,9 +3248,9 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>1.8633540372670807E-3</v>
+      <c r="D2" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.5715034049240441E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3267,9 +3266,9 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>3.105590062111801E-3</v>
+      <c r="D3" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>2.6191723415400735E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3280,14 +3279,14 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>1.3043478260869565E-2</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.3095861707700367E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3303,9 +3302,9 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>6.2111801242236027E-4</v>
+      <c r="D5" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>5.2383446830801469E-4</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3319,11 +3318,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>8.6956521739130436E-3</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>7.8575170246202204E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3334,14 +3333,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>3.0434782608695653E-2</v>
+        <v>71</v>
+      </c>
+      <c r="D7" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>3.719224724986904E-2</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3352,14 +3351,14 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>192</v>
-      </c>
-      <c r="C8" s="2">
-        <v>938</v>
-      </c>
-      <c r="D8" s="3">
+        <v>146</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1084</v>
+      </c>
+      <c r="D8" s="6">
         <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>0.58260869565217388</v>
+        <v>0.56783656364588786</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -3370,14 +3369,14 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>9.9378881987577643E-3</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.0476689366160294E-2</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3388,14 +3387,14 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>1.9875776397515529E-2</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.9381875327396544E-2</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3406,14 +3405,14 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>144</v>
-      </c>
-      <c r="D11" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>8.9440993788819881E-2</v>
+        <v>172</v>
+      </c>
+      <c r="D11" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>9.0099528548978527E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3424,14 +3423,14 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>135</v>
-      </c>
-      <c r="D12" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>8.3850931677018639E-2</v>
+        <v>151</v>
+      </c>
+      <c r="D12" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>7.9099004714510215E-2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3442,17 +3441,17 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
-        <v>143</v>
-      </c>
-      <c r="D13" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>8.8819875776397522E-2</v>
+        <v>177</v>
+      </c>
+      <c r="D13" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>9.2718700890518591E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3460,14 +3459,14 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>1.3664596273291925E-2</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.4143530644316397E-2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3478,14 +3477,14 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>63</v>
-      </c>
-      <c r="D15" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>3.9130434782608699E-2</v>
+        <v>93</v>
+      </c>
+      <c r="D15" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>4.8716605552645363E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3501,9 +3500,9 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>1.2422360248447205E-3</v>
+      <c r="D16" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.0476689366160294E-3</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3514,38 +3513,38 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>1.3664596273291925E-2</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="6">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.3619696176008382E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>304</v>
-      </c>
-      <c r="C18" s="5">
+        <v>299</v>
+      </c>
+      <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>1610</v>
-      </c>
-      <c r="D18" s="6">
+        <v>1909</v>
+      </c>
+      <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE20F7-37A0-6944-8EF9-B91A461459E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5785CB-2946-D041-9A84-4E79DBCAE48B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="15100" yWindow="0" windowWidth="13700" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,9 @@
     <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
     <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
+      <calculatedColumnFormula>Table6[[#This Row],[Casos totales]]/C18</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1184,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,39 +1359,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>34.777121771842829</v>
+        <v>35.89760369955367</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>25.015396663254776</v>
+        <v>26.015949529559418</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>29.087163732661651</v>
+        <v>30.15622891335947</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>33.789543251010578</v>
+        <v>34.997222865003693</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>32.29888135527321</v>
+        <v>33.426716632127359</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>31.407493707071442</v>
+        <v>32.556330256447154</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>30.838504518269289</v>
+        <v>31.978384387217233</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>28.383056276625723</v>
+        <v>29.478194220458459</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1602,39 +1604,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3375816066093396</v>
+        <v>1.329540877761247</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.000615866530191</v>
+        <v>1.000613443444593</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1634865493064661</v>
+        <v>1.1598549582061335</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3515817300404231</v>
+        <v>1.3460470332693728</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.2919552542109285</v>
+        <v>1.2856429473895139</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2562997482828577</v>
+        <v>1.2521665483248905</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2335401807307715</v>
+        <v>1.2299378610468166</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1353222510650289</v>
+        <v>1.1337767007868638</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2459,11 +2461,11 @@
         <v>1.1458754721579141</v>
       </c>
       <c r="H19">
-        <v>17438</v>
+        <v>17439</v>
       </c>
       <c r="I19">
         <f>Table2[[#This Row],[EEUU]]/H18</f>
-        <v>1.4509901813945747</v>
+        <v>1.4510733899151274</v>
       </c>
       <c r="J19">
         <v>19980</v>
@@ -2524,7 +2526,7 @@
       </c>
       <c r="I20">
         <f>Table2[[#This Row],[EEUU]]/H19</f>
-        <v>1.3596742745727721</v>
+        <v>1.3595963071277022</v>
       </c>
       <c r="J20">
         <v>24926</v>
@@ -2642,11 +2644,11 @@
         <v>1.0809800804897021</v>
       </c>
       <c r="H22">
-        <v>42752</v>
+        <v>42749</v>
       </c>
       <c r="I22">
         <f>Table2[[#This Row],[EEUU]]/H21</f>
-        <v>1.321913360749513</v>
+        <v>1.3218205992393557</v>
       </c>
       <c r="J22">
         <v>33089</v>
@@ -2703,11 +2705,11 @@
         <v>1.0821092808985249</v>
       </c>
       <c r="H23">
-        <v>52825</v>
+        <v>52685</v>
       </c>
       <c r="I23">
         <f>Table2[[#This Row],[EEUU]]/H22</f>
-        <v>1.2356147080838322</v>
+        <v>1.2324264895085266</v>
       </c>
       <c r="J23">
         <v>39673</v>
@@ -2768,7 +2770,7 @@
       </c>
       <c r="I24">
         <f>Table2[[#This Row],[EEUU]]/H23</f>
-        <v>1.2240605773781355</v>
+        <v>1.2273132770238209</v>
       </c>
       <c r="J24">
         <v>47610</v>
@@ -2825,11 +2827,11 @@
         <v>1.0833893474578549</v>
       </c>
       <c r="H25">
-        <v>81836</v>
+        <v>81964</v>
       </c>
       <c r="I25">
         <f>Table2[[#This Row],[EEUU]]/H24</f>
-        <v>1.2656160591392029</v>
+        <v>1.2675956140486537</v>
       </c>
       <c r="J25">
         <v>56188</v>
@@ -2886,11 +2888,11 @@
         <v>1.0733226619017484</v>
       </c>
       <c r="H26">
-        <v>100292</v>
+        <v>100997</v>
       </c>
       <c r="I26">
         <f>Table2[[#This Row],[EEUU]]/H25</f>
-        <v>1.2255242191700475</v>
+        <v>1.2322117026987458</v>
       </c>
       <c r="J26">
         <v>64059</v>
@@ -2932,11 +2934,67 @@
         <f>Table2[[#This Row],[Chile]]/B26</f>
         <v>1.1857142857142857</v>
       </c>
+      <c r="D27">
+        <v>81439</v>
+      </c>
+      <c r="E27">
+        <f>Table2[[#This Row],[China]]/D26</f>
+        <v>1.0005528663046417</v>
+      </c>
+      <c r="F27">
+        <v>92472</v>
+      </c>
+      <c r="G27">
+        <f>Table2[[#This Row],[Italia]]/F26</f>
+        <v>1.0690651806978195</v>
+      </c>
+      <c r="H27">
+        <v>121099</v>
+      </c>
+      <c r="I27">
+        <f>Table2[[#This Row],[EEUU]]/H26</f>
+        <v>1.1990356149192549</v>
+      </c>
+      <c r="J27">
+        <v>72248</v>
+      </c>
+      <c r="K27">
+        <f>Table2[[#This Row],[España]]/J26</f>
+        <v>1.12783527685415</v>
+      </c>
+      <c r="L27">
+        <v>48582</v>
+      </c>
+      <c r="M27">
+        <f>Table2[[#This Row],[Alemania]]/L26</f>
+        <v>1.1488365493757093</v>
+      </c>
+      <c r="N27">
+        <v>37575</v>
+      </c>
+      <c r="O27">
+        <f>Table2[[#This Row],[Francia]]/N26</f>
+        <v>1.1398798689479432</v>
+      </c>
+      <c r="P27">
+        <v>35408</v>
+      </c>
+      <c r="Q27">
+        <f>Table2[[#This Row],[Iran]]/P26</f>
+        <v>1.0951379438327353</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43919</v>
       </c>
+      <c r="B28">
+        <v>2139</v>
+      </c>
+      <c r="C28">
+        <f>Table2[[#This Row],[Chile]]/B27</f>
+        <v>1.1204819277108433</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2989,7 +3047,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O26">
+  <conditionalFormatting sqref="O2:O27">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3003,7 +3061,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I26">
+  <conditionalFormatting sqref="I2:I27">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3017,7 +3075,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E26">
+  <conditionalFormatting sqref="E2:E27">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3045,7 +3103,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C27">
+  <conditionalFormatting sqref="C2:C28">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3059,7 +3117,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K26">
+  <conditionalFormatting sqref="K2:K27">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3073,7 +3131,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G26">
+  <conditionalFormatting sqref="G2:G27">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3087,7 +3145,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q26">
+  <conditionalFormatting sqref="Q2:Q27">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3119,7 +3177,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O26</xm:sqref>
+          <xm:sqref>O2:O27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3130,7 +3188,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I26</xm:sqref>
+          <xm:sqref>I2:I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3141,7 +3199,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E26</xm:sqref>
+          <xm:sqref>E2:E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3163,7 +3221,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C27</xm:sqref>
+          <xm:sqref>C2:C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3174,7 +3232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K26</xm:sqref>
+          <xm:sqref>K2:K27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3185,7 +3243,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G26</xm:sqref>
+          <xm:sqref>G2:G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3196,7 +3254,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q26</xm:sqref>
+          <xm:sqref>Q2:Q27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3243,14 +3301,14 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.5715034049240441E-3</v>
+        <v>1.8700327255726976E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3261,14 +3319,14 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.6191723415400735E-3</v>
+        <v>2.8050490883590462E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3279,14 +3337,14 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.3095861707700367E-2</v>
+        <v>1.2622720897615708E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3297,14 +3355,14 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>5.2383446830801469E-4</v>
+        <v>9.3501636278634881E-4</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3315,14 +3373,14 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>7.8575170246202204E-3</v>
+        <v>8.4151472650771386E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3333,14 +3391,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>3.719224724986904E-2</v>
+        <v>3.7400654511453947E-2</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3351,14 +3409,14 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7">
-        <v>1084</v>
+        <v>1167</v>
       </c>
       <c r="D8" s="6">
-        <f>(Table6[[#This Row],[Casos totales]]/C18)</f>
-        <v>0.56783656364588786</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>0.54558204768583451</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -3369,14 +3427,14 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.0476689366160294E-2</v>
+        <v>9.8176718092566617E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3390,11 +3448,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.9381875327396544E-2</v>
+        <v>1.9635343618513323E-2</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3405,14 +3463,14 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="D11" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.0099528548978527E-2</v>
+        <v>9.2099111734455355E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3423,14 +3481,14 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D12" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>7.9099004714510215E-2</v>
+        <v>8.6489013557737263E-2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3441,17 +3499,17 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D13" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.2718700890518591E-2</v>
+        <v>9.5839177185600755E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,14 +3517,14 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.4143530644316397E-2</v>
+        <v>1.8700327255726974E-2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3477,14 +3535,14 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D15" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>4.8716605552645363E-2</v>
+        <v>4.8620850864890139E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3502,7 +3560,7 @@
       </c>
       <c r="D16" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.0476689366160294E-3</v>
+        <v>9.3501636278634881E-4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3513,14 +3571,14 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.3619696176008382E-2</v>
+        <v>1.82328190743338E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3532,19 +3590,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>1909</v>
+        <v>2139</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5785CB-2946-D041-9A84-4E79DBCAE48B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4123CD1-5B3E-B04A-9CBE-92CDA69F6725}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="0" windowWidth="13700" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,6 +279,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +880,7 @@
     <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
     <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
     <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
-      <calculatedColumnFormula>Table6[[#This Row],[Casos totales]]/C18</calculatedColumnFormula>
+      <calculatedColumnFormula>C2/C18</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
@@ -1186,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,39 +1360,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>35.89760369955367</v>
+        <v>37.042531235785553</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>26.015949529559418</v>
+        <v>27.016330182563507</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>30.15622891335947</v>
+        <v>31.211564582535004</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>34.997222865003693</v>
+        <v>36.167349569682571</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>33.426716632127359</v>
+        <v>34.517362739978097</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>32.556330256447154</v>
+        <v>33.63794484621291</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>31.978384387217233</v>
+        <v>33.047552717223887</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>29.478194220458459</v>
+        <v>30.560124857602606</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1604,39 +1605,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.329540877761247</v>
+        <v>1.3229475441351983</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.000613443444593</v>
+        <v>1.0006048215764263</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1598549582061335</v>
+        <v>1.1559838734272223</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3460470332693728</v>
+        <v>1.3395314655437989</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.2856429473895139</v>
+        <v>1.2784208422214109</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2521665483248905</v>
+        <v>1.2458498091189967</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2299378610468166</v>
+        <v>1.223983433971255</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1337767007868638</v>
+        <v>1.1318564762075038</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2949,11 +2950,11 @@
         <v>1.0690651806978195</v>
       </c>
       <c r="H27">
-        <v>121099</v>
+        <v>121105</v>
       </c>
       <c r="I27">
         <f>Table2[[#This Row],[EEUU]]/H26</f>
-        <v>1.1990356149192549</v>
+        <v>1.1990950226244343</v>
       </c>
       <c r="J27">
         <v>72248</v>
@@ -2995,11 +2996,68 @@
         <f>Table2[[#This Row],[Chile]]/B27</f>
         <v>1.1204819277108433</v>
       </c>
+      <c r="D28">
+        <v>81470</v>
+      </c>
+      <c r="E28">
+        <f>Table2[[#This Row],[China]]/D27</f>
+        <v>1.0003806530040888</v>
+      </c>
+      <c r="F28">
+        <v>97589</v>
+      </c>
+      <c r="G28">
+        <f>Table2[[#This Row],[Italia]]/F27</f>
+        <v>1.0553356691755342</v>
+      </c>
+      <c r="H28">
+        <v>141701</v>
+      </c>
+      <c r="I28">
+        <f>Table2[[#This Row],[EEUU]]/H27</f>
+        <v>1.1700672969737005</v>
+      </c>
+      <c r="J28">
+        <v>78797</v>
+      </c>
+      <c r="K28">
+        <f>Table2[[#This Row],[España]]/J27</f>
+        <v>1.0906461078507363</v>
+      </c>
+      <c r="L28">
+        <v>52547</v>
+      </c>
+      <c r="M28">
+        <f>Table2[[#This Row],[Alemania]]/L27</f>
+        <v>1.081614589765757</v>
+      </c>
+      <c r="N28">
+        <v>40174</v>
+      </c>
+      <c r="O28">
+        <f>Table2[[#This Row],[Francia]]/N27</f>
+        <v>1.0691683300066535</v>
+      </c>
+      <c r="P28">
+        <v>38309</v>
+      </c>
+      <c r="Q28">
+        <f>Table2[[#This Row],[Iran]]/P27</f>
+        <v>1.0819306371441482</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43920</v>
       </c>
+      <c r="B29">
+        <v>2449</v>
+      </c>
+      <c r="C29">
+        <f>Table2[[#This Row],[Chile]]/B28</f>
+        <v>1.144927536231884</v>
+      </c>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -3047,7 +3105,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O27">
+  <conditionalFormatting sqref="O2:O28">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3061,7 +3119,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I27">
+  <conditionalFormatting sqref="I2:I28">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3075,7 +3133,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
+  <conditionalFormatting sqref="E2:E28">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3089,7 +3147,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M27">
+  <conditionalFormatting sqref="M2:M28">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3103,7 +3161,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C28">
+  <conditionalFormatting sqref="C2:C29">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3117,7 +3175,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K27">
+  <conditionalFormatting sqref="K2:K28">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3131,7 +3189,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G27">
+  <conditionalFormatting sqref="G2:G28">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3145,7 +3203,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q27">
+  <conditionalFormatting sqref="Q2:Q28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3177,7 +3235,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O27</xm:sqref>
+          <xm:sqref>O2:O28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3188,7 +3246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I27</xm:sqref>
+          <xm:sqref>I2:I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3199,7 +3257,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E27</xm:sqref>
+          <xm:sqref>E2:E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3210,7 +3268,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M27</xm:sqref>
+          <xm:sqref>M2:M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3221,7 +3279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C28</xm:sqref>
+          <xm:sqref>C2:C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3232,7 +3290,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K27</xm:sqref>
+          <xm:sqref>K2:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3243,7 +3301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G27</xm:sqref>
+          <xm:sqref>G2:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3254,7 +3312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q27</xm:sqref>
+          <xm:sqref>Q2:Q28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3267,7 +3325,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3301,14 +3359,14 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.8700327255726976E-3</v>
+        <f>C2/C18</f>
+        <v>2.4499795835034709E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3319,14 +3377,14 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.8050490883590462E-3</v>
+        <f>C3/C18</f>
+        <v>3.2666394446712946E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3337,14 +3395,14 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.2622720897615708E-2</v>
+        <f>C4/C18</f>
+        <v>1.4291547570436913E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3355,14 +3413,14 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.3501636278634881E-4</v>
+        <f>C5/C18</f>
+        <v>8.1665986116782364E-4</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3373,14 +3431,14 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>8.4151472650771386E-3</v>
+        <f>C6/C18</f>
+        <v>1.1024908125765618E-2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3391,14 +3449,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D7" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>3.7400654511453947E-2</v>
+        <f>C7/C18</f>
+        <v>4.4099632503062473E-2</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3409,14 +3467,14 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7">
-        <v>1167</v>
+        <v>1295</v>
       </c>
       <c r="D8" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>0.54558204768583451</v>
+        <f>C8/C18</f>
+        <v>0.52878726010616584</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -3427,14 +3485,14 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.8176718092566617E-3</v>
+        <f>C9/C18</f>
+        <v>8.5749285422621474E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3445,17 +3503,17 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.9635343618513323E-2</v>
+        <f>C10/C18</f>
+        <v>2.2049816251531237E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3463,14 +3521,14 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="D11" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.2099111734455355E-2</v>
+        <f>C11/C18</f>
+        <v>9.3507554103715806E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3481,14 +3539,14 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D12" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>8.6489013557737263E-2</v>
+        <f>C12/C18</f>
+        <v>8.2074316047366272E-2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3499,14 +3557,14 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="D13" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.5839177185600755E-2</v>
+        <f>C13/C18</f>
+        <v>0.10085749285422621</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -3517,14 +3575,14 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.8700327255726974E-2</v>
+        <f>C14/C18</f>
+        <v>1.9191506737443853E-2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3535,14 +3593,14 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D15" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>4.8620850864890139E-2</v>
+        <f>C15/C18</f>
+        <v>5.2266231114740713E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3559,8 +3617,8 @@
         <v>2</v>
       </c>
       <c r="D16" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.3501636278634881E-4</v>
+        <f>C16/C18</f>
+        <v>8.1665986116782364E-4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3571,14 +3629,14 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
         <v>39</v>
       </c>
       <c r="D17" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.82328190743338E-2</v>
+        <f>C17/C18</f>
+        <v>1.5924867292772562E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3590,11 +3648,11 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>2139</v>
+        <v>2449</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
@@ -3602,7 +3660,7 @@
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4123CD1-5B3E-B04A-9CBE-92CDA69F6725}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BE322-3F62-0E44-AEA5-6AF5143BDBE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,7 +279,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,63 +286,11 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -389,11 +336,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -425,6 +368,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -443,11 +400,53 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -870,19 +869,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
-    <sortCondition descending="1" ref="C1:C17"/>
+    <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>C2/C18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1187,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1360,39 +1359,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>37.042531235785553</v>
+        <v>38.160538585724304</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>27.016330182563507</v>
+        <v>28.016919356492561</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>31.211564582535004</v>
+        <v>32.254089867147002</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>36.167349569682571</v>
+        <v>37.311491107145258</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>34.517362739978097</v>
+        <v>35.676635786424917</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>33.63794484621291</v>
+        <v>34.816185278587739</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>33.047552717223887</v>
+        <v>34.156478888379361</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>30.560124857602606</v>
+        <v>31.643290693307009</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1605,39 +1604,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3229475441351983</v>
+        <v>1.3158806408870449</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.0006048215764263</v>
+        <v>1.0006042627318772</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1559838734272223</v>
+        <v>1.1519317809695357</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3395314655437989</v>
+        <v>1.3325532538266163</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.2784208422214109</v>
+        <v>1.27416556380089</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2458498091189967</v>
+        <v>1.2434351885209907</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.223983433971255</v>
+        <v>1.2198742460135485</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1318564762075038</v>
+        <v>1.1301175247609645</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1917,11 +1916,11 @@
         <v>1.2873931623931625</v>
       </c>
       <c r="J10">
-        <v>2128</v>
+        <v>2227</v>
       </c>
       <c r="K10">
         <f>Table2[[#This Row],[España]]/J9</f>
-        <v>1.2554572271386431</v>
+        <v>1.3138643067846607</v>
       </c>
       <c r="L10">
         <v>1884</v>
@@ -1981,11 +1980,11 @@
         <v>1.3261410788381742</v>
       </c>
       <c r="J11">
-        <v>2950</v>
+        <v>3146</v>
       </c>
       <c r="K11">
         <f>Table2[[#This Row],[España]]/J10</f>
-        <v>1.3862781954887218</v>
+        <v>1.4126627750336775</v>
       </c>
       <c r="L11">
         <v>2369</v>
@@ -2042,11 +2041,11 @@
         <v>1.353566958698373</v>
       </c>
       <c r="J12">
-        <v>4209</v>
+        <v>5232</v>
       </c>
       <c r="K12">
         <f>Table2[[#This Row],[España]]/J11</f>
-        <v>1.4267796610169492</v>
+        <v>1.6630642085187539</v>
       </c>
       <c r="L12">
         <v>3062</v>
@@ -2103,11 +2102,11 @@
         <v>1.3060564031437818</v>
       </c>
       <c r="J13">
-        <v>5753</v>
+        <v>6391</v>
       </c>
       <c r="K13">
         <f>Table2[[#This Row],[España]]/J12</f>
-        <v>1.3668329769541459</v>
+        <v>1.2215214067278288</v>
       </c>
       <c r="L13">
         <v>3795</v>
@@ -2164,11 +2163,11 @@
         <v>1.2392920353982302</v>
       </c>
       <c r="J14">
-        <v>7753</v>
+        <v>7988</v>
       </c>
       <c r="K14">
         <f>Table2[[#This Row],[España]]/J13</f>
-        <v>1.3476447071093343</v>
+        <v>1.2498826474730089</v>
       </c>
       <c r="L14">
         <v>4838</v>
@@ -2225,11 +2224,11 @@
         <v>1.249071693801771</v>
       </c>
       <c r="J15">
-        <v>9191</v>
+        <v>9942</v>
       </c>
       <c r="K15">
         <f>Table2[[#This Row],[España]]/J14</f>
-        <v>1.1854765897072101</v>
+        <v>1.2446169253880821</v>
       </c>
       <c r="L15">
         <v>6012</v>
@@ -2286,11 +2285,11 @@
         <v>1.2947633203750286</v>
       </c>
       <c r="J16">
-        <v>11178</v>
+        <v>11826</v>
       </c>
       <c r="K16">
         <f>Table2[[#This Row],[España]]/J15</f>
-        <v>1.2161897508432162</v>
+        <v>1.1894990947495474</v>
       </c>
       <c r="L16">
         <v>7156</v>
@@ -2347,11 +2346,11 @@
         <v>1.4259978806075593</v>
       </c>
       <c r="J17">
-        <v>13716</v>
+        <v>14769</v>
       </c>
       <c r="K17">
         <f>Table2[[#This Row],[España]]/J16</f>
-        <v>1.2270531400966183</v>
+        <v>1.2488584474885844</v>
       </c>
       <c r="L17">
         <v>8198</v>
@@ -2408,11 +2407,11 @@
         <v>1.4884815457022542</v>
       </c>
       <c r="J18">
-        <v>17147</v>
+        <v>18077</v>
       </c>
       <c r="K18">
         <f>Table2[[#This Row],[España]]/J17</f>
-        <v>1.2501458151064451</v>
+        <v>1.2239826663958291</v>
       </c>
       <c r="L18">
         <v>10999</v>
@@ -2469,11 +2468,11 @@
         <v>1.4510733899151274</v>
       </c>
       <c r="J19">
-        <v>19980</v>
+        <v>21571</v>
       </c>
       <c r="K19">
         <f>Table2[[#This Row],[España]]/J18</f>
-        <v>1.1652184055519916</v>
+        <v>1.1932842838966642</v>
       </c>
       <c r="L19">
         <v>13957</v>
@@ -2530,11 +2529,11 @@
         <v>1.3595963071277022</v>
       </c>
       <c r="J20">
-        <v>24926</v>
+        <v>25496</v>
       </c>
       <c r="K20">
         <f>Table2[[#This Row],[España]]/J19</f>
-        <v>1.2475475475475475</v>
+        <v>1.1819572574289556</v>
       </c>
       <c r="L20">
         <v>16662</v>
@@ -2591,11 +2590,11 @@
         <v>1.3640236187262758</v>
       </c>
       <c r="J21">
-        <v>28572</v>
+        <v>29909</v>
       </c>
       <c r="K21">
         <f>Table2[[#This Row],[España]]/J20</f>
-        <v>1.1462729679852364</v>
+        <v>1.1730859742704738</v>
       </c>
       <c r="L21">
         <v>18610</v>
@@ -2652,11 +2651,11 @@
         <v>1.3218205992393557</v>
       </c>
       <c r="J22">
-        <v>33089</v>
+        <v>35480</v>
       </c>
       <c r="K22">
         <f>Table2[[#This Row],[España]]/J21</f>
-        <v>1.1580918381632368</v>
+        <v>1.1862650038449964</v>
       </c>
       <c r="L22">
         <v>22672</v>
@@ -2713,11 +2712,11 @@
         <v>1.2324264895085266</v>
       </c>
       <c r="J23">
-        <v>39673</v>
+        <v>42058</v>
       </c>
       <c r="K23">
         <f>Table2[[#This Row],[España]]/J22</f>
-        <v>1.1989785124966001</v>
+        <v>1.1854002254791431</v>
       </c>
       <c r="L23">
         <v>27436</v>
@@ -2774,11 +2773,11 @@
         <v>1.2273132770238209</v>
       </c>
       <c r="J24">
-        <v>47610</v>
+        <v>50105</v>
       </c>
       <c r="K24">
         <f>Table2[[#This Row],[España]]/J23</f>
-        <v>1.2000604945428881</v>
+        <v>1.1913310190689048</v>
       </c>
       <c r="L24">
         <v>31554</v>
@@ -2835,11 +2834,11 @@
         <v>1.2675956140486537</v>
       </c>
       <c r="J25">
-        <v>56188</v>
+        <v>57786</v>
       </c>
       <c r="K25">
         <f>Table2[[#This Row],[España]]/J24</f>
-        <v>1.1801722327242177</v>
+        <v>1.1532980740445065</v>
       </c>
       <c r="L25">
         <v>36508</v>
@@ -2896,11 +2895,11 @@
         <v>1.2322117026987458</v>
       </c>
       <c r="J26">
-        <v>64059</v>
+        <v>65719</v>
       </c>
       <c r="K26">
         <f>Table2[[#This Row],[España]]/J25</f>
-        <v>1.1400832918060795</v>
+        <v>1.1372823867372721</v>
       </c>
       <c r="L26">
         <v>42288</v>
@@ -2957,11 +2956,11 @@
         <v>1.1990950226244343</v>
       </c>
       <c r="J27">
-        <v>72248</v>
+        <v>73232</v>
       </c>
       <c r="K27">
         <f>Table2[[#This Row],[España]]/J26</f>
-        <v>1.12783527685415</v>
+        <v>1.1143200596478948</v>
       </c>
       <c r="L27">
         <v>48582</v>
@@ -3018,11 +3017,11 @@
         <v>1.1700672969737005</v>
       </c>
       <c r="J28">
-        <v>78797</v>
+        <v>80110</v>
       </c>
       <c r="K28">
         <f>Table2[[#This Row],[España]]/J27</f>
-        <v>1.0906461078507363</v>
+        <v>1.0939206904085645</v>
       </c>
       <c r="L28">
         <v>52547</v>
@@ -3057,12 +3056,67 @@
         <f>Table2[[#This Row],[Chile]]/B28</f>
         <v>1.144927536231884</v>
       </c>
-      <c r="Q29" s="8"/>
+      <c r="D29">
+        <v>81518</v>
+      </c>
+      <c r="E29">
+        <f>Table2[[#This Row],[China]]/D28</f>
+        <v>1.0005891739290536</v>
+      </c>
+      <c r="F29">
+        <v>101739</v>
+      </c>
+      <c r="G29">
+        <f>Table2[[#This Row],[Italia]]/F28</f>
+        <v>1.0425252846119952</v>
+      </c>
+      <c r="H29">
+        <v>162126</v>
+      </c>
+      <c r="I29">
+        <f>Table2[[#This Row],[EEUU]]/H28</f>
+        <v>1.1441415374626855</v>
+      </c>
+      <c r="J29">
+        <v>87956</v>
+      </c>
+      <c r="K29">
+        <f>Table2[[#This Row],[España]]/J28</f>
+        <v>1.0979403320434402</v>
+      </c>
+      <c r="L29">
+        <v>61913</v>
+      </c>
+      <c r="M29">
+        <f>Table2[[#This Row],[Alemania]]/L28</f>
+        <v>1.1782404323748263</v>
+      </c>
+      <c r="N29">
+        <v>44550</v>
+      </c>
+      <c r="O29">
+        <f>Table2[[#This Row],[Francia]]/N28</f>
+        <v>1.1089261711554737</v>
+      </c>
+      <c r="P29">
+        <v>41495</v>
+      </c>
+      <c r="Q29">
+        <f>Table2[[#This Row],[Iran]]/P28</f>
+        <v>1.0831658357044036</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
+      <c r="B30">
+        <v>2738</v>
+      </c>
+      <c r="C30">
+        <f>Table2[[#This Row],[Chile]]/B29</f>
+        <v>1.1180073499387506</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -3105,7 +3159,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O28">
+  <conditionalFormatting sqref="O2:O29">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3119,7 +3173,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I28">
+  <conditionalFormatting sqref="I2:I29">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3133,7 +3187,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E28">
+  <conditionalFormatting sqref="E2:E29">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3147,7 +3201,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M28">
+  <conditionalFormatting sqref="M2:M29">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3161,7 +3215,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C29">
+  <conditionalFormatting sqref="C2:C30">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3175,7 +3229,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K28">
+  <conditionalFormatting sqref="K2:K29">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3189,7 +3243,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G28">
+  <conditionalFormatting sqref="G2:G29">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3203,7 +3257,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q28">
+  <conditionalFormatting sqref="Q2:Q29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3235,7 +3289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O28</xm:sqref>
+          <xm:sqref>O2:O29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3246,7 +3300,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I28</xm:sqref>
+          <xm:sqref>I2:I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3257,7 +3311,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E28</xm:sqref>
+          <xm:sqref>E2:E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3268,7 +3322,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M28</xm:sqref>
+          <xm:sqref>M2:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3279,7 +3333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C29</xm:sqref>
+          <xm:sqref>C2:C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3290,7 +3344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K28</xm:sqref>
+          <xm:sqref>K2:K29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3301,7 +3355,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G28</xm:sqref>
+          <xm:sqref>G2:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3312,7 +3366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q28</xm:sqref>
+          <xm:sqref>Q2:Q29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3324,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3356,17 +3410,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
       <c r="D2" s="6">
-        <f>C2/C18</f>
-        <v>2.4499795835034709E-3</v>
+        <f>C2/C15</f>
+        <v>8.7336244541484712E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3374,17 +3428,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
       <c r="D3" s="6">
-        <f>C3/C18</f>
-        <v>3.2666394446712946E-3</v>
+        <f>C3/C5</f>
+        <v>0.25</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3392,17 +3446,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6">
-        <f>C4/C18</f>
-        <v>1.4291547570436913E-2</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="e">
+        <f>C4/C20</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3410,17 +3464,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <f>C5/C18</f>
-        <v>8.1665986116782364E-4</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="e">
+        <f>C5/C20</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3428,17 +3482,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6">
-        <f>C6/C18</f>
-        <v>1.1024908125765618E-2</v>
+        <f>C6/C15</f>
+        <v>9.1703056768558958E-2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3446,17 +3500,17 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>108</v>
-      </c>
-      <c r="D7" s="6">
-        <f>C7/C18</f>
-        <v>4.4099632503062473E-2</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="e">
+        <f>C7/C19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -3464,35 +3518,35 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
-        <v>128</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1295</v>
-      </c>
-      <c r="D8" s="6">
-        <f>C8/C18</f>
-        <v>0.52878726010616584</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="e">
+        <f>C8/C22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6">
-        <f>C9/C18</f>
-        <v>8.5749285422621474E-3</v>
+        <f>C9/C10</f>
+        <v>0.82978723404255317</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3500,107 +3554,107 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6">
-        <f>C10/C18</f>
-        <v>2.2049816251531237E-2</v>
+        <f>C10/C14</f>
+        <v>0.23383084577114427</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>229</v>
-      </c>
-      <c r="D11" s="6">
-        <f>C11/C18</f>
-        <v>9.3507554103715806E-2</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="6" t="e">
+        <f>C11/C19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>201</v>
-      </c>
-      <c r="D12" s="6">
-        <f>C12/C18</f>
-        <v>8.2074316047366272E-2</v>
+        <v>108</v>
+      </c>
+      <c r="D12" s="6" t="e">
+        <f>C12/C23</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="D13" s="6">
-        <f>C13/C18</f>
-        <v>0.10085749285422621</v>
+        <f>C13/C16</f>
+        <v>0.51821862348178138</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6">
-        <f>C14/C18</f>
-        <v>1.9191506737443853E-2</v>
+        <v>201</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f>C14/C20</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
-        <v>128</v>
-      </c>
-      <c r="D15" s="6">
-        <f>C15/C18</f>
-        <v>5.2266231114740713E-2</v>
+        <v>229</v>
+      </c>
+      <c r="D15" s="6" t="e">
+        <f>C15/C22</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3608,38 +3662,38 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
+        <v>247</v>
+      </c>
+      <c r="D16" s="6" t="e">
+        <f>C16/C21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="2">
         <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <f>C16/C18</f>
-        <v>8.1665986116782364E-4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>39</v>
-      </c>
-      <c r="D17" s="6">
-        <f>C17/C18</f>
-        <v>1.5924867292772562E-2</v>
+        <v>128</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1295</v>
+      </c>
+      <c r="D17" s="6" t="e">
+        <f>C17/C27</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3654,9 +3708,9 @@
         <f>SUM(C2:C17)</f>
         <v>2449</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="e">
         <f>SUM(D2:D17)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BE322-3F62-0E44-AEA5-6AF5143BDBE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D127B33-3148-8A47-8438-D51A2B0C92D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,63 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -336,7 +388,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -368,7 +424,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -387,66 +447,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -869,19 +869,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
       <calculatedColumnFormula>C2/C18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -3378,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3410,17 +3410,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
-        <f>C2/C15</f>
-        <v>8.7336244541484712E-3</v>
+        <f>C2/C18</f>
+        <v>2.1913805697589481E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3428,17 +3428,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
-        <f>C3/C5</f>
-        <v>0.25</v>
+        <f>C3/C18</f>
+        <v>3.6523009495982471E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3446,17 +3446,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="e">
-        <f>C4/C20</f>
-        <v>#DIV/0!</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <f>C4/C18</f>
+        <v>1.2783053323593864E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3464,17 +3464,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="e">
-        <f>C5/C20</f>
-        <v>#DIV/0!</v>
+      <c r="D5" s="6">
+        <f>C5/C18</f>
+        <v>7.3046018991964939E-4</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3482,17 +3482,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6">
-        <f>C6/C15</f>
-        <v>9.1703056768558958E-2</v>
+        <f>C6/C18</f>
+        <v>1.0226442658875092E-2</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3500,53 +3500,53 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="e">
-        <f>C7/C19</f>
-        <v>#DIV/0!</v>
+        <v>115</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7/C18</f>
+        <v>4.2001460920379839E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6" t="e">
-        <f>C8/C22</f>
-        <v>#DIV/0!</v>
+        <v>125</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1420</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8/C18</f>
+        <v>0.51862673484295108</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6">
-        <f>C9/C10</f>
-        <v>0.82978723404255317</v>
+        <f>C9/C18</f>
+        <v>8.4002921840759682E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3554,107 +3554,107 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6">
-        <f>C10/C14</f>
-        <v>0.23383084577114427</v>
+        <f>C10/C18</f>
+        <v>2.2644265887509132E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>54</v>
-      </c>
-      <c r="D11" s="6" t="e">
-        <f>C11/C19</f>
-        <v>#DIV/0!</v>
+        <v>245</v>
+      </c>
+      <c r="D11" s="6">
+        <f>C11/C18</f>
+        <v>8.9481373265157052E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>108</v>
-      </c>
-      <c r="D12" s="6" t="e">
-        <f>C12/C23</f>
-        <v>#DIV/0!</v>
+        <v>216</v>
+      </c>
+      <c r="D12" s="6">
+        <f>C12/C18</f>
+        <v>7.8889700511322131E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="D13" s="6">
-        <f>C13/C16</f>
-        <v>0.51821862348178138</v>
+        <f>C13/C18</f>
+        <v>0.11029948867786706</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>201</v>
-      </c>
-      <c r="D14" s="6" t="e">
-        <f>C14/C20</f>
-        <v>#DIV/0!</v>
+        <v>58</v>
+      </c>
+      <c r="D14" s="6">
+        <f>C14/C18</f>
+        <v>2.1183345507669833E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>229</v>
-      </c>
-      <c r="D15" s="6" t="e">
-        <f>C15/C22</f>
-        <v>#DIV/0!</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="6">
+        <f>C15/C18</f>
+        <v>5.5149744338933528E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3662,38 +3662,38 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>247</v>
-      </c>
-      <c r="D16" s="6" t="e">
-        <f>C16/C21</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C16/C18</f>
+        <v>7.3046018991964939E-4</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>128</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1295</v>
-      </c>
-      <c r="D17" s="6" t="e">
-        <f>C17/C27</f>
-        <v>#DIV/0!</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6">
+        <f>C17/C18</f>
+        <v>2.3009495982468955E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3702,19 +3702,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>2449</v>
-      </c>
-      <c r="D18" s="5" t="e">
+        <v>2738</v>
+      </c>
+      <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>#DIV/0!</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D127B33-3148-8A47-8438-D51A2B0C92D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE8B7B-8CC4-7445-9779-F55B7D165AFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,39 +1359,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>38.160538585724304</v>
+        <v>39.267551003547531</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>28.016919356492561</v>
+        <v>29.017360976748211</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>32.254089867147002</v>
+        <v>33.293927097707552</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>37.311491107145258</v>
+        <v>38.464693283916148</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>35.676635786424917</v>
+        <v>36.767215167024311</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>34.816185278587739</v>
+        <v>35.904260480887743</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>34.156478888379361</v>
+        <v>35.326579898480368</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>31.643290693307009</v>
+        <v>32.718239482317735</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1604,39 +1604,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3158806408870449</v>
+        <v>1.3089183667849178</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.0006042627318772</v>
+        <v>1.000598654370628</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1519317809695357</v>
+        <v>1.148066451645088</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3325532538266163</v>
+        <v>1.3263687339281431</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.27416556380089</v>
+        <v>1.267835005759459</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2434351885209907</v>
+        <v>1.2380779476168187</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2198742460135485</v>
+        <v>1.2181579275338057</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1301175247609645</v>
+        <v>1.1282151545626804</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2400,11 +2400,11 @@
         <v>1.1490213647691316</v>
       </c>
       <c r="H18">
-        <v>12018</v>
+        <v>12022</v>
       </c>
       <c r="I18">
         <f>Table2[[#This Row],[EEUU]]/H17</f>
-        <v>1.4884815457022542</v>
+        <v>1.4889769630914045</v>
       </c>
       <c r="J18">
         <v>18077</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="I19">
         <f>Table2[[#This Row],[EEUU]]/H18</f>
-        <v>1.4510733899151274</v>
+        <v>1.4505905839294626</v>
       </c>
       <c r="J19">
         <v>21571</v>
@@ -2644,11 +2644,11 @@
         <v>1.0809800804897021</v>
       </c>
       <c r="H22">
-        <v>42749</v>
+        <v>42751</v>
       </c>
       <c r="I22">
         <f>Table2[[#This Row],[EEUU]]/H21</f>
-        <v>1.3218205992393557</v>
+        <v>1.3218824402461271</v>
       </c>
       <c r="J22">
         <v>35480</v>
@@ -2705,11 +2705,11 @@
         <v>1.0821092808985249</v>
       </c>
       <c r="H23">
-        <v>52685</v>
+        <v>52690</v>
       </c>
       <c r="I23">
         <f>Table2[[#This Row],[EEUU]]/H22</f>
-        <v>1.2324264895085266</v>
+        <v>1.2324857898060864</v>
       </c>
       <c r="J23">
         <v>42058</v>
@@ -2766,11 +2766,11 @@
         <v>1.0753151381982191</v>
       </c>
       <c r="H24">
-        <v>64661</v>
+        <v>64916</v>
       </c>
       <c r="I24">
         <f>Table2[[#This Row],[EEUU]]/H23</f>
-        <v>1.2273132770238209</v>
+        <v>1.2320364395520971</v>
       </c>
       <c r="J24">
         <v>50105</v>
@@ -2827,11 +2827,11 @@
         <v>1.0833893474578549</v>
       </c>
       <c r="H25">
-        <v>81964</v>
+        <v>81966</v>
       </c>
       <c r="I25">
         <f>Table2[[#This Row],[EEUU]]/H24</f>
-        <v>1.2675956140486537</v>
+        <v>1.2626471131924333</v>
       </c>
       <c r="J25">
         <v>57786</v>
@@ -2888,11 +2888,11 @@
         <v>1.0733226619017484</v>
       </c>
       <c r="H26">
-        <v>100997</v>
+        <v>101012</v>
       </c>
       <c r="I26">
         <f>Table2[[#This Row],[EEUU]]/H25</f>
-        <v>1.2322117026987458</v>
+        <v>1.2323646389966572</v>
       </c>
       <c r="J26">
         <v>65719</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I27">
         <f>Table2[[#This Row],[EEUU]]/H26</f>
-        <v>1.1990950226244343</v>
+        <v>1.1989169603611451</v>
       </c>
       <c r="J27">
         <v>73232</v>
@@ -3071,11 +3071,11 @@
         <v>1.0425252846119952</v>
       </c>
       <c r="H29">
-        <v>162126</v>
+        <v>161783</v>
       </c>
       <c r="I29">
         <f>Table2[[#This Row],[EEUU]]/H28</f>
-        <v>1.1441415374626855</v>
+        <v>1.1417209476291628</v>
       </c>
       <c r="J29">
         <v>87956</v>
@@ -3117,11 +3117,67 @@
         <f>Table2[[#This Row],[Chile]]/B29</f>
         <v>1.1180073499387506</v>
       </c>
+      <c r="D30">
+        <v>81554</v>
+      </c>
+      <c r="E30">
+        <f>Table2[[#This Row],[China]]/D29</f>
+        <v>1.000441620255649</v>
+      </c>
+      <c r="F30">
+        <v>105792</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Italia]]/F29</f>
+        <v>1.0398372305605521</v>
+      </c>
+      <c r="H30">
+        <v>186979</v>
+      </c>
+      <c r="I30">
+        <f>Table2[[#This Row],[EEUU]]/H29</f>
+        <v>1.1557394781899211</v>
+      </c>
+      <c r="J30">
+        <v>95923</v>
+      </c>
+      <c r="K30">
+        <f>Table2[[#This Row],[España]]/J29</f>
+        <v>1.0905793805993906</v>
+      </c>
+      <c r="L30">
+        <v>67366</v>
+      </c>
+      <c r="M30">
+        <f>Table2[[#This Row],[Alemania]]/L29</f>
+        <v>1.0880752023000015</v>
+      </c>
+      <c r="N30">
+        <v>52128</v>
+      </c>
+      <c r="O30">
+        <f>Table2[[#This Row],[Francia]]/N29</f>
+        <v>1.1701010101010101</v>
+      </c>
+      <c r="P30">
+        <v>44605</v>
+      </c>
+      <c r="Q30">
+        <f>Table2[[#This Row],[Iran]]/P29</f>
+        <v>1.0749487890107241</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43922</v>
       </c>
+      <c r="B31">
+        <v>3031</v>
+      </c>
+      <c r="C31">
+        <f>Table2[[#This Row],[Chile]]/B30</f>
+        <v>1.1070124178232286</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -3159,7 +3215,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O29">
+  <conditionalFormatting sqref="O2:O30">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3173,7 +3229,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I29">
+  <conditionalFormatting sqref="I2:I30">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3187,7 +3243,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E29">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3201,7 +3257,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M29">
+  <conditionalFormatting sqref="M2:M30">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3215,7 +3271,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C30">
+  <conditionalFormatting sqref="C2:C31">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3229,7 +3285,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K29">
+  <conditionalFormatting sqref="K2:K30">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3243,7 +3299,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G29">
+  <conditionalFormatting sqref="G2:G30">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3257,7 +3313,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q29">
+  <conditionalFormatting sqref="Q2:Q30">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3289,7 +3345,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O29</xm:sqref>
+          <xm:sqref>O2:O30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3300,7 +3356,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I29</xm:sqref>
+          <xm:sqref>I2:I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3311,7 +3367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E29</xm:sqref>
+          <xm:sqref>E2:E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3322,7 +3378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M29</xm:sqref>
+          <xm:sqref>M2:M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3333,7 +3389,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C30</xm:sqref>
+          <xm:sqref>C2:C31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3344,7 +3400,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K29</xm:sqref>
+          <xm:sqref>K2:K30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3355,7 +3411,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G29</xm:sqref>
+          <xm:sqref>G2:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3366,7 +3422,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q29</xm:sqref>
+          <xm:sqref>Q2:Q30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3378,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3420,7 +3476,7 @@
       </c>
       <c r="D2" s="6">
         <f>C2/C18</f>
-        <v>2.1913805697589481E-3</v>
+        <v>1.9795447047179148E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3431,14 +3487,14 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
       <c r="D3" s="6">
         <f>C3/C18</f>
-        <v>3.6523009495982471E-3</v>
+        <v>3.2992411745298581E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3449,14 +3505,14 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6">
         <f>C4/C18</f>
-        <v>1.2783053323593864E-2</v>
+        <v>1.2867040580666447E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3467,14 +3523,14 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6">
         <f>C5/C18</f>
-        <v>7.3046018991964939E-4</v>
+        <v>9.8977235235895742E-4</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3485,14 +3541,14 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6">
         <f>C6/C18</f>
-        <v>1.0226442658875092E-2</v>
+        <v>9.8977235235895751E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3503,14 +3559,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D7" s="6">
         <f>C7/C18</f>
-        <v>4.2001460920379839E-2</v>
+        <v>4.4869679973606073E-2</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -3521,17 +3577,17 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C8" s="7">
-        <v>1420</v>
+        <v>1521</v>
       </c>
       <c r="D8" s="6">
         <f>C8/C18</f>
-        <v>0.51862673484295108</v>
+        <v>0.50181458264599144</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3539,14 +3595,14 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <f>C9/C18</f>
-        <v>8.4002921840759682E-3</v>
+        <v>8.5780270537776319E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3557,14 +3613,14 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6">
         <f>C10/C18</f>
-        <v>2.2644265887509132E-2</v>
+        <v>2.3424612339161991E-2</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3575,14 +3631,14 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D11" s="6">
         <f>C11/C18</f>
-        <v>8.9481373265157052E-2</v>
+        <v>8.5450346420323328E-2</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3593,14 +3649,14 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D12" s="6">
         <f>C12/C18</f>
-        <v>7.8889700511322131E-2</v>
+        <v>7.9181788188716601E-2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3611,17 +3667,17 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="D13" s="6">
         <f>C13/C18</f>
-        <v>0.11029948867786706</v>
+        <v>0.11316397228637413</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3629,17 +3685,17 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6">
         <f>C14/C18</f>
-        <v>2.1183345507669833E-2</v>
+        <v>2.1115143516991092E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3647,14 +3703,14 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="D15" s="6">
         <f>C15/C18</f>
-        <v>5.5149744338933528E-2</v>
+        <v>5.9716265258990431E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3665,14 +3721,14 @@
         <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6">
         <f>C16/C18</f>
-        <v>7.3046018991964939E-4</v>
+        <v>9.8977235235895742E-4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3683,14 +3739,14 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D17" s="6">
         <f>C17/C18</f>
-        <v>2.3009495982468955E-2</v>
+        <v>3.2662487627845599E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3702,19 +3758,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>2738</v>
+        <v>3031</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EE8B7B-8CC4-7445-9779-F55B7D165AFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7BEC08-5266-A145-AEBA-724000C9D053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="17540" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:K30"/>
     </sheetView>
   </sheetViews>
@@ -3434,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7BEC08-5266-A145-AEBA-724000C9D053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FC6CC-F834-A240-B69E-A29C69112EAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="17540" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
     <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
     <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
     <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
-      <calculatedColumnFormula>C2/C18</calculatedColumnFormula>
+      <calculatedColumnFormula>Table6[[#This Row],[Casos totales]]/C18</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:K30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,39 +1359,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>39.267551003547531</v>
+        <v>40.390612699357497</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>29.017360976748211</v>
+        <v>30.017360976748211</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>33.293927097707552</v>
+        <v>34.339129003333689</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>38.464693283916148</v>
+        <v>39.602304822687259</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>36.767215167024311</v>
+        <v>37.833756229390339</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>35.904260480887743</v>
+        <v>36.995641889907127</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>35.326579898480368</v>
+        <v>36.41983112622745</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>32.718239482317735</v>
+        <v>33.785227667155837</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1604,39 +1604,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3089183667849178</v>
+        <v>1.3029229903018547</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.000598654370628</v>
+        <v>1.0005786992249404</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.148066451645088</v>
+        <v>1.1446376334444563</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3263687339281431</v>
+        <v>1.3200768274229087</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.267835005759459</v>
+        <v>1.2611252076463446</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2380779476168187</v>
+        <v>1.2331880629969043</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2181579275338057</v>
+        <v>1.2139943708742484</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1282151545626804</v>
+        <v>1.1261742555718612</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2468,11 +2468,11 @@
         <v>1.4505905839294626</v>
       </c>
       <c r="J19">
-        <v>21571</v>
+        <v>20410</v>
       </c>
       <c r="K19">
         <f>Table2[[#This Row],[España]]/J18</f>
-        <v>1.1932842838966642</v>
+        <v>1.1290590252807435</v>
       </c>
       <c r="L19">
         <v>13957</v>
@@ -2529,11 +2529,11 @@
         <v>1.3595963071277022</v>
       </c>
       <c r="J20">
-        <v>25496</v>
+        <v>25374</v>
       </c>
       <c r="K20">
         <f>Table2[[#This Row],[España]]/J19</f>
-        <v>1.1819572574289556</v>
+        <v>1.2432141107300343</v>
       </c>
       <c r="L20">
         <v>16662</v>
@@ -2590,11 +2590,11 @@
         <v>1.3640236187262758</v>
       </c>
       <c r="J21">
-        <v>29909</v>
+        <v>28768</v>
       </c>
       <c r="K21">
         <f>Table2[[#This Row],[España]]/J20</f>
-        <v>1.1730859742704738</v>
+        <v>1.1337589658705762</v>
       </c>
       <c r="L21">
         <v>18610</v>
@@ -2651,11 +2651,11 @@
         <v>1.3218824402461271</v>
       </c>
       <c r="J22">
-        <v>35480</v>
+        <v>33089</v>
       </c>
       <c r="K22">
         <f>Table2[[#This Row],[España]]/J21</f>
-        <v>1.1862650038449964</v>
+        <v>1.1502016129032258</v>
       </c>
       <c r="L22">
         <v>22672</v>
@@ -2712,11 +2712,11 @@
         <v>1.2324857898060864</v>
       </c>
       <c r="J23">
-        <v>42058</v>
+        <v>39673</v>
       </c>
       <c r="K23">
         <f>Table2[[#This Row],[España]]/J22</f>
-        <v>1.1854002254791431</v>
+        <v>1.1989785124966001</v>
       </c>
       <c r="L23">
         <v>27436</v>
@@ -2773,11 +2773,11 @@
         <v>1.2320364395520971</v>
       </c>
       <c r="J24">
-        <v>50105</v>
+        <v>47610</v>
       </c>
       <c r="K24">
         <f>Table2[[#This Row],[España]]/J23</f>
-        <v>1.1913310190689048</v>
+        <v>1.2000604945428881</v>
       </c>
       <c r="L24">
         <v>31554</v>
@@ -2834,11 +2834,11 @@
         <v>1.2626471131924333</v>
       </c>
       <c r="J25">
-        <v>57786</v>
+        <v>56188</v>
       </c>
       <c r="K25">
         <f>Table2[[#This Row],[España]]/J24</f>
-        <v>1.1532980740445065</v>
+        <v>1.1801722327242177</v>
       </c>
       <c r="L25">
         <v>36508</v>
@@ -2895,11 +2895,11 @@
         <v>1.2323646389966572</v>
       </c>
       <c r="J26">
-        <v>65719</v>
+        <v>64059</v>
       </c>
       <c r="K26">
         <f>Table2[[#This Row],[España]]/J25</f>
-        <v>1.1372823867372721</v>
+        <v>1.1400832918060795</v>
       </c>
       <c r="L26">
         <v>42288</v>
@@ -2956,11 +2956,11 @@
         <v>1.1989169603611451</v>
       </c>
       <c r="J27">
-        <v>73232</v>
+        <v>72248</v>
       </c>
       <c r="K27">
         <f>Table2[[#This Row],[España]]/J26</f>
-        <v>1.1143200596478948</v>
+        <v>1.12783527685415</v>
       </c>
       <c r="L27">
         <v>48582</v>
@@ -3010,18 +3010,18 @@
         <v>1.0553356691755342</v>
       </c>
       <c r="H28">
-        <v>141701</v>
+        <v>140223</v>
       </c>
       <c r="I28">
         <f>Table2[[#This Row],[EEUU]]/H27</f>
-        <v>1.1700672969737005</v>
+        <v>1.1578630114363568</v>
       </c>
       <c r="J28">
-        <v>80110</v>
+        <v>78797</v>
       </c>
       <c r="K28">
         <f>Table2[[#This Row],[España]]/J27</f>
-        <v>1.0939206904085645</v>
+        <v>1.0906461078507363</v>
       </c>
       <c r="L28">
         <v>52547</v>
@@ -3071,18 +3071,18 @@
         <v>1.0425252846119952</v>
       </c>
       <c r="H29">
-        <v>161783</v>
+        <v>160686</v>
       </c>
       <c r="I29">
         <f>Table2[[#This Row],[EEUU]]/H28</f>
-        <v>1.1417209476291628</v>
+        <v>1.1459318371451188</v>
       </c>
       <c r="J29">
-        <v>87956</v>
+        <v>85195</v>
       </c>
       <c r="K29">
         <f>Table2[[#This Row],[España]]/J28</f>
-        <v>1.0979403320434402</v>
+        <v>1.0811959846187038</v>
       </c>
       <c r="L29">
         <v>61913</v>
@@ -3132,18 +3132,18 @@
         <v>1.0398372305605521</v>
       </c>
       <c r="H30">
-        <v>186979</v>
+        <v>186082</v>
       </c>
       <c r="I30">
         <f>Table2[[#This Row],[EEUU]]/H29</f>
-        <v>1.1557394781899211</v>
+        <v>1.1580473718930087</v>
       </c>
       <c r="J30">
-        <v>95923</v>
+        <v>94417</v>
       </c>
       <c r="K30">
         <f>Table2[[#This Row],[España]]/J29</f>
-        <v>1.0905793805993906</v>
+        <v>1.1082457890721287</v>
       </c>
       <c r="L30">
         <v>67366</v>
@@ -3160,11 +3160,11 @@
         <v>1.1701010101010101</v>
       </c>
       <c r="P30">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="Q30">
         <f>Table2[[#This Row],[Iran]]/P29</f>
-        <v>1.0749487890107241</v>
+        <v>1.0749728882997951</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -3178,11 +3178,67 @@
         <f>Table2[[#This Row],[Chile]]/B30</f>
         <v>1.1070124178232286</v>
       </c>
+      <c r="D31">
+        <v>81554</v>
+      </c>
+      <c r="E31">
+        <f>Table2[[#This Row],[China]]/D30</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>110574</v>
+      </c>
+      <c r="G31">
+        <f>Table2[[#This Row],[Italia]]/F30</f>
+        <v>1.0452019056261344</v>
+      </c>
+      <c r="H31">
+        <v>212747</v>
+      </c>
+      <c r="I31">
+        <f>Table2[[#This Row],[EEUU]]/H30</f>
+        <v>1.1432970410894121</v>
+      </c>
+      <c r="J31">
+        <v>102136</v>
+      </c>
+      <c r="K31">
+        <f>Table2[[#This Row],[España]]/J30</f>
+        <v>1.0817543450861604</v>
+      </c>
+      <c r="L31">
+        <v>73522</v>
+      </c>
+      <c r="M31">
+        <f>Table2[[#This Row],[Alemania]]/L30</f>
+        <v>1.0913814090193867</v>
+      </c>
+      <c r="N31">
+        <v>56989</v>
+      </c>
+      <c r="O31">
+        <f>Table2[[#This Row],[Francia]]/N30</f>
+        <v>1.0932512277470841</v>
+      </c>
+      <c r="P31">
+        <v>47593</v>
+      </c>
+      <c r="Q31">
+        <f>Table2[[#This Row],[Iran]]/P30</f>
+        <v>1.0669640855490292</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43923</v>
       </c>
+      <c r="B32">
+        <v>3404</v>
+      </c>
+      <c r="C32">
+        <f>Table2[[#This Row],[Chile]]/B31</f>
+        <v>1.1230616958099637</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -3215,7 +3271,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O30">
+  <conditionalFormatting sqref="O2:O31">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3229,7 +3285,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I30">
+  <conditionalFormatting sqref="I2:I31">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3243,7 +3299,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
+  <conditionalFormatting sqref="E2:E31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3257,7 +3313,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M30">
+  <conditionalFormatting sqref="M2:M31">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3271,7 +3327,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C31">
+  <conditionalFormatting sqref="C2:C32">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3285,7 +3341,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K30">
+  <conditionalFormatting sqref="K2:K31">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3299,7 +3355,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G30">
+  <conditionalFormatting sqref="G2:G31">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3313,7 +3369,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q30">
+  <conditionalFormatting sqref="Q2:Q31">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3345,7 +3401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O30</xm:sqref>
+          <xm:sqref>O2:O31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3356,7 +3412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I30</xm:sqref>
+          <xm:sqref>I2:I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3367,7 +3423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E30</xm:sqref>
+          <xm:sqref>E2:E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3378,7 +3434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M30</xm:sqref>
+          <xm:sqref>M2:M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3389,7 +3445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C31</xm:sqref>
+          <xm:sqref>C2:C32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3400,7 +3456,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K30</xm:sqref>
+          <xm:sqref>K2:K31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3411,7 +3467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G30</xm:sqref>
+          <xm:sqref>G2:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3422,7 +3478,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q30</xm:sqref>
+          <xm:sqref>Q2:Q31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3434,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3469,14 +3525,14 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>C2/C18</f>
-        <v>1.9795447047179148E-3</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>2.0564042303172739E-3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3487,14 +3543,14 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
-        <f>C3/C18</f>
-        <v>3.2992411745298581E-3</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>3.5252643948296123E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3505,14 +3561,14 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6">
-        <f>C4/C18</f>
-        <v>1.2867040580666447E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.3807285546415981E-2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3523,14 +3579,14 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <f>C5/C18</f>
-        <v>9.8977235235895742E-4</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>8.8131609870740308E-4</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -3541,14 +3597,14 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6">
-        <f>C6/C18</f>
-        <v>9.8977235235895751E-3</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>9.9882491186839006E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3559,14 +3615,14 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D7" s="6">
-        <f>C7/C18</f>
-        <v>4.4869679973606073E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>4.5828437132784956E-2</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -3577,17 +3633,17 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C8" s="7">
-        <v>1521</v>
+        <v>1636</v>
       </c>
       <c r="D8" s="6">
-        <f>C8/C18</f>
-        <v>0.50181458264599144</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>0.48061104582843711</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3595,14 +3651,14 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6">
-        <f>C9/C18</f>
-        <v>8.5780270537776319E-3</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>9.4007050528789656E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3613,14 +3669,14 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D10" s="6">
-        <f>C10/C18</f>
-        <v>2.3424612339161991E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>2.4089306698002352E-2</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -3631,14 +3687,14 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="D11" s="6">
-        <f>C11/C18</f>
-        <v>8.5450346420323328E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>0.10017626321974148</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -3649,14 +3705,14 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="D12" s="6">
-        <f>C12/C18</f>
-        <v>7.9181788188716601E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>8.0787309048178615E-2</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3667,17 +3723,17 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="D13" s="6">
-        <f>C13/C18</f>
-        <v>0.11316397228637413</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>0.11427732079905993</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3685,14 +3741,14 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6">
-        <f>C14/C18</f>
-        <v>2.1115143516991092E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.9976498237367801E-2</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -3703,14 +3759,14 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D15" s="6">
-        <f>C15/C18</f>
-        <v>5.9716265258990431E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>5.9635722679200941E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3721,14 +3777,14 @@
         <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6">
-        <f>C16/C18</f>
-        <v>9.8977235235895742E-4</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.4688601645123384E-3</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -3739,14 +3795,14 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D17" s="6">
-        <f>C17/C18</f>
-        <v>3.2662487627845599E-2</v>
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>3.3490011750881316E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -3758,19 +3814,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>3031</v>
+        <v>3404</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FC6CC-F834-A240-B69E-A29C69112EAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2482CB06-FE5C-674D-828E-6B9C43B85267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -3490,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2482CB06-FE5C-674D-828E-6B9C43B85267}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF4650-1CEA-DC4B-AD68-37AA81745B88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +242,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -270,15 +275,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,9 +299,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -307,9 +313,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -321,9 +327,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -335,9 +341,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -349,9 +355,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -363,9 +369,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,39 +1365,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>40.390612699357497</v>
+        <v>41.612998128264664</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
-        <v>30.017360976748211</v>
+        <v>31.018170093427205</v>
       </c>
       <c r="V2">
         <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
-        <v>34.339129003333689</v>
+        <v>35.381616387348011</v>
       </c>
       <c r="W2">
         <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
-        <v>39.602304822687259</v>
+        <v>40.738050708886128</v>
       </c>
       <c r="X2">
         <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
-        <v>37.833756229390339</v>
+        <v>38.913081834465927</v>
       </c>
       <c r="Y2">
         <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
-        <v>36.995641889907127</v>
+        <v>38.079616754573486</v>
       </c>
       <c r="Z2">
         <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
-        <v>36.41983112622745</v>
+        <v>37.456961098678271</v>
       </c>
       <c r="AA2">
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>33.785227667155837</v>
+        <v>34.845635710355467</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1604,39 +1610,39 @@
         <v>1.3512667235980644</v>
       </c>
       <c r="S5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3029229903018547</v>
+        <v>1.3004061915082707</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
-        <v>1.0005786992249404</v>
+        <v>1.000586132046039</v>
       </c>
       <c r="V5">
         <f>V2/S5</f>
-        <v>1.1446376334444563</v>
+        <v>1.1413424641080003</v>
       </c>
       <c r="W5">
         <f>W2/S5</f>
-        <v>1.3200768274229087</v>
+        <v>1.3141306680285847</v>
       </c>
       <c r="X5">
         <f>X2/S5</f>
-        <v>1.2611252076463446</v>
+        <v>1.2552607043376105</v>
       </c>
       <c r="Y5">
         <f>Y2/S5</f>
-        <v>1.2331880629969043</v>
+        <v>1.2283747340184996</v>
       </c>
       <c r="Z5">
         <f>Z2/S5</f>
-        <v>1.2139943708742484</v>
+        <v>1.208289067699299</v>
       </c>
       <c r="AA5">
         <f>AA2/S5</f>
-        <v>1.1261742555718612</v>
+        <v>1.1240527648501764</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -3179,11 +3185,11 @@
         <v>1.1070124178232286</v>
       </c>
       <c r="D31">
-        <v>81554</v>
+        <v>81589</v>
       </c>
       <c r="E31">
         <f>Table2[[#This Row],[China]]/D30</f>
-        <v>1</v>
+        <v>1.0004291634990312</v>
       </c>
       <c r="F31">
         <v>110574</v>
@@ -3193,11 +3199,11 @@
         <v>1.0452019056261344</v>
       </c>
       <c r="H31">
-        <v>212747</v>
+        <v>212814</v>
       </c>
       <c r="I31">
         <f>Table2[[#This Row],[EEUU]]/H30</f>
-        <v>1.1432970410894121</v>
+        <v>1.1436570974086693</v>
       </c>
       <c r="J31">
         <v>102136</v>
@@ -3239,39 +3245,95 @@
         <f>Table2[[#This Row],[Chile]]/B31</f>
         <v>1.1230616958099637</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>81620</v>
+      </c>
+      <c r="E32">
+        <f>Table2[[#This Row],[China]]/D31</f>
+        <v>1.0003799531799631</v>
+      </c>
+      <c r="F32">
+        <v>115272</v>
+      </c>
+      <c r="G32">
+        <f>Table2[[#This Row],[Italia]]/F31</f>
+        <v>1.0424873840143252</v>
+      </c>
+      <c r="H32">
+        <v>241626</v>
+      </c>
+      <c r="I32">
+        <f>Table2[[#This Row],[EEUU]]/H31</f>
+        <v>1.1353858298796131</v>
+      </c>
+      <c r="J32">
+        <v>110238</v>
+      </c>
+      <c r="K32">
+        <f>Table2[[#This Row],[España]]/J31</f>
+        <v>1.0793256050755855</v>
+      </c>
+      <c r="L32">
+        <v>79696</v>
+      </c>
+      <c r="M32">
+        <f>Table2[[#This Row],[Alemania]]/L31</f>
+        <v>1.0839748646663583</v>
+      </c>
+      <c r="N32">
+        <v>59105</v>
+      </c>
+      <c r="O32">
+        <f>Table2[[#This Row],[Francia]]/N31</f>
+        <v>1.0371299724508238</v>
+      </c>
+      <c r="P32">
+        <v>50468</v>
+      </c>
+      <c r="Q32">
+        <f>Table2[[#This Row],[Iran]]/P31</f>
+        <v>1.0604080431996301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43924</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>4161</v>
+      </c>
+      <c r="C33">
+        <f>Table2[[#This Row],[Chile]]/B32</f>
+        <v>1.2223854289071681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43925</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43926</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43927</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43928</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43929</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O31">
+  <conditionalFormatting sqref="O2:O32">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -3285,7 +3347,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I31">
+  <conditionalFormatting sqref="I2:I32">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3299,7 +3361,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E31">
+  <conditionalFormatting sqref="E2:E32">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3313,7 +3375,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M31">
+  <conditionalFormatting sqref="M2:M32">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3327,7 +3389,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C32">
+  <conditionalFormatting sqref="C2:C33">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3341,7 +3403,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K31">
+  <conditionalFormatting sqref="K2:K32">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3355,7 +3417,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G31">
+  <conditionalFormatting sqref="G2:G32">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -3369,7 +3431,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q31">
+  <conditionalFormatting sqref="Q2:Q32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3401,7 +3463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O31</xm:sqref>
+          <xm:sqref>O2:O32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -3412,7 +3474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I31</xm:sqref>
+          <xm:sqref>I2:I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -3423,7 +3485,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E31</xm:sqref>
+          <xm:sqref>E2:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -3434,7 +3496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M31</xm:sqref>
+          <xm:sqref>M2:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -3445,7 +3507,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C32</xm:sqref>
+          <xm:sqref>C2:C33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3456,7 +3518,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K31</xm:sqref>
+          <xm:sqref>K2:K32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -3467,7 +3529,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G31</xm:sqref>
+          <xm:sqref>G2:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -3478,7 +3540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q31</xm:sqref>
+          <xm:sqref>Q2:Q32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3490,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3521,291 +3583,291 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>2.8839221341023791E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>4.085556356645037E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C4" s="6">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.0564042303172739E-3</v>
-      </c>
-      <c r="E2" s="2">
+        <v>1.3217976447969237E-2</v>
+      </c>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.2016342225426579E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>1.057438115837539E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>185</v>
+      </c>
+      <c r="D7" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>4.4460466234078344E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6">
+        <v>215</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1957</v>
+      </c>
+      <c r="D8" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>0.47031963470319632</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>9.1324200913242004E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>97</v>
+      </c>
+      <c r="D10" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>2.3311703917327564E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
+        <v>401</v>
+      </c>
+      <c r="D11" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>9.6371064647921167E-2</v>
+      </c>
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6">
+        <v>347</v>
+      </c>
+      <c r="D12" s="7">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>3.5252643948296123E-3</v>
-      </c>
-      <c r="E3" s="2">
+        <v>8.3393415044460462E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6">
+        <v>477</v>
+      </c>
+      <c r="D13" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>0.11463590483056957</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>2.1389089161259311E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6">
+        <v>259</v>
+      </c>
+      <c r="D15" s="7">
+        <f>Table6[[#This Row],[Casos totales]]/C18</f>
+        <v>6.2244652727709682E-2</v>
+      </c>
+      <c r="E15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.3807285546415981E-2</v>
-      </c>
-      <c r="E4" s="2">
+        <v>1.4419610670511895E-3</v>
+      </c>
+      <c r="E16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>172</v>
+      </c>
+      <c r="D17" s="7">
         <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>8.8131609870740308E-4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.9882491186839006E-3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
-        <v>156</v>
-      </c>
-      <c r="D7" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>4.5828437132784956E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2">
-        <v>115</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1636</v>
-      </c>
-      <c r="D8" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>0.48061104582843711</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.4007050528789656E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>82</v>
-      </c>
-      <c r="D10" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.4089306698002352E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2">
-        <v>341</v>
-      </c>
-      <c r="D11" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>0.10017626321974148</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2">
-        <v>275</v>
-      </c>
-      <c r="D12" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>8.0787309048178615E-2</v>
-      </c>
-      <c r="E12" s="2">
+        <v>4.1336217255467433E-2</v>
+      </c>
+      <c r="E17" s="6">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2">
-        <v>389</v>
-      </c>
-      <c r="D13" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>0.11427732079905993</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>68</v>
-      </c>
-      <c r="D14" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.9976498237367801E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2">
-        <v>203</v>
-      </c>
-      <c r="D15" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>5.9635722679200941E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.4688601645123384E-3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>114</v>
-      </c>
-      <c r="D17" s="6">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>3.3490011750881316E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3814,11 +3876,11 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>3404</v>
+        <v>4161</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
@@ -3826,7 +3888,7 @@
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF4650-1CEA-DC4B-AD68-37AA81745B88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ADC991-3588-204C-9DD6-A0A386A9B33F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:K32"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3552,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ADC991-3588-204C-9DD6-A0A386A9B33F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6F630-462A-894D-AD0B-8CD51F88FC14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -292,72 +292,20 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -394,20 +342,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -430,6 +374,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -448,6 +406,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -462,6 +434,34 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -875,19 +875,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Table6[[#This Row],[Casos totales]]/C18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,11 +1365,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>41.612998128264664</v>
+        <v>42.770171884573244</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.3004061915082707</v>
+        <v>1.2960658146840378</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -3310,6 +3310,13 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43925</v>
+      </c>
+      <c r="B34">
+        <v>4815</v>
+      </c>
+      <c r="C34">
+        <f>Table2[[#This Row],[Chile]]/B33</f>
+        <v>1.1571737563085798</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3389,7 +3396,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C33">
+  <conditionalFormatting sqref="C2:C34">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3507,7 +3514,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C33</xm:sqref>
+          <xm:sqref>C2:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -3552,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6F630-462A-894D-AD0B-8CD51F88FC14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC3456-4E2A-ED4F-AC2C-8B36A06D7B7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,11 +242,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,9 +277,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,11 +287,7 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -317,9 +308,65 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -342,16 +389,20 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -374,16 +425,20 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -402,66 +457,6 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -779,8 +774,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q38" totalsRowShown="0">
-  <autoFilter ref="A1:Q38" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q39" totalsRowShown="0">
+  <autoFilter ref="A1:Q39" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{0837C794-F666-B34B-9F53-81CDEF195346}" name="Chile"/>
@@ -812,28 +807,28 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0C695B5A-9DB3-8043-8844-A8E8C1B03B41}" name="Dias_CL"/>
     <tableColumn id="2" xr3:uid="{2F1689C0-4E49-D247-B0A9-29CAA5A6B390}" name="Suma_CL">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Chile]]:C39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6F6CF0DF-A8FB-A542-B7C9-0FB974F71F03}" name="Suma_CH">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_China]]:E38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_China]]:E39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DF859BA9-E291-D94A-BD51-FF5D7EB97B14}" name="Suma_IT">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Italia]]:G39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FCCFA73D-6395-7944-A719-E7C8DB6BAC02}" name="Suma_EEUU">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_EEUU]]:I39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7799B79A-70B1-924B-ADDC-F34E1A4EF7F9}" name="Suma_ES">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_España]]:K38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_España]]:K39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C884A6D2-B96B-1745-905B-9C2BAD0FC440}" name="Suma_AL">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Alemania]]:M39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{9C2E9547-AB8C-AE4F-B6E7-E115DDDAA0FF}" name="Suma_FR">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Francia]]:O39)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9A1C6494-7EB6-9B4B-87C4-BBDA6DA9047D}" name="Suma_IR">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Iran]]:Q39)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -875,19 +870,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>Table6[[#This Row],[Casos totales]]/C18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,39 +1358,39 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T2">
-        <f>SUM(Table2[[#This Row],[Factor_Chile]]:C38)</f>
-        <v>42.770171884573244</v>
+        <f>SUM(Table2[[#This Row],[Factor_Chile]]:C39)</f>
+        <v>45.993547020777243</v>
       </c>
       <c r="U2">
-        <f>SUM(Table2[[#This Row],[Factor_China]]:E38)</f>
+        <f>SUM(Table2[[#This Row],[Factor_China]]:E39)</f>
         <v>31.018170093427205</v>
       </c>
       <c r="V2">
-        <f>SUM(Table2[[#This Row],[Factor_Italia]]:G38)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Italia]]:G39)</f>
         <v>35.381616387348011</v>
       </c>
       <c r="W2">
-        <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I38)</f>
+        <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I39)</f>
         <v>40.738050708886128</v>
       </c>
       <c r="X2">
-        <f>SUM(Table2[[#This Row],[Factor_España]]:K38)</f>
+        <f>SUM(Table2[[#This Row],[Factor_España]]:K39)</f>
         <v>38.913081834465927</v>
       </c>
       <c r="Y2">
-        <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M38)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M39)</f>
         <v>38.079616754573486</v>
       </c>
       <c r="Z2">
-        <f>SUM(Table2[[#This Row],[Factor_Francia]]:O38)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Francia]]:O39)</f>
         <v>37.456961098678271</v>
       </c>
-      <c r="AA2">
-        <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q38)</f>
-        <v>34.845635710355467</v>
+      <c r="AA2" t="e">
+        <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q39)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -1614,7 +1607,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.2960658146840378</v>
+        <v>1.2775985283549234</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -1640,9 +1633,9 @@
         <f>Z2/S5</f>
         <v>1.208289067699299</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="e">
         <f>AA2/S5</f>
-        <v>1.1240527648501764</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -3295,7 +3288,7 @@
         <v>1.0604080431996301</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43924</v>
       </c>
@@ -3307,7 +3300,7 @@
         <v>1.2223854289071681</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43925</v>
       </c>
@@ -3319,24 +3312,54 @@
         <v>1.1571737563085798</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43926</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>5116</v>
+      </c>
+      <c r="C35">
+        <f>Table2[[#This Row],[Chile]]/B34</f>
+        <v>1.0625129802699895</v>
+      </c>
+      <c r="Q35" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43927</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>5546</v>
+      </c>
+      <c r="C36">
+        <f>Table2[[#This Row],[Chile]]/B35</f>
+        <v>1.0840500390930414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43928</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>5972</v>
+      </c>
+      <c r="C37">
+        <f>Table2[[#This Row],[Chile]]/B36</f>
+        <v>1.0768121168409666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43930</v>
       </c>
     </row>
   </sheetData>
@@ -3396,20 +3419,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C34">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C412845-02A5-3943-8E45-91305FE40D99}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K2:K32">
     <cfRule type="dataBar" priority="11">
       <dataBar>
@@ -3448,6 +3457,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C37">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5C412845-02A5-3943-8E45-91305FE40D99}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3506,17 +3529,6 @@
           <xm:sqref>M2:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:C34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -3549,6 +3561,17 @@
           </x14:cfRule>
           <xm:sqref>Q2:Q32</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C37</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3559,7 +3582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
@@ -3590,291 +3613,275 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.8839221341023791E-3</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>4.085556356645037E-3</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="C9" s="2">
+        <v>118</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>230</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.3217976447969237E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.2016342225426579E-3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44</v>
-      </c>
-      <c r="D6" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.057438115837539E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="6">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6">
-        <v>185</v>
-      </c>
-      <c r="D7" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>4.4460466234078344E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>286</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>340</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>460</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>571</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>689</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="6">
-        <v>215</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1957</v>
-      </c>
-      <c r="D8" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>0.47031963470319632</v>
-      </c>
-      <c r="E8" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.1324200913242004E-3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>97</v>
-      </c>
-      <c r="D10" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.3311703917327564E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="6">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6">
-        <v>401</v>
-      </c>
-      <c r="D11" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>9.6371064647921167E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45</v>
-      </c>
-      <c r="C12" s="6">
-        <v>347</v>
-      </c>
-      <c r="D12" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>8.3393415044460462E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6">
-        <v>477</v>
-      </c>
-      <c r="D13" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>0.11463590483056957</v>
-      </c>
-      <c r="E13" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6">
-        <v>89</v>
-      </c>
-      <c r="D14" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>2.1389089161259311E-2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6">
-        <v>259</v>
-      </c>
-      <c r="D15" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>6.2244652727709682E-2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>1.4419610670511895E-3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6">
-        <v>172</v>
+      <c r="B17" s="2">
+        <v>284</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2832</v>
       </c>
       <c r="D17" s="7">
-        <f>Table6[[#This Row],[Casos totales]]/C18</f>
-        <v>4.1336217255467433E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
+        <v>0.47</v>
+      </c>
+      <c r="E17" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3883,19 +3890,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>4161</v>
+        <v>5972</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>0.99999999999999989</v>
+        <v>1.01</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC3456-4E2A-ED4F-AC2C-8B36A06D7B7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB6D5A-4C27-F949-95C9-5F29BAB5F275}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
     <sheet name="Contagios por Región" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Contagios Chile e Internacional'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Contagios Chile e Internacional'!$AD$2:$AD$45</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Contagios Chile e Internacional'!$AD$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Contagios Chile e Internacional'!$AD$2:$AD$45</definedName>
     <definedName name="Slicer_Casos_totales">#N/A</definedName>
     <definedName name="Slicer_Fallecidos">#N/A</definedName>
     <definedName name="Slicer_Región">#N/A</definedName>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Fecha</t>
   </si>
@@ -215,13 +219,22 @@
   </si>
   <si>
     <t>Totales</t>
+  </si>
+  <si>
+    <t>Factor diario CL</t>
+  </si>
+  <si>
+    <t>Factor prom diario CL</t>
+  </si>
+  <si>
+    <t>Dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,8 +256,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +278,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,11 +299,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +326,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +336,11 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -315,6 +368,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -329,7 +400,75 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -388,96 +527,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -496,7 +545,1100 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Contagios Chile e Internacional'!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factor diario CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1818181818181819</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3529411764705883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4347826086956521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4186046511627908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2295081967213115</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2884615384615385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1840796019900497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0168067226890756</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7933884297520661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2373271889400921</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1769087523277468</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1803797468354431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2359249329758712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2386117136659436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1436077057793346</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2327718223583461</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1204819277108433</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.144927536231884</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1180073499387506</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1070124178232286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1230616958099637</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2223854289071681</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1571737563085798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0625129802699895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0840500390930414</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0768121168409666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0885800401875418</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0655283802491924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E431-AA49-B92D-7186E11C4058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Contagios Chile e Internacional'!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factor prom diario CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64583333333333326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39332096474953621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3111888111888112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29562594268476627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27877237851662401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24889208288417775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22680291284942447</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20370098829877709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23639344262295081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22456410256410256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15453382127822426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12946390145171324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15612195291339676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15951134835221886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12071179706339194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11225183329348523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.10983203090051429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10758854985399195</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9259142476886594E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5055181125507232E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3018696464332001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5414674571301072E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.09074808550974E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.8032237454159811E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4167325592065972E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1937874633328777E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.3295222647410369E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2107854097446911E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.528490401701674E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.1330371981800878E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0023948775944663E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8524112352121842E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6687063695703532E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E431-AA49-B92D-7186E11C4058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="572642831"/>
+        <c:axId val="572644511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="572642831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572644511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572644511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572642831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB33A60-E60C-004C-8E80-26B151AC8650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -774,8 +1916,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q39" totalsRowShown="0">
-  <autoFilter ref="A1:Q39" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q45" totalsRowShown="0">
+  <autoFilter ref="A1:Q45" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{0837C794-F666-B34B-9F53-81CDEF195346}" name="Chile"/>
@@ -870,17 +2012,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AE45" totalsRowShown="0">
+  <autoFilter ref="AD1:AE45" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5A9F5AD8-690E-4140-8022-0C29EB08B63F}" name="Factor diario CL"/>
+    <tableColumn id="2" xr3:uid="{FF114CD2-95B8-424E-9607-35812A20EC3A}" name="Factor prom diario CL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,10 +2368,12 @@
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="25" width="14.33203125" customWidth="1"/>
     <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="27" max="28" width="14" customWidth="1"/>
+    <col min="30" max="30" width="16.1640625" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +2452,20 @@
       <c r="AA1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43893</v>
       </c>
@@ -1358,11 +2525,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C39)</f>
-        <v>45.993547020777243</v>
+        <v>48.147655441213978</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E39)</f>
@@ -1392,8 +2559,20 @@
         <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q39)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>43893</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43894</v>
       </c>
@@ -1453,8 +2632,22 @@
         <f>Table2[[#This Row],[Iran]]/P2</f>
         <v>1.2508561643835616</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>43894</v>
+      </c>
+      <c r="AD3">
+        <f>Table2[[#This Row],[Chile]]/B2</f>
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD2)/AB3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -1541,8 +2734,22 @@
       <c r="AA4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>43895</v>
+      </c>
+      <c r="AD4">
+        <f>Table2[[#This Row],[Chile]]/B3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AE4">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD3)/AB4</f>
+        <v>1.4444444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -1607,7 +2814,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.2775985283549234</v>
+        <v>1.2670435642424731</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -1637,8 +2844,22 @@
         <f>AA2/S5</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>43896</v>
+      </c>
+      <c r="AD5">
+        <f>Table2[[#This Row],[Chile]]/B4</f>
+        <v>1.25</v>
+      </c>
+      <c r="AE5">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD4)/AB5</f>
+        <v>0.64583333333333326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -1698,8 +2919,22 @@
         <f>Table2[[#This Row],[Iran]]/P5</f>
         <v>1.2266694754581842</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>43897</v>
+      </c>
+      <c r="AD6">
+        <f>Table2[[#This Row],[Chile]]/B5</f>
+        <v>1.4</v>
+      </c>
+      <c r="AE6">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD5)/AB6</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43898</v>
       </c>
@@ -1759,8 +2994,22 @@
         <f>Table2[[#This Row],[Iran]]/P6</f>
         <v>1.1275974583547999</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>43898</v>
+      </c>
+      <c r="AD7">
+        <f>Table2[[#This Row],[Chile]]/B6</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="AE7">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD6)/AB7</f>
+        <v>0.49523809523809526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43899</v>
       </c>
@@ -1820,8 +3069,22 @@
         <f>Table2[[#This Row],[Iran]]/P7</f>
         <v>1.0906183368869935</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>43899</v>
+      </c>
+      <c r="AD8">
+        <f>Table2[[#This Row],[Chile]]/B7</f>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="AE8">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD7)/AB8</f>
+        <v>0.39332096474953621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43900</v>
       </c>
@@ -1881,8 +3144,22 @@
         <f>Table2[[#This Row],[Iran]]/P8</f>
         <v>1.1230275101242844</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>43900</v>
+      </c>
+      <c r="AD9">
+        <f>Table2[[#This Row],[Chile]]/B8</f>
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="AE9">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD8)/AB9</f>
+        <v>0.3111888111888112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43901</v>
       </c>
@@ -1945,8 +3222,22 @@
       <c r="S10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>43901</v>
+      </c>
+      <c r="AD10">
+        <f>Table2[[#This Row],[Chile]]/B9</f>
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="AE10">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD9)/AB10</f>
+        <v>0.29562594268476627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43902</v>
       </c>
@@ -2006,8 +3297,22 @@
         <f>Table2[[#This Row],[Iran]]/P10</f>
         <v>1.1194444444444445</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>43902</v>
+      </c>
+      <c r="AD11">
+        <f>Table2[[#This Row],[Chile]]/B10</f>
+        <v>1.4347826086956521</v>
+      </c>
+      <c r="AE11">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD10)/AB11</f>
+        <v>0.27877237851662401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -2067,8 +3372,22 @@
         <f>Table2[[#This Row],[Iran]]/P11</f>
         <v>1.1279404466501242</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>43903</v>
+      </c>
+      <c r="AD12">
+        <f>Table2[[#This Row],[Chile]]/B11</f>
+        <v>1.303030303030303</v>
+      </c>
+      <c r="AE12">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD11)/AB12</f>
+        <v>0.24889208288417775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43904</v>
       </c>
@@ -2128,8 +3447,22 @@
         <f>Table2[[#This Row],[Iran]]/P12</f>
         <v>1.1201161562829989</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>43904</v>
+      </c>
+      <c r="AD13">
+        <f>Table2[[#This Row],[Chile]]/B12</f>
+        <v>1.4186046511627908</v>
+      </c>
+      <c r="AE13">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD12)/AB13</f>
+        <v>0.22680291284942447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43905</v>
       </c>
@@ -2189,8 +3522,22 @@
         <f>Table2[[#This Row],[Iran]]/P13</f>
         <v>1.094979967004478</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>43905</v>
+      </c>
+      <c r="AD14">
+        <f>Table2[[#This Row],[Chile]]/B13</f>
+        <v>1.2295081967213115</v>
+      </c>
+      <c r="AE14">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD13)/AB14</f>
+        <v>0.20370098829877709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43906</v>
       </c>
@@ -2250,8 +3597,22 @@
         <f>Table2[[#This Row],[Iran]]/P14</f>
         <v>1.0755488592337494</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>43906</v>
+      </c>
+      <c r="AD15">
+        <f>Table2[[#This Row],[Chile]]/B14</f>
+        <v>2.08</v>
+      </c>
+      <c r="AE15">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD14)/AB15</f>
+        <v>0.23639344262295081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43907</v>
       </c>
@@ -2311,8 +3672,22 @@
         <f>Table2[[#This Row],[Iran]]/P15</f>
         <v>1.0785804816223068</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB16">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>43907</v>
+      </c>
+      <c r="AD16">
+        <f>Table2[[#This Row],[Chile]]/B15</f>
+        <v>1.2884615384615385</v>
+      </c>
+      <c r="AE16">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD15)/AB16</f>
+        <v>0.22456410256410256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43908</v>
       </c>
@@ -2372,8 +3747,22 @@
         <f>Table2[[#This Row],[Iran]]/P16</f>
         <v>1.0737213185725771</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB17">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>43908</v>
+      </c>
+      <c r="AD17">
+        <f>Table2[[#This Row],[Chile]]/B16</f>
+        <v>1.1840796019900497</v>
+      </c>
+      <c r="AE17">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD16)/AB17</f>
+        <v>0.15453382127822426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43909</v>
       </c>
@@ -2433,8 +3822,22 @@
         <f>Table2[[#This Row],[Iran]]/P17</f>
         <v>1.0602499855999079</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB18">
+        <v>17</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>43909</v>
+      </c>
+      <c r="AD18">
+        <f>Table2[[#This Row],[Chile]]/B17</f>
+        <v>1.0168067226890756</v>
+      </c>
+      <c r="AE18">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD17)/AB18</f>
+        <v>0.12946390145171324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43910</v>
       </c>
@@ -2494,8 +3897,22 @@
         <f>Table2[[#This Row],[Iran]]/P18</f>
         <v>1.0672026946270441</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB19">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>43910</v>
+      </c>
+      <c r="AD19">
+        <f>Table2[[#This Row],[Chile]]/B18</f>
+        <v>1.7933884297520661</v>
+      </c>
+      <c r="AE19">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD18)/AB19</f>
+        <v>0.15612195291339676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43911</v>
       </c>
@@ -2555,8 +3972,22 @@
         <f>Table2[[#This Row],[Iran]]/P19</f>
         <v>1.0491753207086134</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB20">
+        <v>19</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>43911</v>
+      </c>
+      <c r="AD20">
+        <f>Table2[[#This Row],[Chile]]/B19</f>
+        <v>1.2373271889400921</v>
+      </c>
+      <c r="AE20">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD19)/AB20</f>
+        <v>0.15951134835221886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43912</v>
       </c>
@@ -2616,8 +4047,22 @@
         <f>Table2[[#This Row],[Iran]]/P20</f>
         <v>1.0498786996603591</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB21">
+        <v>20</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>43912</v>
+      </c>
+      <c r="AD21">
+        <f>Table2[[#This Row],[Chile]]/B20</f>
+        <v>1.1769087523277468</v>
+      </c>
+      <c r="AE21">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD20)/AB21</f>
+        <v>0.12071179706339194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43913</v>
       </c>
@@ -2677,8 +4122,22 @@
         <f>Table2[[#This Row],[Iran]]/P21</f>
         <v>1.0652093539144099</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB22">
+        <v>21</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>43913</v>
+      </c>
+      <c r="AD22">
+        <f>Table2[[#This Row],[Chile]]/B21</f>
+        <v>1.1803797468354431</v>
+      </c>
+      <c r="AE22">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD21)/AB22</f>
+        <v>0.11225183329348523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43914</v>
       </c>
@@ -2738,8 +4197,22 @@
         <f>Table2[[#This Row],[Iran]]/P22</f>
         <v>1.0764458327910105</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB23">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="11">
+        <v>43914</v>
+      </c>
+      <c r="AD23">
+        <f>Table2[[#This Row],[Chile]]/B22</f>
+        <v>1.2359249329758712</v>
+      </c>
+      <c r="AE23">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD22)/AB23</f>
+        <v>0.10983203090051429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43915</v>
       </c>
@@ -2799,8 +4272,22 @@
         <f>Table2[[#This Row],[Iran]]/P23</f>
         <v>1.0913304582644794</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB24">
+        <v>23</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>43915</v>
+      </c>
+      <c r="AD24">
+        <f>Table2[[#This Row],[Chile]]/B23</f>
+        <v>1.2386117136659436</v>
+      </c>
+      <c r="AE24">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD23)/AB24</f>
+        <v>0.10758854985399195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43916</v>
       </c>
@@ -2860,8 +4347,22 @@
         <f>Table2[[#This Row],[Iran]]/P24</f>
         <v>1.0860139601876131</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB25">
+        <v>24</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>43916</v>
+      </c>
+      <c r="AD25">
+        <f>Table2[[#This Row],[Chile]]/B24</f>
+        <v>1.1436077057793346</v>
+      </c>
+      <c r="AE25">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD24)/AB25</f>
+        <v>9.9259142476886594E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43917</v>
       </c>
@@ -2921,8 +4422,22 @@
         <f>Table2[[#This Row],[Iran]]/P25</f>
         <v>1.0995035026865265</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB26">
+        <v>25</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>43917</v>
+      </c>
+      <c r="AD26">
+        <f>Table2[[#This Row],[Chile]]/B25</f>
+        <v>1.2327718223583461</v>
+      </c>
+      <c r="AE26">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD25)/AB26</f>
+        <v>9.5055181125507232E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43918</v>
       </c>
@@ -2982,8 +4497,22 @@
         <f>Table2[[#This Row],[Iran]]/P26</f>
         <v>1.0951379438327353</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB27">
+        <v>26</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>43918</v>
+      </c>
+      <c r="AD27">
+        <f>Table2[[#This Row],[Chile]]/B26</f>
+        <v>1.1857142857142857</v>
+      </c>
+      <c r="AE27">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD26)/AB27</f>
+        <v>9.3018696464332001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43919</v>
       </c>
@@ -3043,8 +4572,22 @@
         <f>Table2[[#This Row],[Iran]]/P27</f>
         <v>1.0819306371441482</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB28">
+        <v>27</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>43919</v>
+      </c>
+      <c r="AD28">
+        <f>Table2[[#This Row],[Chile]]/B27</f>
+        <v>1.1204819277108433</v>
+      </c>
+      <c r="AE28">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD27)/AB28</f>
+        <v>8.5414674571301072E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43920</v>
       </c>
@@ -3104,8 +4647,22 @@
         <f>Table2[[#This Row],[Iran]]/P28</f>
         <v>1.0831658357044036</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB29">
+        <v>28</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>43920</v>
+      </c>
+      <c r="AD29">
+        <f>Table2[[#This Row],[Chile]]/B28</f>
+        <v>1.144927536231884</v>
+      </c>
+      <c r="AE29">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD28)/AB29</f>
+        <v>8.09074808550974E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
@@ -3165,8 +4722,22 @@
         <f>Table2[[#This Row],[Iran]]/P29</f>
         <v>1.0749728882997951</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB30">
+        <v>29</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>43921</v>
+      </c>
+      <c r="AD30">
+        <f>Table2[[#This Row],[Chile]]/B29</f>
+        <v>1.1180073499387506</v>
+      </c>
+      <c r="AE30">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD29)/AB30</f>
+        <v>7.8032237454159811E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43922</v>
       </c>
@@ -3226,8 +4797,22 @@
         <f>Table2[[#This Row],[Iran]]/P30</f>
         <v>1.0669640855490292</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB31">
+        <v>30</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>43922</v>
+      </c>
+      <c r="AD31">
+        <f>Table2[[#This Row],[Chile]]/B30</f>
+        <v>1.1070124178232286</v>
+      </c>
+      <c r="AE31">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD30)/AB31</f>
+        <v>7.4167325592065972E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43923</v>
       </c>
@@ -3287,8 +4872,22 @@
         <f>Table2[[#This Row],[Iran]]/P31</f>
         <v>1.0604080431996301</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB32">
+        <v>31</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>43923</v>
+      </c>
+      <c r="AD32">
+        <f>Table2[[#This Row],[Chile]]/B31</f>
+        <v>1.1230616958099637</v>
+      </c>
+      <c r="AE32">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD31)/AB32</f>
+        <v>7.1937874633328777E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43924</v>
       </c>
@@ -3299,8 +4898,22 @@
         <f>Table2[[#This Row],[Chile]]/B32</f>
         <v>1.2223854289071681</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB33">
+        <v>32</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>43924</v>
+      </c>
+      <c r="AD33">
+        <f>Table2[[#This Row],[Chile]]/B32</f>
+        <v>1.2223854289071681</v>
+      </c>
+      <c r="AE33">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD32)/AB33</f>
+        <v>7.3295222647410369E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43925</v>
       </c>
@@ -3311,8 +4924,22 @@
         <f>Table2[[#This Row],[Chile]]/B33</f>
         <v>1.1571737563085798</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB34">
+        <v>33</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>43925</v>
+      </c>
+      <c r="AD34">
+        <f>Table2[[#This Row],[Chile]]/B33</f>
+        <v>1.1571737563085798</v>
+      </c>
+      <c r="AE34">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD33)/AB34</f>
+        <v>7.2107854097446911E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43926</v>
       </c>
@@ -3327,8 +4954,22 @@
         <f>Table2[[#This Row],[Iran]]/P34</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB35">
+        <v>34</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>43926</v>
+      </c>
+      <c r="AD35">
+        <f>Table2[[#This Row],[Chile]]/B34</f>
+        <v>1.0625129802699895</v>
+      </c>
+      <c r="AE35">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD34)/AB35</f>
+        <v>6.528490401701674E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43927</v>
       </c>
@@ -3339,8 +4980,22 @@
         <f>Table2[[#This Row],[Chile]]/B35</f>
         <v>1.0840500390930414</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB36">
+        <v>35</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>43927</v>
+      </c>
+      <c r="AD36">
+        <f>Table2[[#This Row],[Chile]]/B35</f>
+        <v>1.0840500390930414</v>
+      </c>
+      <c r="AE36">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD35)/AB36</f>
+        <v>6.1330371981800878E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43928</v>
       </c>
@@ -3351,15 +5006,168 @@
         <f>Table2[[#This Row],[Chile]]/B36</f>
         <v>1.0768121168409666</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB37">
+        <v>36</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>43928</v>
+      </c>
+      <c r="AD37">
+        <f>Table2[[#This Row],[Chile]]/B36</f>
+        <v>1.0768121168409666</v>
+      </c>
+      <c r="AE37">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD36)/AB37</f>
+        <v>6.0023948775944663E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43929</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>6501</v>
+      </c>
+      <c r="C38">
+        <f>Table2[[#This Row],[Chile]]/B37</f>
+        <v>1.0885800401875418</v>
+      </c>
+      <c r="AB38">
+        <v>37</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>43929</v>
+      </c>
+      <c r="AD38">
+        <f>Table2[[#This Row],[Chile]]/B37</f>
+        <v>1.0885800401875418</v>
+      </c>
+      <c r="AE38">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD37)/AB38</f>
+        <v>5.8524112352121842E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43930</v>
+      </c>
+      <c r="B39">
+        <v>6927</v>
+      </c>
+      <c r="C39">
+        <f>Table2[[#This Row],[Chile]]/B38</f>
+        <v>1.0655283802491924</v>
+      </c>
+      <c r="AB39">
+        <v>38</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>43930</v>
+      </c>
+      <c r="AD39">
+        <f>Table2[[#This Row],[Chile]]/B38</f>
+        <v>1.0655283802491924</v>
+      </c>
+      <c r="AE39">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD38)/AB39</f>
+        <v>5.6687063695703532E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B40">
+        <v>7213</v>
+      </c>
+      <c r="C40">
+        <f>Table2[[#This Row],[Chile]]/B39</f>
+        <v>1.0412877147394255</v>
+      </c>
+      <c r="Q40" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB40">
+        <v>39</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43932</v>
+      </c>
+      <c r="Q41" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB41">
+        <v>40</v>
+      </c>
+      <c r="AC41" s="11">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43933</v>
+      </c>
+      <c r="Q42" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB42">
+        <v>41</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43934</v>
+      </c>
+      <c r="Q43" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB43">
+        <v>42</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43935</v>
+      </c>
+      <c r="Q44" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB44">
+        <v>43</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43936</v>
+      </c>
+      <c r="Q45" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45">
+        <v>44</v>
+      </c>
+      <c r="AC45" s="11">
+        <v>43936</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +5269,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C37">
+  <conditionalFormatting sqref="C2:C40">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -3476,10 +5284,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3570,7 +5380,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C37</xm:sqref>
+          <xm:sqref>C2:C40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3582,7 +5392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB6D5A-4C27-F949-95C9-5F29BAB5F275}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3290C1-C815-F343-82BD-9EA908CFA8FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -1949,7 +1949,7 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0C695B5A-9DB3-8043-8844-A8E8C1B03B41}" name="Dias_CL"/>
     <tableColumn id="2" xr3:uid="{2F1689C0-4E49-D247-B0A9-29CAA5A6B390}" name="Suma_CL">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Chile]]:C39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Chile]]:C42)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6F6CF0DF-A8FB-A542-B7C9-0FB974F71F03}" name="Suma_CH">
       <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_China]]:E39)</calculatedColumnFormula>
@@ -2338,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C40"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,11 +2525,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2">
-        <f>SUM(Table2[[#This Row],[Factor_Chile]]:C39)</f>
-        <v>48.147655441213978</v>
+        <f>SUM(Table2[[#This Row],[Factor_Chile]]:C42)</f>
+        <v>49.188943155953403</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E39)</f>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.2670435642424731</v>
+        <v>1.261254952716754</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3290C1-C815-F343-82BD-9EA908CFA8FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9424E3B5-74B5-F541-9F98-A936497AFC6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
     <sheet name="Contagios por Región" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Contagios Chile e Internacional'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Contagios Chile e Internacional'!$AD$2:$AD$45</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Contagios Chile e Internacional'!$AD$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Contagios Chile e Internacional'!$AD$2:$AD$45</definedName>
     <definedName name="Slicer_Casos_totales">#N/A</definedName>
     <definedName name="Slicer_Fallecidos">#N/A</definedName>
     <definedName name="Slicer_Región">#N/A</definedName>
@@ -324,11 +320,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,11 +332,63 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -386,7 +434,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -418,7 +470,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -437,66 +493,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2023,17 +2019,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2338,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -2455,7 +2451,7 @@
       <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AD1" t="s">
@@ -2562,7 +2558,7 @@
       <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="9">
         <v>43893</v>
       </c>
       <c r="AD2">
@@ -2635,7 +2631,7 @@
       <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3" s="10">
         <v>43894</v>
       </c>
       <c r="AD3">
@@ -2737,7 +2733,7 @@
       <c r="AB4">
         <v>3</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="9">
         <v>43895</v>
       </c>
       <c r="AD4">
@@ -2847,7 +2843,7 @@
       <c r="AB5">
         <v>4</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="10">
         <v>43896</v>
       </c>
       <c r="AD5">
@@ -2922,7 +2918,7 @@
       <c r="AB6">
         <v>5</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="9">
         <v>43897</v>
       </c>
       <c r="AD6">
@@ -2997,7 +2993,7 @@
       <c r="AB7">
         <v>6</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="10">
         <v>43898</v>
       </c>
       <c r="AD7">
@@ -3072,7 +3068,7 @@
       <c r="AB8">
         <v>7</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="9">
         <v>43899</v>
       </c>
       <c r="AD8">
@@ -3147,7 +3143,7 @@
       <c r="AB9">
         <v>8</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="10">
         <v>43900</v>
       </c>
       <c r="AD9">
@@ -3225,7 +3221,7 @@
       <c r="AB10">
         <v>9</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <v>43901</v>
       </c>
       <c r="AD10">
@@ -3300,7 +3296,7 @@
       <c r="AB11">
         <v>10</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="10">
         <v>43902</v>
       </c>
       <c r="AD11">
@@ -3375,7 +3371,7 @@
       <c r="AB12">
         <v>11</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="9">
         <v>43903</v>
       </c>
       <c r="AD12">
@@ -3450,7 +3446,7 @@
       <c r="AB13">
         <v>12</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="10">
         <v>43904</v>
       </c>
       <c r="AD13">
@@ -3525,7 +3521,7 @@
       <c r="AB14">
         <v>13</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <v>43905</v>
       </c>
       <c r="AD14">
@@ -3600,7 +3596,7 @@
       <c r="AB15">
         <v>14</v>
       </c>
-      <c r="AC15" s="11">
+      <c r="AC15" s="10">
         <v>43906</v>
       </c>
       <c r="AD15">
@@ -3675,7 +3671,7 @@
       <c r="AB16">
         <v>15</v>
       </c>
-      <c r="AC16" s="10">
+      <c r="AC16" s="9">
         <v>43907</v>
       </c>
       <c r="AD16">
@@ -3750,7 +3746,7 @@
       <c r="AB17">
         <v>16</v>
       </c>
-      <c r="AC17" s="11">
+      <c r="AC17" s="10">
         <v>43908</v>
       </c>
       <c r="AD17">
@@ -3825,7 +3821,7 @@
       <c r="AB18">
         <v>17</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AC18" s="9">
         <v>43909</v>
       </c>
       <c r="AD18">
@@ -3900,7 +3896,7 @@
       <c r="AB19">
         <v>18</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AC19" s="10">
         <v>43910</v>
       </c>
       <c r="AD19">
@@ -3975,7 +3971,7 @@
       <c r="AB20">
         <v>19</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AC20" s="9">
         <v>43911</v>
       </c>
       <c r="AD20">
@@ -4050,7 +4046,7 @@
       <c r="AB21">
         <v>20</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AC21" s="10">
         <v>43912</v>
       </c>
       <c r="AD21">
@@ -4125,7 +4121,7 @@
       <c r="AB22">
         <v>21</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="9">
         <v>43913</v>
       </c>
       <c r="AD22">
@@ -4200,7 +4196,7 @@
       <c r="AB23">
         <v>22</v>
       </c>
-      <c r="AC23" s="11">
+      <c r="AC23" s="10">
         <v>43914</v>
       </c>
       <c r="AD23">
@@ -4275,7 +4271,7 @@
       <c r="AB24">
         <v>23</v>
       </c>
-      <c r="AC24" s="10">
+      <c r="AC24" s="9">
         <v>43915</v>
       </c>
       <c r="AD24">
@@ -4350,7 +4346,7 @@
       <c r="AB25">
         <v>24</v>
       </c>
-      <c r="AC25" s="11">
+      <c r="AC25" s="10">
         <v>43916</v>
       </c>
       <c r="AD25">
@@ -4425,7 +4421,7 @@
       <c r="AB26">
         <v>25</v>
       </c>
-      <c r="AC26" s="10">
+      <c r="AC26" s="9">
         <v>43917</v>
       </c>
       <c r="AD26">
@@ -4500,7 +4496,7 @@
       <c r="AB27">
         <v>26</v>
       </c>
-      <c r="AC27" s="11">
+      <c r="AC27" s="10">
         <v>43918</v>
       </c>
       <c r="AD27">
@@ -4575,7 +4571,7 @@
       <c r="AB28">
         <v>27</v>
       </c>
-      <c r="AC28" s="10">
+      <c r="AC28" s="9">
         <v>43919</v>
       </c>
       <c r="AD28">
@@ -4650,7 +4646,7 @@
       <c r="AB29">
         <v>28</v>
       </c>
-      <c r="AC29" s="11">
+      <c r="AC29" s="10">
         <v>43920</v>
       </c>
       <c r="AD29">
@@ -4725,7 +4721,7 @@
       <c r="AB30">
         <v>29</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="9">
         <v>43921</v>
       </c>
       <c r="AD30">
@@ -4800,7 +4796,7 @@
       <c r="AB31">
         <v>30</v>
       </c>
-      <c r="AC31" s="11">
+      <c r="AC31" s="10">
         <v>43922</v>
       </c>
       <c r="AD31">
@@ -4875,7 +4871,7 @@
       <c r="AB32">
         <v>31</v>
       </c>
-      <c r="AC32" s="10">
+      <c r="AC32" s="9">
         <v>43923</v>
       </c>
       <c r="AD32">
@@ -4901,7 +4897,7 @@
       <c r="AB33">
         <v>32</v>
       </c>
-      <c r="AC33" s="11">
+      <c r="AC33" s="10">
         <v>43924</v>
       </c>
       <c r="AD33">
@@ -4927,7 +4923,7 @@
       <c r="AB34">
         <v>33</v>
       </c>
-      <c r="AC34" s="10">
+      <c r="AC34" s="9">
         <v>43925</v>
       </c>
       <c r="AD34">
@@ -4957,7 +4953,7 @@
       <c r="AB35">
         <v>34</v>
       </c>
-      <c r="AC35" s="11">
+      <c r="AC35" s="10">
         <v>43926</v>
       </c>
       <c r="AD35">
@@ -4983,7 +4979,7 @@
       <c r="AB36">
         <v>35</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AC36" s="9">
         <v>43927</v>
       </c>
       <c r="AD36">
@@ -5009,7 +5005,7 @@
       <c r="AB37">
         <v>36</v>
       </c>
-      <c r="AC37" s="11">
+      <c r="AC37" s="10">
         <v>43928</v>
       </c>
       <c r="AD37">
@@ -5035,7 +5031,7 @@
       <c r="AB38">
         <v>37</v>
       </c>
-      <c r="AC38" s="10">
+      <c r="AC38" s="9">
         <v>43929</v>
       </c>
       <c r="AD38">
@@ -5061,7 +5057,7 @@
       <c r="AB39">
         <v>38</v>
       </c>
-      <c r="AC39" s="11">
+      <c r="AC39" s="10">
         <v>43930</v>
       </c>
       <c r="AD39">
@@ -5091,7 +5087,7 @@
       <c r="AB40">
         <v>39</v>
       </c>
-      <c r="AC40" s="10">
+      <c r="AC40" s="9">
         <v>43931</v>
       </c>
     </row>
@@ -5106,7 +5102,7 @@
       <c r="AB41">
         <v>40</v>
       </c>
-      <c r="AC41" s="11">
+      <c r="AC41" s="10">
         <v>43932</v>
       </c>
     </row>
@@ -5121,7 +5117,7 @@
       <c r="AB42">
         <v>41</v>
       </c>
-      <c r="AC42" s="10">
+      <c r="AC42" s="9">
         <v>43933</v>
       </c>
     </row>
@@ -5136,7 +5132,7 @@
       <c r="AB43">
         <v>42</v>
       </c>
-      <c r="AC43" s="11">
+      <c r="AC43" s="10">
         <v>43934</v>
       </c>
     </row>
@@ -5151,7 +5147,7 @@
       <c r="AB44">
         <v>43</v>
       </c>
-      <c r="AC44" s="10">
+      <c r="AC44" s="9">
         <v>43935</v>
       </c>
     </row>
@@ -5166,7 +5162,7 @@
       <c r="AB45">
         <v>44</v>
       </c>
-      <c r="AC45" s="11">
+      <c r="AC45" s="10">
         <v>43936</v>
       </c>
     </row>
@@ -5392,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
@@ -5424,33 +5420,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D3" s="11">
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -5458,33 +5454,33 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>44</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.01</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -5495,13 +5491,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>61</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.01</v>
+        <v>66</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -5509,53 +5505,53 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.01</v>
+        <v>273</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>92</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.02</v>
+        <v>204</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3803</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.50539999999999996</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>118</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.02</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="11">
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5563,135 +5559,135 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>128</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.02</v>
+        <v>141</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>230</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.04</v>
+        <v>618</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>286</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.05</v>
+        <v>512</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>340</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.06</v>
+        <v>795</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.1056</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>460</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.08</v>
+        <v>138</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.83E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>571</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.1</v>
+        <v>380</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>689</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.12</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E16" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>284</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2832</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.47</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>415</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5700,19 +5696,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>5972</v>
+        <v>7525</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>1.01</v>
+        <v>0.99980000000000013</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9424E3B5-74B5-F541-9F98-A936497AFC6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24053B1-22A1-714D-9FD8-075C0A16EB2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -332,63 +332,11 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -434,11 +382,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -470,6 +414,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -488,11 +446,53 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -687,25 +687,40 @@
                   <c:v>1.1230616958099637</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2223854289071681</c:v>
+                  <c:v>1.0978260869565217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1571737563085798</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0625129802699895</c:v>
+                  <c:v>0.92855659397715473</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0840500390930414</c:v>
+                  <c:v>0.94116497263487098</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0768121168409666</c:v>
+                  <c:v>0.92246664262531552</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0885800401875418</c:v>
+                  <c:v>0.92866711319490958</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0655283802491924</c:v>
+                  <c:v>0.91862790339947697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93850151580770902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96034936919450986</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95853820598006645</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95048629531388151</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95696845158950805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,25 +858,37 @@
                   <c:v>7.1937874633328777E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3295222647410369E-2</c:v>
+                  <c:v>6.9402743211452678E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.2107854097446911E-2</c:v>
+                  <c:v>6.357048748353096E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.528490401701674E-2</c:v>
+                  <c:v>5.6722252764033962E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1330371981800878E-2</c:v>
+                  <c:v>5.342061618891502E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.0023948775944663E-2</c:v>
+                  <c:v>5.1767544868338518E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.8524112352121842E-2</c:v>
+                  <c:v>5.0030642049195273E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6687063695703532E-2</c:v>
+                  <c:v>4.8613026752483857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7618703056594512E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7471272125055475E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6802135979867709E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5452964316522571E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,16 +1624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1912,8 +1939,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q45" totalsRowShown="0">
-  <autoFilter ref="A1:Q45" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q156" totalsRowShown="0">
+  <autoFilter ref="A1:Q156" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{0837C794-F666-B34B-9F53-81CDEF195346}" name="Chile"/>
@@ -1945,28 +1972,28 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0C695B5A-9DB3-8043-8844-A8E8C1B03B41}" name="Dias_CL"/>
     <tableColumn id="2" xr3:uid="{2F1689C0-4E49-D247-B0A9-29CAA5A6B390}" name="Suma_CL">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Chile]]:C42)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6F6CF0DF-A8FB-A542-B7C9-0FB974F71F03}" name="Suma_CH">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_China]]:E39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_China]]:E41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DF859BA9-E291-D94A-BD51-FF5D7EB97B14}" name="Suma_IT">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Italia]]:G39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Italia]]:G41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FCCFA73D-6395-7944-A719-E7C8DB6BAC02}" name="Suma_EEUU">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_EEUU]]:I39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_EEUU]]:I41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{7799B79A-70B1-924B-ADDC-F34E1A4EF7F9}" name="Suma_ES">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_España]]:K39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_España]]:K41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C884A6D2-B96B-1745-905B-9C2BAD0FC440}" name="Suma_AL">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Alemania]]:M39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Alemania]]:M41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{9C2E9547-AB8C-AE4F-B6E7-E115DDDAA0FF}" name="Suma_FR">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Francia]]:O39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Francia]]:O41)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{9A1C6494-7EB6-9B4B-87C4-BBDA6DA9047D}" name="Suma_IR">
-      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Iran]]:Q39)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table2[[#This Row],[Factor_Iran]]:Q41)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2019,17 +2046,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2332,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2521,38 +2548,38 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T2">
-        <f>SUM(Table2[[#This Row],[Factor_Chile]]:C42)</f>
-        <v>49.188943155953403</v>
+        <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
+        <v>54.312426440543049</v>
       </c>
       <c r="U2">
-        <f>SUM(Table2[[#This Row],[Factor_China]]:E39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
         <v>31.018170093427205</v>
       </c>
       <c r="V2">
-        <f>SUM(Table2[[#This Row],[Factor_Italia]]:G39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Italia]]:G41)</f>
         <v>35.381616387348011</v>
       </c>
       <c r="W2">
-        <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_EEUU]]:I41)</f>
         <v>40.738050708886128</v>
       </c>
       <c r="X2">
-        <f>SUM(Table2[[#This Row],[Factor_España]]:K39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_España]]:K41)</f>
         <v>38.913081834465927</v>
       </c>
       <c r="Y2">
-        <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Alemania]]:M41)</f>
         <v>38.079616754573486</v>
       </c>
       <c r="Z2">
-        <f>SUM(Table2[[#This Row],[Factor_Francia]]:O39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Francia]]:O41)</f>
         <v>37.456961098678271</v>
       </c>
       <c r="AA2" t="e">
-        <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q39)</f>
+        <f>SUM(Table2[[#This Row],[Factor_Iran]]:Q41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB2">
@@ -2810,7 +2837,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.261254952716754</v>
+        <v>1.2343733281941602</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -4888,11 +4915,15 @@
         <v>43924</v>
       </c>
       <c r="B33">
-        <v>4161</v>
+        <v>3737</v>
       </c>
       <c r="C33">
         <f>Table2[[#This Row],[Chile]]/B32</f>
-        <v>1.2223854289071681</v>
+        <v>1.0978260869565217</v>
+      </c>
+      <c r="Q33" s="6">
+        <f>Table2[[#This Row],[Iran]]/P32</f>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>32</v>
@@ -4902,11 +4933,11 @@
       </c>
       <c r="AD33">
         <f>Table2[[#This Row],[Chile]]/B32</f>
-        <v>1.2223854289071681</v>
+        <v>1.0978260869565217</v>
       </c>
       <c r="AE33">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD32)/AB33</f>
-        <v>7.3295222647410369E-2</v>
+        <v>6.9402743211452678E-2</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
@@ -4914,11 +4945,11 @@
         <v>43925</v>
       </c>
       <c r="B34">
-        <v>4815</v>
+        <v>4161</v>
       </c>
       <c r="C34">
         <f>Table2[[#This Row],[Chile]]/B33</f>
-        <v>1.1571737563085798</v>
+        <v>1.1134599946481134</v>
       </c>
       <c r="AB34">
         <v>33</v>
@@ -4927,12 +4958,12 @@
         <v>43925</v>
       </c>
       <c r="AD34">
-        <f>Table2[[#This Row],[Chile]]/B33</f>
-        <v>1.1571737563085798</v>
+        <f>Table2[[#This Row],[Chile]]/B34</f>
+        <v>1</v>
       </c>
       <c r="AE34">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD33)/AB34</f>
-        <v>7.2107854097446911E-2</v>
+        <v>6.357048748353096E-2</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4940,11 +4971,11 @@
         <v>43926</v>
       </c>
       <c r="B35">
-        <v>5116</v>
+        <v>4471</v>
       </c>
       <c r="C35">
         <f>Table2[[#This Row],[Chile]]/B34</f>
-        <v>1.0625129802699895</v>
+        <v>1.0745013217976449</v>
       </c>
       <c r="Q35" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P34</f>
@@ -4957,12 +4988,12 @@
         <v>43926</v>
       </c>
       <c r="AD35">
-        <f>Table2[[#This Row],[Chile]]/B34</f>
-        <v>1.0625129802699895</v>
+        <f>Table2[[#This Row],[Chile]]/B36</f>
+        <v>0.92855659397715473</v>
       </c>
       <c r="AE35">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD34)/AB35</f>
-        <v>6.528490401701674E-2</v>
+        <v>5.6722252764033962E-2</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4970,11 +5001,11 @@
         <v>43927</v>
       </c>
       <c r="B36">
-        <v>5546</v>
+        <v>4815</v>
       </c>
       <c r="C36">
         <f>Table2[[#This Row],[Chile]]/B35</f>
-        <v>1.0840500390930414</v>
+        <v>1.0769402818161484</v>
       </c>
       <c r="AB36">
         <v>35</v>
@@ -4983,12 +5014,12 @@
         <v>43927</v>
       </c>
       <c r="AD36">
-        <f>Table2[[#This Row],[Chile]]/B35</f>
-        <v>1.0840500390930414</v>
+        <f>Table2[[#This Row],[Chile]]/B37</f>
+        <v>0.94116497263487098</v>
       </c>
       <c r="AE36">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD35)/AB36</f>
-        <v>6.1330371981800878E-2</v>
+        <v>5.342061618891502E-2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -4996,11 +5027,15 @@
         <v>43928</v>
       </c>
       <c r="B37">
-        <v>5972</v>
+        <v>5116</v>
       </c>
       <c r="C37">
         <f>Table2[[#This Row],[Chile]]/B36</f>
-        <v>1.0768121168409666</v>
+        <v>1.0625129802699895</v>
+      </c>
+      <c r="Q37" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P36</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB37">
         <v>36</v>
@@ -5009,12 +5044,12 @@
         <v>43928</v>
       </c>
       <c r="AD37">
-        <f>Table2[[#This Row],[Chile]]/B36</f>
-        <v>1.0768121168409666</v>
+        <f>Table2[[#This Row],[Chile]]/B38</f>
+        <v>0.92246664262531552</v>
       </c>
       <c r="AE37">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD36)/AB37</f>
-        <v>6.0023948775944663E-2</v>
+        <v>5.1767544868338518E-2</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
@@ -5022,11 +5057,11 @@
         <v>43929</v>
       </c>
       <c r="B38">
-        <v>6501</v>
+        <v>5546</v>
       </c>
       <c r="C38">
         <f>Table2[[#This Row],[Chile]]/B37</f>
-        <v>1.0885800401875418</v>
+        <v>1.0840500390930414</v>
       </c>
       <c r="AB38">
         <v>37</v>
@@ -5035,12 +5070,12 @@
         <v>43929</v>
       </c>
       <c r="AD38">
-        <f>Table2[[#This Row],[Chile]]/B37</f>
-        <v>1.0885800401875418</v>
+        <f>Table2[[#This Row],[Chile]]/B39</f>
+        <v>0.92866711319490958</v>
       </c>
       <c r="AE38">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD37)/AB38</f>
-        <v>5.8524112352121842E-2</v>
+        <v>5.0030642049195273E-2</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
@@ -5048,11 +5083,11 @@
         <v>43930</v>
       </c>
       <c r="B39">
-        <v>6927</v>
+        <v>5972</v>
       </c>
       <c r="C39">
         <f>Table2[[#This Row],[Chile]]/B38</f>
-        <v>1.0655283802491924</v>
+        <v>1.0768121168409666</v>
       </c>
       <c r="AB39">
         <v>38</v>
@@ -5061,12 +5096,12 @@
         <v>43930</v>
       </c>
       <c r="AD39">
-        <f>Table2[[#This Row],[Chile]]/B38</f>
-        <v>1.0655283802491924</v>
+        <f>Table2[[#This Row],[Chile]]/B40</f>
+        <v>0.91862790339947697</v>
       </c>
       <c r="AE39">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD38)/AB39</f>
-        <v>5.6687063695703532E-2</v>
+        <v>4.8613026752483857E-2</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
@@ -5074,42 +5109,64 @@
         <v>43931</v>
       </c>
       <c r="B40">
-        <v>7213</v>
+        <v>6501</v>
       </c>
       <c r="C40">
         <f>Table2[[#This Row],[Chile]]/B39</f>
-        <v>1.0412877147394255</v>
-      </c>
-      <c r="Q40" s="6" t="e">
-        <f>Table2[[#This Row],[Iran]]/P39</f>
-        <v>#DIV/0!</v>
+        <v>1.0885800401875418</v>
       </c>
       <c r="AB40">
         <v>39</v>
       </c>
       <c r="AC40" s="9">
         <v>43931</v>
+      </c>
+      <c r="AD40">
+        <f>Table2[[#This Row],[Chile]]/B41</f>
+        <v>0.93850151580770902</v>
+      </c>
+      <c r="AE40">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD39)/AB40</f>
+        <v>4.7618703056594512E-2</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43932</v>
       </c>
-      <c r="Q41" s="6" t="e">
-        <f>Table2[[#This Row],[Iran]]/P40</f>
-        <v>#DIV/0!</v>
+      <c r="B41">
+        <v>6927</v>
+      </c>
+      <c r="C41">
+        <f>Table2[[#This Row],[Chile]]/B40</f>
+        <v>1.0655283802491924</v>
       </c>
       <c r="AB41">
         <v>40</v>
       </c>
       <c r="AC41" s="10">
         <v>43932</v>
+      </c>
+      <c r="AD41">
+        <f>Table2[[#This Row],[Chile]]/B42</f>
+        <v>0.96034936919450986</v>
+      </c>
+      <c r="AE41">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD40)/AB41</f>
+        <v>4.7471272125055475E-2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43933</v>
       </c>
+      <c r="B42">
+        <v>7213</v>
+      </c>
+      <c r="C42">
+        <f>Table2[[#This Row],[Chile]]/B41</f>
+        <v>1.0412877147394255</v>
+      </c>
       <c r="Q42" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P41</f>
         <v>#DIV/0!</v>
@@ -5119,12 +5176,27 @@
       </c>
       <c r="AC42" s="9">
         <v>43933</v>
+      </c>
+      <c r="AD42">
+        <f>Table2[[#This Row],[Chile]]/B43</f>
+        <v>0.95853820598006645</v>
+      </c>
+      <c r="AE42">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD41)/AB42</f>
+        <v>4.6802135979867709E-2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43934</v>
       </c>
+      <c r="B43">
+        <v>7525</v>
+      </c>
+      <c r="C43">
+        <f>Table2[[#This Row],[Chile]]/B42</f>
+        <v>1.0432552336059893</v>
+      </c>
       <c r="Q43" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P42</f>
         <v>#DIV/0!</v>
@@ -5134,12 +5206,27 @@
       </c>
       <c r="AC43" s="10">
         <v>43934</v>
+      </c>
+      <c r="AD43">
+        <f>Table2[[#This Row],[Chile]]/B44</f>
+        <v>0.95048629531388151</v>
+      </c>
+      <c r="AE43">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD42)/AB43</f>
+        <v>4.5452964316522571E-2</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43935</v>
       </c>
+      <c r="B44">
+        <v>7917</v>
+      </c>
+      <c r="C44">
+        <f>Table2[[#This Row],[Chile]]/B43</f>
+        <v>1.0520930232558139</v>
+      </c>
       <c r="Q44" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P43</f>
         <v>#DIV/0!</v>
@@ -5149,12 +5236,23 @@
       </c>
       <c r="AC44" s="9">
         <v>43935</v>
+      </c>
+      <c r="AD44">
+        <f>Table2[[#This Row],[Chile]]/B45</f>
+        <v>0.95696845158950805</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43936</v>
       </c>
+      <c r="B45">
+        <v>8273</v>
+      </c>
+      <c r="C45">
+        <f>Table2[[#This Row],[Chile]]/B44</f>
+        <v>1.0449665277251483</v>
+      </c>
       <c r="Q45" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P44</f>
         <v>#DIV/0!</v>
@@ -5166,8 +5264,1007 @@
         <v>43936</v>
       </c>
     </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43937</v>
+      </c>
+      <c r="Q46" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P45</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43938</v>
+      </c>
+      <c r="Q47" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P46</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43939</v>
+      </c>
+      <c r="Q48" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43940</v>
+      </c>
+      <c r="Q49" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P48</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43941</v>
+      </c>
+      <c r="Q50" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P49</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43942</v>
+      </c>
+      <c r="Q51" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43943</v>
+      </c>
+      <c r="Q52" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43944</v>
+      </c>
+      <c r="Q53" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P52</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43945</v>
+      </c>
+      <c r="Q54" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P53</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43946</v>
+      </c>
+      <c r="Q55" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P54</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43947</v>
+      </c>
+      <c r="Q56" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P55</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43948</v>
+      </c>
+      <c r="Q57" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43949</v>
+      </c>
+      <c r="Q58" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43950</v>
+      </c>
+      <c r="Q59" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P58</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43951</v>
+      </c>
+      <c r="Q60" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P59</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43952</v>
+      </c>
+      <c r="Q61" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43953</v>
+      </c>
+      <c r="Q62" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P61</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43954</v>
+      </c>
+      <c r="Q63" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P62</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43955</v>
+      </c>
+      <c r="Q64" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P63</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43956</v>
+      </c>
+      <c r="Q65" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P64</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43957</v>
+      </c>
+      <c r="Q66" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P65</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43958</v>
+      </c>
+      <c r="Q67" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P66</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43959</v>
+      </c>
+      <c r="Q68" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43960</v>
+      </c>
+      <c r="Q69" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43961</v>
+      </c>
+      <c r="Q70" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43962</v>
+      </c>
+      <c r="Q71" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P70</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43963</v>
+      </c>
+      <c r="Q72" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P71</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43964</v>
+      </c>
+      <c r="Q73" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43965</v>
+      </c>
+      <c r="Q74" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P73</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43966</v>
+      </c>
+      <c r="Q75" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P74</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43967</v>
+      </c>
+      <c r="Q76" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P75</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43968</v>
+      </c>
+      <c r="Q77" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P76</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43969</v>
+      </c>
+      <c r="Q78" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43970</v>
+      </c>
+      <c r="Q79" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43971</v>
+      </c>
+      <c r="Q80" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43972</v>
+      </c>
+      <c r="Q81" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43973</v>
+      </c>
+      <c r="Q82" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43974</v>
+      </c>
+      <c r="Q83" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P82</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43975</v>
+      </c>
+      <c r="Q84" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P83</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43976</v>
+      </c>
+      <c r="Q85" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P84</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43977</v>
+      </c>
+      <c r="Q86" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P85</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43978</v>
+      </c>
+      <c r="Q87" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P86</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43979</v>
+      </c>
+      <c r="Q88" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P87</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43980</v>
+      </c>
+      <c r="Q89" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P88</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43981</v>
+      </c>
+      <c r="Q90" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P89</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43982</v>
+      </c>
+      <c r="Q91" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43983</v>
+      </c>
+      <c r="Q92" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P91</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43984</v>
+      </c>
+      <c r="Q93" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P92</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43985</v>
+      </c>
+      <c r="Q94" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P93</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43986</v>
+      </c>
+      <c r="Q95" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P94</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43987</v>
+      </c>
+      <c r="Q96" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P95</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43988</v>
+      </c>
+      <c r="Q97" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P96</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43989</v>
+      </c>
+      <c r="Q98" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P97</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43990</v>
+      </c>
+      <c r="Q99" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P98</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43991</v>
+      </c>
+      <c r="Q100" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P99</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43992</v>
+      </c>
+      <c r="Q101" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43993</v>
+      </c>
+      <c r="Q102" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P101</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43994</v>
+      </c>
+      <c r="Q103" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P102</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43995</v>
+      </c>
+      <c r="Q104" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P103</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43996</v>
+      </c>
+      <c r="Q105" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P104</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43997</v>
+      </c>
+      <c r="Q106" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P105</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43998</v>
+      </c>
+      <c r="Q107" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P106</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43999</v>
+      </c>
+      <c r="Q108" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P107</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44000</v>
+      </c>
+      <c r="Q109" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P108</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44001</v>
+      </c>
+      <c r="Q110" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P109</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44002</v>
+      </c>
+      <c r="Q111" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P110</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44003</v>
+      </c>
+      <c r="Q112" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P111</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44004</v>
+      </c>
+      <c r="Q113" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P112</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44005</v>
+      </c>
+      <c r="Q114" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P113</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44006</v>
+      </c>
+      <c r="Q115" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P114</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44007</v>
+      </c>
+      <c r="Q116" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P115</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44008</v>
+      </c>
+      <c r="Q117" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P116</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44009</v>
+      </c>
+      <c r="Q118" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P117</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44010</v>
+      </c>
+      <c r="Q119" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P118</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44011</v>
+      </c>
+      <c r="Q120" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P119</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44012</v>
+      </c>
+      <c r="Q121" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P120</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44013</v>
+      </c>
+      <c r="Q122" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P121</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44014</v>
+      </c>
+      <c r="Q123" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P122</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44015</v>
+      </c>
+      <c r="Q124" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P123</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44016</v>
+      </c>
+      <c r="Q125" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P124</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44017</v>
+      </c>
+      <c r="Q126" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P125</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44018</v>
+      </c>
+      <c r="Q127" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P126</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44019</v>
+      </c>
+      <c r="Q128" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P127</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44020</v>
+      </c>
+      <c r="Q129" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P128</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44021</v>
+      </c>
+      <c r="Q130" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P129</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44022</v>
+      </c>
+      <c r="Q131" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P130</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44023</v>
+      </c>
+      <c r="Q132" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P131</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44024</v>
+      </c>
+      <c r="Q133" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P132</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44025</v>
+      </c>
+      <c r="Q134" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P133</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44026</v>
+      </c>
+      <c r="Q135" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44027</v>
+      </c>
+      <c r="Q136" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P135</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44028</v>
+      </c>
+      <c r="Q137" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P136</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44029</v>
+      </c>
+      <c r="Q138" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P137</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44030</v>
+      </c>
+      <c r="Q139" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P138</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44031</v>
+      </c>
+      <c r="Q140" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P139</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44032</v>
+      </c>
+      <c r="Q141" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P140</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44033</v>
+      </c>
+      <c r="Q142" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P141</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44034</v>
+      </c>
+      <c r="Q143" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P142</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44035</v>
+      </c>
+      <c r="Q144" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P143</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44036</v>
+      </c>
+      <c r="Q145" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P144</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44037</v>
+      </c>
+      <c r="Q146" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P145</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44038</v>
+      </c>
+      <c r="Q147" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P146</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44039</v>
+      </c>
+      <c r="Q148" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P147</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44040</v>
+      </c>
+      <c r="Q149" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P148</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44041</v>
+      </c>
+      <c r="Q150" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P149</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44042</v>
+      </c>
+      <c r="Q151" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P150</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44043</v>
+      </c>
+      <c r="Q152" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P151</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44044</v>
+      </c>
+      <c r="Q153" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P152</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44045</v>
+      </c>
+      <c r="Q154" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P153</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44046</v>
+      </c>
+      <c r="Q155" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P154</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44047</v>
+      </c>
+      <c r="Q156" s="6" t="e">
+        <f>Table2[[#This Row],[Iran]]/P155</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O2:O32">
+  <conditionalFormatting sqref="O2:O33">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -5181,7 +6278,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I32">
+  <conditionalFormatting sqref="I2:I33">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -5195,7 +6292,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
+  <conditionalFormatting sqref="E2:E33">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -5209,7 +6306,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M32">
+  <conditionalFormatting sqref="M2:M33">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -5223,7 +6320,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K32">
+  <conditionalFormatting sqref="K2:K33">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -5237,7 +6334,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G32">
+  <conditionalFormatting sqref="G2:G33">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -5251,7 +6348,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q32">
+  <conditionalFormatting sqref="Q2:Q33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -5265,8 +6362,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="C2:C45">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5299,7 +6396,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O2:O32</xm:sqref>
+          <xm:sqref>O2:O33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20FE3881-F6F8-FE47-B236-1D371E89B41B}">
@@ -5310,7 +6407,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I32</xm:sqref>
+          <xm:sqref>I2:I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C30B8ACE-67D5-5E4B-8FAB-7B49416E5075}">
@@ -5321,7 +6418,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E32</xm:sqref>
+          <xm:sqref>E2:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3BFE6C7-A691-8A4F-8767-9F6DB7024CFB}">
@@ -5332,7 +6429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M2:M32</xm:sqref>
+          <xm:sqref>M2:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{09494BC2-9BF2-0643-B8BE-A7ED41A05870}">
@@ -5343,7 +6440,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K32</xm:sqref>
+          <xm:sqref>K2:K33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5186246-AEEB-6147-9469-043B0AFF2978}">
@@ -5354,7 +6451,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G32</xm:sqref>
+          <xm:sqref>G2:G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB31B8BC-4B7D-0447-8FCF-6C1C2E9C5922}">
@@ -5365,7 +6462,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q32</xm:sqref>
+          <xm:sqref>Q2:Q33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C412845-02A5-3943-8E45-91305FE40D99}">
@@ -5376,7 +6473,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C40</xm:sqref>
+          <xm:sqref>C2:C45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5388,8 +6485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24053B1-22A1-714D-9FD8-075C0A16EB2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B8815-5930-D04F-881D-C4E4BF951CA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +259,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -312,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,11 +325,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,25 +338,95 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -382,7 +458,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -414,85 +494,11 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2046,17 +2052,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2361,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="86" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
@@ -2478,7 +2484,7 @@
       <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AD1" t="s">
@@ -2585,7 +2591,7 @@
       <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="8">
         <v>43893</v>
       </c>
       <c r="AD2">
@@ -2658,7 +2664,7 @@
       <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <v>43894</v>
       </c>
       <c r="AD3">
@@ -2760,7 +2766,7 @@
       <c r="AB4">
         <v>3</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="8">
         <v>43895</v>
       </c>
       <c r="AD4">
@@ -2870,7 +2876,7 @@
       <c r="AB5">
         <v>4</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="9">
         <v>43896</v>
       </c>
       <c r="AD5">
@@ -2945,7 +2951,7 @@
       <c r="AB6">
         <v>5</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="8">
         <v>43897</v>
       </c>
       <c r="AD6">
@@ -3020,7 +3026,7 @@
       <c r="AB7">
         <v>6</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="9">
         <v>43898</v>
       </c>
       <c r="AD7">
@@ -3095,7 +3101,7 @@
       <c r="AB8">
         <v>7</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="8">
         <v>43899</v>
       </c>
       <c r="AD8">
@@ -3170,7 +3176,7 @@
       <c r="AB9">
         <v>8</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="9">
         <v>43900</v>
       </c>
       <c r="AD9">
@@ -3248,7 +3254,7 @@
       <c r="AB10">
         <v>9</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="8">
         <v>43901</v>
       </c>
       <c r="AD10">
@@ -3323,7 +3329,7 @@
       <c r="AB11">
         <v>10</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <v>43902</v>
       </c>
       <c r="AD11">
@@ -3398,7 +3404,7 @@
       <c r="AB12">
         <v>11</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="8">
         <v>43903</v>
       </c>
       <c r="AD12">
@@ -3473,7 +3479,7 @@
       <c r="AB13">
         <v>12</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <v>43904</v>
       </c>
       <c r="AD13">
@@ -3548,7 +3554,7 @@
       <c r="AB14">
         <v>13</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AC14" s="8">
         <v>43905</v>
       </c>
       <c r="AD14">
@@ -3623,7 +3629,7 @@
       <c r="AB15">
         <v>14</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>43906</v>
       </c>
       <c r="AD15">
@@ -3698,7 +3704,7 @@
       <c r="AB16">
         <v>15</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="8">
         <v>43907</v>
       </c>
       <c r="AD16">
@@ -3773,7 +3779,7 @@
       <c r="AB17">
         <v>16</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="9">
         <v>43908</v>
       </c>
       <c r="AD17">
@@ -3848,7 +3854,7 @@
       <c r="AB18">
         <v>17</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="8">
         <v>43909</v>
       </c>
       <c r="AD18">
@@ -3923,7 +3929,7 @@
       <c r="AB19">
         <v>18</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="9">
         <v>43910</v>
       </c>
       <c r="AD19">
@@ -3998,7 +4004,7 @@
       <c r="AB20">
         <v>19</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="8">
         <v>43911</v>
       </c>
       <c r="AD20">
@@ -4073,7 +4079,7 @@
       <c r="AB21">
         <v>20</v>
       </c>
-      <c r="AC21" s="10">
+      <c r="AC21" s="9">
         <v>43912</v>
       </c>
       <c r="AD21">
@@ -4148,7 +4154,7 @@
       <c r="AB22">
         <v>21</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="8">
         <v>43913</v>
       </c>
       <c r="AD22">
@@ -4223,7 +4229,7 @@
       <c r="AB23">
         <v>22</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="9">
         <v>43914</v>
       </c>
       <c r="AD23">
@@ -4298,7 +4304,7 @@
       <c r="AB24">
         <v>23</v>
       </c>
-      <c r="AC24" s="9">
+      <c r="AC24" s="8">
         <v>43915</v>
       </c>
       <c r="AD24">
@@ -4373,7 +4379,7 @@
       <c r="AB25">
         <v>24</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="9">
         <v>43916</v>
       </c>
       <c r="AD25">
@@ -4448,7 +4454,7 @@
       <c r="AB26">
         <v>25</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="8">
         <v>43917</v>
       </c>
       <c r="AD26">
@@ -4523,7 +4529,7 @@
       <c r="AB27">
         <v>26</v>
       </c>
-      <c r="AC27" s="10">
+      <c r="AC27" s="9">
         <v>43918</v>
       </c>
       <c r="AD27">
@@ -4598,7 +4604,7 @@
       <c r="AB28">
         <v>27</v>
       </c>
-      <c r="AC28" s="9">
+      <c r="AC28" s="8">
         <v>43919</v>
       </c>
       <c r="AD28">
@@ -4673,7 +4679,7 @@
       <c r="AB29">
         <v>28</v>
       </c>
-      <c r="AC29" s="10">
+      <c r="AC29" s="9">
         <v>43920</v>
       </c>
       <c r="AD29">
@@ -4748,7 +4754,7 @@
       <c r="AB30">
         <v>29</v>
       </c>
-      <c r="AC30" s="9">
+      <c r="AC30" s="8">
         <v>43921</v>
       </c>
       <c r="AD30">
@@ -4823,7 +4829,7 @@
       <c r="AB31">
         <v>30</v>
       </c>
-      <c r="AC31" s="10">
+      <c r="AC31" s="9">
         <v>43922</v>
       </c>
       <c r="AD31">
@@ -4898,7 +4904,7 @@
       <c r="AB32">
         <v>31</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AC32" s="8">
         <v>43923</v>
       </c>
       <c r="AD32">
@@ -4928,7 +4934,7 @@
       <c r="AB33">
         <v>32</v>
       </c>
-      <c r="AC33" s="10">
+      <c r="AC33" s="9">
         <v>43924</v>
       </c>
       <c r="AD33">
@@ -4954,7 +4960,7 @@
       <c r="AB34">
         <v>33</v>
       </c>
-      <c r="AC34" s="9">
+      <c r="AC34" s="8">
         <v>43925</v>
       </c>
       <c r="AD34">
@@ -4984,7 +4990,7 @@
       <c r="AB35">
         <v>34</v>
       </c>
-      <c r="AC35" s="10">
+      <c r="AC35" s="9">
         <v>43926</v>
       </c>
       <c r="AD35">
@@ -5010,7 +5016,7 @@
       <c r="AB36">
         <v>35</v>
       </c>
-      <c r="AC36" s="9">
+      <c r="AC36" s="8">
         <v>43927</v>
       </c>
       <c r="AD36">
@@ -5040,7 +5046,7 @@
       <c r="AB37">
         <v>36</v>
       </c>
-      <c r="AC37" s="10">
+      <c r="AC37" s="9">
         <v>43928</v>
       </c>
       <c r="AD37">
@@ -5066,7 +5072,7 @@
       <c r="AB38">
         <v>37</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AC38" s="8">
         <v>43929</v>
       </c>
       <c r="AD38">
@@ -5092,7 +5098,7 @@
       <c r="AB39">
         <v>38</v>
       </c>
-      <c r="AC39" s="10">
+      <c r="AC39" s="9">
         <v>43930</v>
       </c>
       <c r="AD39">
@@ -5118,7 +5124,7 @@
       <c r="AB40">
         <v>39</v>
       </c>
-      <c r="AC40" s="9">
+      <c r="AC40" s="8">
         <v>43931</v>
       </c>
       <c r="AD40">
@@ -5144,7 +5150,7 @@
       <c r="AB41">
         <v>40</v>
       </c>
-      <c r="AC41" s="10">
+      <c r="AC41" s="9">
         <v>43932</v>
       </c>
       <c r="AD41">
@@ -5174,7 +5180,7 @@
       <c r="AB42">
         <v>41</v>
       </c>
-      <c r="AC42" s="9">
+      <c r="AC42" s="8">
         <v>43933</v>
       </c>
       <c r="AD42">
@@ -5204,7 +5210,7 @@
       <c r="AB43">
         <v>42</v>
       </c>
-      <c r="AC43" s="10">
+      <c r="AC43" s="9">
         <v>43934</v>
       </c>
       <c r="AD43">
@@ -5234,7 +5240,7 @@
       <c r="AB44">
         <v>43</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="8">
         <v>43935</v>
       </c>
       <c r="AD44">
@@ -5260,7 +5266,7 @@
       <c r="AB45">
         <v>44</v>
       </c>
-      <c r="AC45" s="10">
+      <c r="AC45" s="9">
         <v>43936</v>
       </c>
     </row>
@@ -6485,8 +6491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6516,275 +6522,275 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
+        <v>124</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>115</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C3" s="10">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10">
+        <v>176</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>66</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10">
+        <v>299</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10">
+        <v>248</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4334</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.52390000000000003</v>
+      </c>
+      <c r="E8" s="10">
         <v>41</v>
       </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>152</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>634</v>
+      </c>
+      <c r="D11" s="11">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
+        <v>542</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>826</v>
+      </c>
+      <c r="D13" s="11">
+        <v>9.98E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>150</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10">
+        <v>390</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="10">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10">
+        <v>444</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="E17" s="10">
         <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>52</v>
-      </c>
-      <c r="D3" s="11">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>149</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>66</v>
-      </c>
-      <c r="D6" s="11">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>273</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2">
-        <v>204</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3803</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.50539999999999996</v>
-      </c>
-      <c r="E8" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>141</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>618</v>
-      </c>
-      <c r="D11" s="11">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>512</v>
-      </c>
-      <c r="D12" s="11">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2">
-        <v>795</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.1056</v>
-      </c>
-      <c r="E13" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>138</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1.83E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>380</v>
-      </c>
-      <c r="D15" s="11">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>415</v>
-      </c>
-      <c r="D17" s="11">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6793,19 +6799,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>7525</v>
+        <v>8273</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>0.99980000000000013</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B8815-5930-D04F-881D-C4E4BF951CA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C91FB2-2A3C-7749-863D-94E8060BE4A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,11 +259,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -317,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,9 +323,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,9 +339,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -359,9 +353,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -373,9 +367,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -387,9 +381,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -401,9 +395,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -415,9 +409,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -6492,7 +6486,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6522,274 +6516,274 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>134</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>211</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>68</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>345</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3.73E-2</v>
+      </c>
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="10">
-        <v>124</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E2" s="10">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2">
+        <v>233</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4915</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="C9" s="2">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E3" s="10">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2">
+        <v>223</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.41E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>656</v>
+      </c>
+      <c r="D11" s="10">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>578</v>
+      </c>
+      <c r="D12" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>907</v>
+      </c>
+      <c r="D13" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>154</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>412</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10">
-        <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>176</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="10">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>66</v>
-      </c>
-      <c r="D6" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="10">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10">
-        <v>299</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3.61E-2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="10">
-        <v>248</v>
-      </c>
-      <c r="C8" s="12">
-        <v>4334</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.52390000000000003</v>
-      </c>
-      <c r="E8" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10">
-        <v>152</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E10" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="10">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10">
-        <v>634</v>
-      </c>
-      <c r="D11" s="11">
-        <v>7.6600000000000001E-2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="10">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10">
-        <v>542</v>
-      </c>
-      <c r="D12" s="11">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="10">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>826</v>
-      </c>
-      <c r="D13" s="11">
-        <v>9.98E-2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>150</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="10">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10">
-        <v>390</v>
-      </c>
-      <c r="D15" s="11">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="E15" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10">
-        <v>444</v>
-      </c>
-      <c r="D17" s="11">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="B17" s="2">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>501</v>
+      </c>
+      <c r="D17" s="10">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="E17" s="2">
         <v>6</v>
       </c>
     </row>
@@ -6799,11 +6793,11 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>8273</v>
+        <v>9252</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
@@ -6811,7 +6805,7 @@
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C91FB2-2A3C-7749-863D-94E8060BE4A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5A09CD-83BA-1541-AD16-00A056865BAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -332,63 +332,11 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -434,11 +382,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -470,6 +414,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -488,11 +446,53 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -557,9 +557,20 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.766687303818028E-2"/>
+          <c:y val="3.0422285881454292E-2"/>
+          <c:w val="0.96073458849390114"/>
+          <c:h val="0.93497565767981561"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -576,23 +587,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$45</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -690,42 +699,59 @@
                   <c:v>1.0978260869565217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>1.1134599946481134</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92855659397715473</c:v>
+                  <c:v>1.0745013217976449</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94116497263487098</c:v>
+                  <c:v>1.0769402818161484</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92246664262531552</c:v>
+                  <c:v>1.0625129802699895</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92866711319490958</c:v>
+                  <c:v>1.0840500390930414</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.91862790339947697</c:v>
+                  <c:v>1.0768121168409666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.93850151580770902</c:v>
+                  <c:v>1.0885800401875418</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.96034936919450986</c:v>
+                  <c:v>1.0655283802491924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.95853820598006645</c:v>
+                  <c:v>1.0412877147394255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.95048629531388151</c:v>
+                  <c:v>1.0432552336059893</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.95696845158950805</c:v>
+                  <c:v>1.0520930232558139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0449665277251483</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.064547322615738</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0505279890995798</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.051664504971898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0367934224049331</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0415344964314037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E431-AA49-B92D-7186E11C4058}"/>
@@ -747,23 +773,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$45</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -861,39 +885,59 @@
                   <c:v>6.9402743211452678E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.357048748353096E-2</c:v>
+                  <c:v>6.7008669139534405E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.6722252764033962E-2</c:v>
+                  <c:v>6.4351803424875231E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.342061618891502E-2</c:v>
+                  <c:v>6.1469760103251239E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.1767544868338518E-2</c:v>
+                  <c:v>5.9429257280170504E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0030642049195273E-2</c:v>
+                  <c:v>5.8015216739541374E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.8613026752483857E-2</c:v>
+                  <c:v>5.6864793577210727E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.7618703056594512E-2</c:v>
+                  <c:v>5.5522875821243801E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.7471272125055475E-2</c:v>
+                  <c:v>5.3852710510918354E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6802135979867709E-2</c:v>
+                  <c:v>5.1385758414356539E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5452964316522571E-2</c:v>
+                  <c:v>4.9631974960605105E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8729029229344266E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7660444340476407E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7943496598656508E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8069893448075399E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.777710213798813E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7464952894927984E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7234725428098562E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E431-AA49-B92D-7186E11C4058}"/>
@@ -908,11 +952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="572642831"/>
         <c:axId val="572644511"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:barChart>
+      <c:dateAx>
         <c:axId val="572642831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -958,11 +1002,10 @@
         </c:txPr>
         <c:crossAx val="572644511"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="572644511"/>
         <c:scaling>
@@ -1017,7 +1060,7 @@
         </c:txPr>
         <c:crossAx val="572642831"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1624,16 +1667,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1481176</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>456611</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>150037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2035,8 +2078,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AE45" totalsRowShown="0">
-  <autoFilter ref="AD1:AE45" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AE51" totalsRowShown="0">
+  <autoFilter ref="AD1:AE51" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5A9F5AD8-690E-4140-8022-0C29EB08B63F}" name="Factor diario CL"/>
     <tableColumn id="2" xr3:uid="{FF114CD2-95B8-424E-9607-35812A20EC3A}" name="Factor prom diario CL"/>
@@ -2046,17 +2089,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <sortState ref="A2:E17">
     <sortCondition ref="C1:C17"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="2" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2361,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="86" workbookViewId="0">
+      <selection activeCell="AE46" sqref="AE46:AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2548,11 +2591,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
-        <v>54.312426440543049</v>
+        <v>59.557494176066598</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
@@ -2837,7 +2880,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.2343733281941602</v>
+        <v>1.2154590648176857</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -4958,12 +5001,12 @@
         <v>43925</v>
       </c>
       <c r="AD34">
-        <f>Table2[[#This Row],[Chile]]/B34</f>
-        <v>1</v>
+        <f>Table2[[#This Row],[Chile]]/B33</f>
+        <v>1.1134599946481134</v>
       </c>
       <c r="AE34">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD33)/AB34</f>
-        <v>6.357048748353096E-2</v>
+        <v>6.7008669139534405E-2</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4988,12 +5031,12 @@
         <v>43926</v>
       </c>
       <c r="AD35">
-        <f>Table2[[#This Row],[Chile]]/B36</f>
-        <v>0.92855659397715473</v>
+        <f>Table2[[#This Row],[Chile]]/B34</f>
+        <v>1.0745013217976449</v>
       </c>
       <c r="AE35">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD34)/AB35</f>
-        <v>5.6722252764033962E-2</v>
+        <v>6.4351803424875231E-2</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -5014,12 +5057,12 @@
         <v>43927</v>
       </c>
       <c r="AD36">
-        <f>Table2[[#This Row],[Chile]]/B37</f>
-        <v>0.94116497263487098</v>
+        <f>Table2[[#This Row],[Chile]]/B35</f>
+        <v>1.0769402818161484</v>
       </c>
       <c r="AE36">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD35)/AB36</f>
-        <v>5.342061618891502E-2</v>
+        <v>6.1469760103251239E-2</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -5044,12 +5087,12 @@
         <v>43928</v>
       </c>
       <c r="AD37">
-        <f>Table2[[#This Row],[Chile]]/B38</f>
-        <v>0.92246664262531552</v>
+        <f>Table2[[#This Row],[Chile]]/B36</f>
+        <v>1.0625129802699895</v>
       </c>
       <c r="AE37">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD36)/AB37</f>
-        <v>5.1767544868338518E-2</v>
+        <v>5.9429257280170504E-2</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
@@ -5070,12 +5113,12 @@
         <v>43929</v>
       </c>
       <c r="AD38">
-        <f>Table2[[#This Row],[Chile]]/B39</f>
-        <v>0.92866711319490958</v>
+        <f>Table2[[#This Row],[Chile]]/B37</f>
+        <v>1.0840500390930414</v>
       </c>
       <c r="AE38">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD37)/AB38</f>
-        <v>5.0030642049195273E-2</v>
+        <v>5.8015216739541374E-2</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
@@ -5096,12 +5139,12 @@
         <v>43930</v>
       </c>
       <c r="AD39">
-        <f>Table2[[#This Row],[Chile]]/B40</f>
-        <v>0.91862790339947697</v>
+        <f>Table2[[#This Row],[Chile]]/B38</f>
+        <v>1.0768121168409666</v>
       </c>
       <c r="AE39">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD38)/AB39</f>
-        <v>4.8613026752483857E-2</v>
+        <v>5.6864793577210727E-2</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
@@ -5122,12 +5165,12 @@
         <v>43931</v>
       </c>
       <c r="AD40">
-        <f>Table2[[#This Row],[Chile]]/B41</f>
-        <v>0.93850151580770902</v>
+        <f>Table2[[#This Row],[Chile]]/B39</f>
+        <v>1.0885800401875418</v>
       </c>
       <c r="AE40">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD39)/AB40</f>
-        <v>4.7618703056594512E-2</v>
+        <v>5.5522875821243801E-2</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
@@ -5148,12 +5191,12 @@
         <v>43932</v>
       </c>
       <c r="AD41">
-        <f>Table2[[#This Row],[Chile]]/B42</f>
-        <v>0.96034936919450986</v>
+        <f>Table2[[#This Row],[Chile]]/B40</f>
+        <v>1.0655283802491924</v>
       </c>
       <c r="AE41">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD40)/AB41</f>
-        <v>4.7471272125055475E-2</v>
+        <v>5.3852710510918354E-2</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
@@ -5178,12 +5221,12 @@
         <v>43933</v>
       </c>
       <c r="AD42">
-        <f>Table2[[#This Row],[Chile]]/B43</f>
-        <v>0.95853820598006645</v>
+        <f>Table2[[#This Row],[Chile]]/B41</f>
+        <v>1.0412877147394255</v>
       </c>
       <c r="AE42">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD41)/AB42</f>
-        <v>4.6802135979867709E-2</v>
+        <v>5.1385758414356539E-2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
@@ -5208,12 +5251,12 @@
         <v>43934</v>
       </c>
       <c r="AD43">
-        <f>Table2[[#This Row],[Chile]]/B44</f>
-        <v>0.95048629531388151</v>
+        <f>Table2[[#This Row],[Chile]]/B42</f>
+        <v>1.0432552336059893</v>
       </c>
       <c r="AE43">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD42)/AB43</f>
-        <v>4.5452964316522571E-2</v>
+        <v>4.9631974960605105E-2</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
@@ -5238,8 +5281,12 @@
         <v>43935</v>
       </c>
       <c r="AD44">
-        <f>Table2[[#This Row],[Chile]]/B45</f>
-        <v>0.95696845158950805</v>
+        <f>Table2[[#This Row],[Chile]]/B43</f>
+        <v>1.0520930232558139</v>
+      </c>
+      <c r="AE44">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD43)/AB44</f>
+        <v>4.8729029229344266E-2</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -5263,53 +5310,166 @@
       <c r="AC45" s="9">
         <v>43936</v>
       </c>
+      <c r="AD45">
+        <f>Table2[[#This Row],[Chile]]/B44</f>
+        <v>1.0449665277251483</v>
+      </c>
+      <c r="AE45">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD44)/AB45</f>
+        <v>4.7660444340476407E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43937</v>
       </c>
+      <c r="B46">
+        <v>8807</v>
+      </c>
+      <c r="C46">
+        <f>Table2[[#This Row],[Chile]]/B45</f>
+        <v>1.064547322615738</v>
+      </c>
       <c r="Q46" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P45</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AB46">
+        <v>44</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>43937</v>
+      </c>
+      <c r="AD46">
+        <f>Table2[[#This Row],[Chile]]/B45</f>
+        <v>1.064547322615738</v>
+      </c>
+      <c r="AE46">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD45)/AB46</f>
+        <v>4.7943496598656508E-2</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43938</v>
       </c>
+      <c r="B47">
+        <v>9252</v>
+      </c>
+      <c r="C47">
+        <f>Table2[[#This Row],[Chile]]/B46</f>
+        <v>1.0505279890995798</v>
+      </c>
       <c r="Q47" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P46</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AB47">
+        <v>44</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>43938</v>
+      </c>
+      <c r="AD47">
+        <f>Table2[[#This Row],[Chile]]/B46</f>
+        <v>1.0505279890995798</v>
+      </c>
+      <c r="AE47">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD46)/AB47</f>
+        <v>4.8069893448075399E-2</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43939</v>
       </c>
+      <c r="B48">
+        <v>9730</v>
+      </c>
+      <c r="C48">
+        <f>Table2[[#This Row],[Chile]]/B47</f>
+        <v>1.051664504971898</v>
+      </c>
       <c r="Q48" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P47</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB48">
+        <v>44</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>43939</v>
+      </c>
+      <c r="AD48">
+        <f>Table2[[#This Row],[Chile]]/B47</f>
+        <v>1.051664504971898</v>
+      </c>
+      <c r="AE48">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD47)/AB48</f>
+        <v>4.777710213798813E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43940</v>
       </c>
+      <c r="B49">
+        <v>10088</v>
+      </c>
+      <c r="C49">
+        <f>Table2[[#This Row],[Chile]]/B48</f>
+        <v>1.0367934224049331</v>
+      </c>
       <c r="Q49" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P48</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB49">
+        <v>44</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>43940</v>
+      </c>
+      <c r="AD49">
+        <f>Table2[[#This Row],[Chile]]/B48</f>
+        <v>1.0367934224049331</v>
+      </c>
+      <c r="AE49">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD48)/AB49</f>
+        <v>4.7464952894927984E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43941</v>
       </c>
+      <c r="B50">
+        <v>10507</v>
+      </c>
+      <c r="C50">
+        <f>Table2[[#This Row],[Chile]]/B49</f>
+        <v>1.0415344964314037</v>
+      </c>
       <c r="Q50" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P49</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB50">
+        <v>44</v>
+      </c>
+      <c r="AC50" s="9">
+        <v>43941</v>
+      </c>
+      <c r="AD50">
+        <f>Table2[[#This Row],[Chile]]/B49</f>
+        <v>1.0415344964314037</v>
+      </c>
+      <c r="AE50">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD49)/AB50</f>
+        <v>4.7234725428098562E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43942</v>
       </c>
@@ -5317,8 +5477,14 @@
         <f>Table2[[#This Row],[Iran]]/P50</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB51">
+        <v>44</v>
+      </c>
+      <c r="AC51" s="9">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43943</v>
       </c>
@@ -5326,8 +5492,14 @@
         <f>Table2[[#This Row],[Iran]]/P51</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB52">
+        <v>44</v>
+      </c>
+      <c r="AC52" s="9">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43944</v>
       </c>
@@ -5335,8 +5507,14 @@
         <f>Table2[[#This Row],[Iran]]/P52</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB53">
+        <v>44</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43945</v>
       </c>
@@ -5344,8 +5522,14 @@
         <f>Table2[[#This Row],[Iran]]/P53</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB54">
+        <v>44</v>
+      </c>
+      <c r="AC54" s="9">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43946</v>
       </c>
@@ -5353,8 +5537,14 @@
         <f>Table2[[#This Row],[Iran]]/P54</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB55">
+        <v>44</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43947</v>
       </c>
@@ -5362,8 +5552,14 @@
         <f>Table2[[#This Row],[Iran]]/P55</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB56">
+        <v>44</v>
+      </c>
+      <c r="AC56" s="9">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43948</v>
       </c>
@@ -5372,7 +5568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43949</v>
       </c>
@@ -5381,7 +5577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43950</v>
       </c>
@@ -5390,7 +5586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43951</v>
       </c>
@@ -5399,7 +5595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43952</v>
       </c>
@@ -5408,7 +5604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43953</v>
       </c>
@@ -5417,7 +5613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43954</v>
       </c>
@@ -5426,7 +5622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43955</v>
       </c>
@@ -6362,7 +6558,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C45">
+  <conditionalFormatting sqref="C2:C50">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -6473,7 +6669,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C45</xm:sqref>
+          <xm:sqref>C2:C50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6485,8 +6681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5A09CD-83BA-1541-AD16-00A056865BAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05567DA7-72CA-8B4A-92E4-C0BD94874EB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Fecha</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Dias</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
@@ -562,8 +565,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.766687303818028E-2"/>
-          <c:y val="3.0422285881454292E-2"/>
+          <c:x val="2.242809182604575E-2"/>
+          <c:y val="3.0422314130951731E-2"/>
           <c:w val="0.96073458849390114"/>
           <c:h val="0.93497565767981561"/>
         </c:manualLayout>
@@ -598,10 +601,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$51</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -748,6 +751,24 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.0415344964314037</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0309317597791947</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0428360413589366</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0456798866855523</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0418218760582458</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0448561677230619</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0367864364597916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,10 +805,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$51</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -921,19 +942,37 @@
                   <c:v>4.7660444340476407E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.7943496598656508E-2</c:v>
+                  <c:v>4.6878085563130806E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.8069893448075399E-2</c:v>
+                  <c:v>4.5979898080767773E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.777710213798813E-2</c:v>
+                  <c:v>4.4727499873861223E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.7464952894927984E-2</c:v>
+                  <c:v>4.3509540153683988E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7234725428098562E-2</c:v>
+                  <c:v>4.2414855486455849E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.1449325124211969E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.066211374780649E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0163767847009403E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.938682571214714E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8642185995950137E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7848047348779154E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,6 +980,210 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E431-AA49-B92D-7186E11C4058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Contagios Chile e Internacional'!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diferencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Contagios Chile e Internacional'!$AF$2:$AF$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79861111111111116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11583333333333323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4761904761904772E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10191713048855905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2132153560725008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5562868504044924E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6853564168142265E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9880295632446263E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2089170034753275E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3101924550647385E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.2692454324173725E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1829340058848253E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0030281285878293E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5069919826511022E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.6658051461683513E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.389395438822107E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8799551288826922E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4599637699067087E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4198023929709461E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2434810465223332E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3294073771053578E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2039613513793622E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0364846611752307E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6040218930309295E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5071937162036724E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8752434009375882E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8649118620938394E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2294509587371947E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5351314218760995E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3940740719182729E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6568657146591734E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8820433216239921E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0405028230807351E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4140405406291301E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1504231623306466E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.341917755966926E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6701653103254471E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4669520965618155E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7537834537514341E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0294573126083882E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0685848888678587E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.8235877734560144E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.9818748236303314E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2523982069065492E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2179597201772349E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0946846672281393E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6553036224387989E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.8721137640547917E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9834590079708696E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.7694213486226293E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.4463971619700281E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.9413864717098326E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7848047348779154E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E20E-1942-8690-051646AF65DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1667,16 +1910,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>1481176</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>86537</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1239741</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>456611</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>150037</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>170614</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>176335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2078,11 +2321,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AE51" totalsRowShown="0">
-  <autoFilter ref="AD1:AE51" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AF66" totalsRowShown="0">
+  <autoFilter ref="AD1:AF66" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5A9F5AD8-690E-4140-8022-0C29EB08B63F}" name="Factor diario CL"/>
     <tableColumn id="2" xr3:uid="{FF114CD2-95B8-424E-9607-35812A20EC3A}" name="Factor prom diario CL"/>
+    <tableColumn id="3" xr3:uid="{8EBD33B2-529F-2B4E-8D75-A3521B788CB0}" name="Diferencia"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2402,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
-  <dimension ref="A1:AE156"/>
+  <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="86" workbookViewId="0">
-      <selection activeCell="AE46" sqref="AE46:AE50"/>
+    <sheetView tabSelected="1" topLeftCell="X29" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2437,9 +2681,10 @@
     <col min="27" max="28" width="14" customWidth="1"/>
     <col min="30" max="30" width="16.1640625" customWidth="1"/>
     <col min="31" max="31" width="19.6640625" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2530,8 +2775,11 @@
       <c r="AE1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43893</v>
       </c>
@@ -2591,11 +2839,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
-        <v>59.557494176066598</v>
+        <v>65.800406344131389</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
@@ -2637,8 +2885,12 @@
       <c r="AE2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43894</v>
       </c>
@@ -2712,8 +2964,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD2)/AB3</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE4</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -2814,8 +3070,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD3)/AB4</f>
         <v>1.4444444444444444</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE5</f>
+        <v>0.79861111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -2880,7 +3140,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.2154590648176857</v>
+        <v>1.1963710244387524</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -2924,8 +3184,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD4)/AB5</f>
         <v>0.64583333333333326</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE6</f>
+        <v>0.11583333333333323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -2999,8 +3263,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD5)/AB6</f>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE7</f>
+        <v>3.4761904761904772E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43898</v>
       </c>
@@ -3074,8 +3342,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD6)/AB7</f>
         <v>0.49523809523809526</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE8</f>
+        <v>0.10191713048855905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43899</v>
       </c>
@@ -3149,8 +3421,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD7)/AB8</f>
         <v>0.39332096474953621</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE9</f>
+        <v>8.2132153560725008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43900</v>
       </c>
@@ -3224,8 +3500,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD8)/AB9</f>
         <v>0.3111888111888112</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE10</f>
+        <v>1.5562868504044924E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43901</v>
       </c>
@@ -3302,8 +3582,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD9)/AB10</f>
         <v>0.29562594268476627</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE11</f>
+        <v>1.6853564168142265E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43902</v>
       </c>
@@ -3377,8 +3661,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD10)/AB11</f>
         <v>0.27877237851662401</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE12</f>
+        <v>2.9880295632446263E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -3452,8 +3740,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD11)/AB12</f>
         <v>0.24889208288417775</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE13</f>
+        <v>2.2089170034753275E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43904</v>
       </c>
@@ -3527,8 +3819,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD12)/AB13</f>
         <v>0.22680291284942447</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE14</f>
+        <v>2.3101924550647385E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43905</v>
       </c>
@@ -3602,8 +3898,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD13)/AB14</f>
         <v>0.20370098829877709</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE15</f>
+        <v>-3.2692454324173725E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43906</v>
       </c>
@@ -3677,8 +3977,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD14)/AB15</f>
         <v>0.23639344262295081</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE16</f>
+        <v>1.1829340058848253E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43907</v>
       </c>
@@ -3752,8 +4056,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD15)/AB16</f>
         <v>0.22456410256410256</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE17</f>
+        <v>7.0030281285878293E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43908</v>
       </c>
@@ -3827,8 +4135,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD16)/AB17</f>
         <v>0.15453382127822426</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE18</f>
+        <v>2.5069919826511022E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43909</v>
       </c>
@@ -3902,8 +4214,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD17)/AB18</f>
         <v>0.12946390145171324</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE19</f>
+        <v>-2.6658051461683513E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43910</v>
       </c>
@@ -3977,8 +4293,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD18)/AB19</f>
         <v>0.15612195291339676</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE20</f>
+        <v>-3.389395438822107E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43911</v>
       </c>
@@ -4052,8 +4372,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD19)/AB20</f>
         <v>0.15951134835221886</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE21</f>
+        <v>3.8799551288826922E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43912</v>
       </c>
@@ -4127,8 +4451,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD20)/AB21</f>
         <v>0.12071179706339194</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE22</f>
+        <v>8.4599637699067087E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43913</v>
       </c>
@@ -4202,8 +4530,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD21)/AB22</f>
         <v>0.11225183329348523</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF22">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE23</f>
+        <v>2.4198023929709461E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43914</v>
       </c>
@@ -4277,8 +4609,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD22)/AB23</f>
         <v>0.10983203090051429</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF23">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE24</f>
+        <v>2.2434810465223332E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43915</v>
       </c>
@@ -4352,8 +4688,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD23)/AB24</f>
         <v>0.10758854985399195</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE25</f>
+        <v>8.3294073771053578E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43916</v>
       </c>
@@ -4427,8 +4767,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD24)/AB25</f>
         <v>9.9259142476886594E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF25">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE26</f>
+        <v>4.2039613513793622E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43917</v>
       </c>
@@ -4502,8 +4846,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD25)/AB26</f>
         <v>9.5055181125507232E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF26">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE27</f>
+        <v>2.0364846611752307E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43918</v>
       </c>
@@ -4577,8 +4925,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD26)/AB27</f>
         <v>9.3018696464332001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE28</f>
+        <v>7.6040218930309295E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43919</v>
       </c>
@@ -4652,8 +5004,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD27)/AB28</f>
         <v>8.5414674571301072E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF28">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE29</f>
+        <v>4.5071937162036724E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43920</v>
       </c>
@@ -4727,8 +5083,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD28)/AB29</f>
         <v>8.09074808550974E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF29">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE30</f>
+        <v>2.8752434009375882E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
@@ -4802,8 +5162,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD29)/AB30</f>
         <v>7.8032237454159811E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE31</f>
+        <v>3.8649118620938394E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43922</v>
       </c>
@@ -4877,8 +5241,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD30)/AB31</f>
         <v>7.4167325592065972E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF31">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE32</f>
+        <v>2.2294509587371947E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43923</v>
       </c>
@@ -4952,8 +5320,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD31)/AB32</f>
         <v>7.1937874633328777E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF32">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE33</f>
+        <v>2.5351314218760995E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43924</v>
       </c>
@@ -4982,8 +5354,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD32)/AB33</f>
         <v>6.9402743211452678E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE34</f>
+        <v>2.3940740719182729E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43925</v>
       </c>
@@ -5008,8 +5384,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD33)/AB34</f>
         <v>6.7008669139534405E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF34">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE35</f>
+        <v>2.6568657146591734E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43926</v>
       </c>
@@ -5038,8 +5418,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD34)/AB35</f>
         <v>6.4351803424875231E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF35">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE36</f>
+        <v>2.8820433216239921E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43927</v>
       </c>
@@ -5064,8 +5448,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD35)/AB36</f>
         <v>6.1469760103251239E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF36">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE37</f>
+        <v>2.0405028230807351E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43928</v>
       </c>
@@ -5094,8 +5482,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD36)/AB37</f>
         <v>5.9429257280170504E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE38</f>
+        <v>1.4140405406291301E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43929</v>
       </c>
@@ -5120,8 +5512,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD37)/AB38</f>
         <v>5.8015216739541374E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE39</f>
+        <v>1.1504231623306466E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43930</v>
       </c>
@@ -5146,8 +5542,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD38)/AB39</f>
         <v>5.6864793577210727E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE40</f>
+        <v>1.341917755966926E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43931</v>
       </c>
@@ -5172,8 +5572,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD39)/AB40</f>
         <v>5.5522875821243801E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF40">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE41</f>
+        <v>1.6701653103254471E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43932</v>
       </c>
@@ -5198,8 +5602,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD40)/AB41</f>
         <v>5.3852710510918354E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE42</f>
+        <v>2.4669520965618155E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43933</v>
       </c>
@@ -5228,8 +5636,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD41)/AB42</f>
         <v>5.1385758414356539E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF42">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE43</f>
+        <v>1.7537834537514341E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43934</v>
       </c>
@@ -5258,8 +5670,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD42)/AB43</f>
         <v>4.9631974960605105E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF43">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE44</f>
+        <v>9.0294573126083882E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43935</v>
       </c>
@@ -5288,8 +5704,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD43)/AB44</f>
         <v>4.8729029229344266E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF44">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE45</f>
+        <v>1.0685848888678587E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43936</v>
       </c>
@@ -5307,7 +5727,7 @@
       <c r="AB45">
         <v>44</v>
       </c>
-      <c r="AC45" s="9">
+      <c r="AC45" s="8">
         <v>43936</v>
       </c>
       <c r="AD45">
@@ -5318,8 +5738,12 @@
         <f>(Table3[[#This Row],[Factor diario CL]]+AD44)/AB45</f>
         <v>4.7660444340476407E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF45">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE46</f>
+        <v>7.8235877734560144E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43937</v>
       </c>
@@ -5335,9 +5759,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB46">
-        <v>44</v>
-      </c>
-      <c r="AC46" s="9">
+        <v>45</v>
+      </c>
+      <c r="AC46" s="8">
         <v>43937</v>
       </c>
       <c r="AD46">
@@ -5346,10 +5770,14 @@
       </c>
       <c r="AE46">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD45)/AB46</f>
-        <v>4.7943496598656508E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+        <v>4.6878085563130806E-2</v>
+      </c>
+      <c r="AF46">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE47</f>
+        <v>8.9818748236303314E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43938</v>
       </c>
@@ -5365,9 +5793,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB47">
-        <v>44</v>
-      </c>
-      <c r="AC47" s="9">
+        <v>46</v>
+      </c>
+      <c r="AC47" s="8">
         <v>43938</v>
       </c>
       <c r="AD47">
@@ -5376,10 +5804,14 @@
       </c>
       <c r="AE47">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD46)/AB47</f>
-        <v>4.8069893448075399E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+        <v>4.5979898080767773E-2</v>
+      </c>
+      <c r="AF47">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE48</f>
+        <v>1.2523982069065492E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43939</v>
       </c>
@@ -5395,9 +5827,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB48">
-        <v>44</v>
-      </c>
-      <c r="AC48" s="9">
+        <v>47</v>
+      </c>
+      <c r="AC48" s="8">
         <v>43939</v>
       </c>
       <c r="AD48">
@@ -5406,10 +5838,14 @@
       </c>
       <c r="AE48">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD47)/AB48</f>
-        <v>4.777710213798813E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+        <v>4.4727499873861223E-2</v>
+      </c>
+      <c r="AF48">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE49</f>
+        <v>1.2179597201772349E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43940</v>
       </c>
@@ -5425,9 +5861,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB49">
-        <v>44</v>
-      </c>
-      <c r="AC49" s="9">
+        <v>48</v>
+      </c>
+      <c r="AC49" s="8">
         <v>43940</v>
       </c>
       <c r="AD49">
@@ -5436,10 +5872,14 @@
       </c>
       <c r="AE49">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD48)/AB49</f>
-        <v>4.7464952894927984E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+        <v>4.3509540153683988E-2</v>
+      </c>
+      <c r="AF49">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE50</f>
+        <v>1.0946846672281393E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43941</v>
       </c>
@@ -5455,9 +5895,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB50">
-        <v>44</v>
-      </c>
-      <c r="AC50" s="9">
+        <v>49</v>
+      </c>
+      <c r="AC50" s="8">
         <v>43941</v>
       </c>
       <c r="AD50">
@@ -5466,100 +5906,218 @@
       </c>
       <c r="AE50">
         <f>(Table3[[#This Row],[Factor diario CL]]+AD49)/AB50</f>
-        <v>4.7234725428098562E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+        <v>4.2414855486455849E-2</v>
+      </c>
+      <c r="AF50">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE51</f>
+        <v>9.6553036224387989E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43942</v>
       </c>
+      <c r="B51">
+        <v>10832</v>
+      </c>
+      <c r="C51">
+        <f>Table2[[#This Row],[Chile]]/B50</f>
+        <v>1.0309317597791947</v>
+      </c>
       <c r="Q51" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB51">
-        <v>44</v>
-      </c>
-      <c r="AC51" s="9">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="8">
         <v>43942</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD51">
+        <f>Table2[[#This Row],[Chile]]/B50</f>
+        <v>1.0309317597791947</v>
+      </c>
+      <c r="AE51">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD50)/AB51</f>
+        <v>4.1449325124211969E-2</v>
+      </c>
+      <c r="AF51">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE52</f>
+        <v>7.8721137640547917E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43943</v>
       </c>
+      <c r="B52">
+        <v>11296</v>
+      </c>
+      <c r="C52">
+        <f>Table2[[#This Row],[Chile]]/B51</f>
+        <v>1.0428360413589366</v>
+      </c>
       <c r="Q52" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB52">
-        <v>44</v>
-      </c>
-      <c r="AC52" s="9">
+        <v>51</v>
+      </c>
+      <c r="AC52" s="8">
         <v>43943</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD52">
+        <f>Table2[[#This Row],[Chile]]/B51</f>
+        <v>1.0428360413589366</v>
+      </c>
+      <c r="AE52">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD51)/AB52</f>
+        <v>4.066211374780649E-2</v>
+      </c>
+      <c r="AF52">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE53</f>
+        <v>4.9834590079708696E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43944</v>
       </c>
+      <c r="B53">
+        <v>11812</v>
+      </c>
+      <c r="C53">
+        <f>Table2[[#This Row],[Chile]]/B52</f>
+        <v>1.0456798866855523</v>
+      </c>
       <c r="Q53" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB53">
-        <v>44</v>
-      </c>
-      <c r="AC53" s="9">
+        <v>52</v>
+      </c>
+      <c r="AC53" s="8">
         <v>43944</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD53">
+        <f>Table2[[#This Row],[Chile]]/B52</f>
+        <v>1.0456798866855523</v>
+      </c>
+      <c r="AE53">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD52)/AB53</f>
+        <v>4.0163767847009403E-2</v>
+      </c>
+      <c r="AF53">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE54</f>
+        <v>7.7694213486226293E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43945</v>
       </c>
+      <c r="B54">
+        <v>12306</v>
+      </c>
+      <c r="C54">
+        <f>Table2[[#This Row],[Chile]]/B53</f>
+        <v>1.0418218760582458</v>
+      </c>
       <c r="Q54" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB54">
-        <v>44</v>
-      </c>
-      <c r="AC54" s="9">
+        <v>53</v>
+      </c>
+      <c r="AC54" s="8">
         <v>43945</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD54">
+        <f>Table2[[#This Row],[Chile]]/B53</f>
+        <v>1.0418218760582458</v>
+      </c>
+      <c r="AE54">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD53)/AB54</f>
+        <v>3.938682571214714E-2</v>
+      </c>
+      <c r="AF54">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE55</f>
+        <v>7.4463971619700281E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43946</v>
       </c>
+      <c r="B55">
+        <v>12858</v>
+      </c>
+      <c r="C55">
+        <f>Table2[[#This Row],[Chile]]/B54</f>
+        <v>1.0448561677230619</v>
+      </c>
       <c r="Q55" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB55">
-        <v>44</v>
-      </c>
-      <c r="AC55" s="9">
+        <v>54</v>
+      </c>
+      <c r="AC55" s="8">
         <v>43946</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD55">
+        <f>Table2[[#This Row],[Chile]]/B54</f>
+        <v>1.0448561677230619</v>
+      </c>
+      <c r="AE55">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD54)/AB55</f>
+        <v>3.8642185995950137E-2</v>
+      </c>
+      <c r="AF55">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE56</f>
+        <v>7.9413864717098326E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43947</v>
       </c>
+      <c r="B56">
+        <v>13331</v>
+      </c>
+      <c r="C56">
+        <f>Table2[[#This Row],[Chile]]/B55</f>
+        <v>1.0367864364597916</v>
+      </c>
       <c r="Q56" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB56">
-        <v>44</v>
-      </c>
-      <c r="AC56" s="9">
+        <v>55</v>
+      </c>
+      <c r="AC56" s="8">
         <v>43947</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD56">
+        <f>Table2[[#This Row],[Chile]]/B55</f>
+        <v>1.0367864364597916</v>
+      </c>
+      <c r="AE56">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD55)/AB56</f>
+        <v>3.7848047348779154E-2</v>
+      </c>
+      <c r="AF56">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE57</f>
+        <v>3.7848047348779154E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43948</v>
       </c>
@@ -5567,8 +6125,14 @@
         <f>Table2[[#This Row],[Iran]]/P56</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB57">
+        <v>56</v>
+      </c>
+      <c r="AC57" s="8">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43949</v>
       </c>
@@ -5576,8 +6140,14 @@
         <f>Table2[[#This Row],[Iran]]/P57</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB58">
+        <v>57</v>
+      </c>
+      <c r="AC58" s="8">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43950</v>
       </c>
@@ -5585,8 +6155,14 @@
         <f>Table2[[#This Row],[Iran]]/P58</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB59">
+        <v>58</v>
+      </c>
+      <c r="AC59" s="8">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43951</v>
       </c>
@@ -5594,8 +6170,14 @@
         <f>Table2[[#This Row],[Iran]]/P59</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB60">
+        <v>59</v>
+      </c>
+      <c r="AC60" s="8">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43952</v>
       </c>
@@ -5603,8 +6185,14 @@
         <f>Table2[[#This Row],[Iran]]/P60</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB61">
+        <v>60</v>
+      </c>
+      <c r="AC61" s="8">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43953</v>
       </c>
@@ -5612,8 +6200,14 @@
         <f>Table2[[#This Row],[Iran]]/P61</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB62">
+        <v>61</v>
+      </c>
+      <c r="AC62" s="8">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43954</v>
       </c>
@@ -5621,8 +6215,14 @@
         <f>Table2[[#This Row],[Iran]]/P62</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB63">
+        <v>62</v>
+      </c>
+      <c r="AC63" s="8">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43955</v>
       </c>
@@ -5630,8 +6230,14 @@
         <f>Table2[[#This Row],[Iran]]/P63</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB64">
+        <v>63</v>
+      </c>
+      <c r="AC64" s="8">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43956</v>
       </c>
@@ -5639,8 +6245,14 @@
         <f>Table2[[#This Row],[Iran]]/P64</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB65">
+        <v>64</v>
+      </c>
+      <c r="AC65" s="8">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43957</v>
       </c>
@@ -5648,8 +6260,14 @@
         <f>Table2[[#This Row],[Iran]]/P65</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="AB66">
+        <v>65</v>
+      </c>
+      <c r="AC66" s="8">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43958</v>
       </c>
@@ -5658,7 +6276,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43959</v>
       </c>
@@ -5667,7 +6285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43960</v>
       </c>
@@ -5676,7 +6294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43961</v>
       </c>
@@ -5685,7 +6303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43962</v>
       </c>
@@ -5694,7 +6312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43963</v>
       </c>
@@ -5703,7 +6321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43964</v>
       </c>
@@ -5712,7 +6330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43965</v>
       </c>
@@ -5721,7 +6339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43966</v>
       </c>
@@ -5730,7 +6348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43967</v>
       </c>
@@ -5739,7 +6357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43968</v>
       </c>
@@ -5748,7 +6366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43969</v>
       </c>
@@ -5757,7 +6375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43970</v>
       </c>
@@ -5766,7 +6384,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43971</v>
       </c>
@@ -6558,7 +7176,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C50">
+  <conditionalFormatting sqref="C2:C56">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -6669,7 +7287,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C50</xm:sqref>
+          <xm:sqref>C2:C56</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6716,13 +7334,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D2" s="10">
-        <v>1.4500000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -6733,13 +7351,13 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D3" s="10">
-        <v>7.9000000000000008E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -6750,13 +7368,13 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="D4" s="10">
-        <v>2.2800000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -6773,7 +7391,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="10">
-        <v>1.4E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -6784,13 +7402,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10">
-        <v>7.3000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -6801,16 +7419,16 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="D7" s="10">
-        <v>3.73E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6818,16 +7436,16 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="C8" s="11">
-        <v>4915</v>
+        <v>5643</v>
       </c>
       <c r="D8" s="10">
-        <v>0.53120000000000001</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="E8" s="2">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6838,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10">
-        <v>5.8999999999999999E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -6852,16 +7470,16 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="D10" s="10">
-        <v>2.41E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6869,16 +7487,16 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="D11" s="10">
-        <v>7.0900000000000005E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6886,13 +7504,13 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="D12" s="10">
-        <v>6.25E-2</v>
+        <v>5.96E-2</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -6903,16 +7521,16 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>907</v>
+        <v>73</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1045</v>
       </c>
       <c r="D13" s="10">
-        <v>9.8000000000000004E-2</v>
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6920,13 +7538,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D14" s="10">
-        <v>1.66E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
@@ -6937,13 +7555,13 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D15" s="10">
-        <v>4.4499999999999998E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="E15" s="2">
         <v>6</v>
@@ -6960,7 +7578,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="10">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -6971,13 +7589,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="D17" s="10">
-        <v>5.4199999999999998E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="E17" s="2">
         <v>6</v>
@@ -6989,19 +7607,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>9252</v>
+        <v>10507</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>0.99990000000000001</v>
+        <v>1.0001</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05567DA7-72CA-8B4A-92E4-C0BD94874EB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018761F7-CE99-4E4C-902D-DAC0521B6D0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X29" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" activeCellId="1" sqref="S6 T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2839,11 +2839,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
-        <v>65.800406344131389</v>
+        <v>68.930127531883784</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.1963710244387524</v>
+        <v>1.1884504746876514</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -6121,6 +6121,13 @@
       <c r="A57" s="1">
         <v>43948</v>
       </c>
+      <c r="B57">
+        <v>13813</v>
+      </c>
+      <c r="C57">
+        <f>Table2[[#This Row],[Chile]]/B56</f>
+        <v>1.0361563273572876</v>
+      </c>
       <c r="Q57" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P56</f>
         <v>#DIV/0!</v>
@@ -6136,6 +6143,13 @@
       <c r="A58" s="1">
         <v>43949</v>
       </c>
+      <c r="B58">
+        <v>14365</v>
+      </c>
+      <c r="C58">
+        <f>Table2[[#This Row],[Chile]]/B57</f>
+        <v>1.0399623543039167</v>
+      </c>
       <c r="Q58" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P57</f>
         <v>#DIV/0!</v>
@@ -6150,6 +6164,13 @@
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43950</v>
+      </c>
+      <c r="B59">
+        <v>15135</v>
+      </c>
+      <c r="C59">
+        <f>Table2[[#This Row],[Chile]]/B58</f>
+        <v>1.0536025060911938</v>
       </c>
       <c r="Q59" s="6" t="e">
         <f>Table2[[#This Row],[Iran]]/P58</f>
@@ -7176,7 +7197,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C56">
+  <conditionalFormatting sqref="C2:C59">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -7287,7 +7308,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C56</xm:sqref>
+          <xm:sqref>C2:C59</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7300,7 +7321,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7334,16 +7355,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="D2" s="10">
-        <v>1.5299999999999999E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7351,16 +7372,16 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D3" s="10">
-        <v>8.8999999999999999E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7368,16 +7389,16 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
-        <v>263</v>
+        <v>443</v>
       </c>
       <c r="D4" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7385,13 +7406,13 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10">
-        <v>1.1999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -7402,13 +7423,13 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10">
-        <v>6.6E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -7419,16 +7440,16 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="D7" s="10">
-        <v>3.6900000000000002E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7436,16 +7457,16 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C8" s="11">
-        <v>5643</v>
+        <v>7496</v>
       </c>
       <c r="D8" s="10">
-        <v>0.53710000000000002</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="E8" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7453,16 +7474,16 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>92</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>56</v>
-      </c>
-      <c r="D9" s="10">
-        <v>5.3E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -7470,16 +7491,16 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="D10" s="10">
-        <v>2.8899999999999999E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -7487,16 +7508,16 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="D11" s="10">
-        <v>6.54E-2</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -7504,16 +7525,16 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="D12" s="10">
-        <v>5.96E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7521,16 +7542,16 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11">
-        <v>1045</v>
+        <v>1216</v>
       </c>
       <c r="D13" s="10">
-        <v>9.9500000000000005E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7538,13 +7559,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D14" s="10">
-        <v>1.54E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
@@ -7555,16 +7576,16 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="D15" s="10">
-        <v>4.0399999999999998E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7578,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="10">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -7592,13 +7613,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>566</v>
+        <v>668</v>
       </c>
       <c r="D17" s="10">
-        <v>5.3900000000000003E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7607,19 +7628,19 @@
       </c>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>10507</v>
+        <v>13331</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D2:D17)</f>
-        <v>1.0001</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="E18" s="4">
         <f>SUM(E2:E17)</f>
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -5,20 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/django-matplotlib-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018761F7-CE99-4E4C-902D-DAC0521B6D0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2585D-8ED6-104F-B5BE-885338FD62E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
     <sheet name="Contagios por Región" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Slicer_Casos_totales">#N/A</definedName>
-    <definedName name="Slicer_Fallecidos">#N/A</definedName>
     <definedName name="Slicer_Región">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,8 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
         <x14:slicerCache r:id="rId3"/>
-        <x14:slicerCache r:id="rId4"/>
-        <x14:slicerCache r:id="rId5"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Fecha</t>
   </si>
@@ -154,9 +150,6 @@
     <t>Casos nuevos</t>
   </si>
   <si>
-    <t>Casos totales</t>
-  </si>
-  <si>
     <t>% Casos totales</t>
   </si>
   <si>
@@ -227,6 +220,18 @@
   </si>
   <si>
     <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Casos Totales</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>Casos nuevos s/s</t>
   </si>
 </sst>
 </file>
@@ -321,25 +326,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -385,7 +470,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -417,7 +506,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -449,7 +542,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -468,34 +565,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -770,6 +839,18 @@
                 <c:pt idx="54">
                   <c:v>1.0367864364597916</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0361563273572876</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0399623543039167</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0536025060911938</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0586719524281467</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -974,6 +1055,18 @@
                 <c:pt idx="54">
                   <c:v>3.7848047348779154E-2</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7016835068162127E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6423134765986034E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.6095945868881214E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.5801262008802383E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1176,7 +1269,19 @@
                   <c:v>7.9413864717098326E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.7848047348779154E-2</c:v>
+                  <c:v>8.3121228061702745E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.9370030217609226E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2718889710482008E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9468386007883152E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.5801262008802383E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,18 +2057,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Región">
@@ -1986,7 +2091,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1996,164 +2101,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5664200" y="63500"/>
+              <a:off x="6032500" y="3784600"/>
               <a:ext cx="1828800" cy="4889500"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Casos totales">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749C4DBC-AFD7-E341-BAFC-435CB7A24720}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Casos totales"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7594600" y="63500"/>
-              <a:ext cx="1828800" cy="4876800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>41272</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Fallecidos">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5886EA43-672D-4A41-965E-312F6E4F798A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fallecidos"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9512300" y="63500"/>
-              <a:ext cx="1828800" cy="2619372"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2196,31 +2145,9 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Casos_totales" xr10:uid="{F8C0715B-C4E5-D94C-A3D8-EE8461BB8019}" sourceName="Casos totales">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="6" column="3"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Fallecidos" xr10:uid="{89E30865-029C-4A44-AD0D-2F897819C96D}" sourceName="Fallecidos">
-  <extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="6" column="5"/>
-    </x:ext>
-  </extLst>
-</slicerCacheDefinition>
-</file>
-
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Región" xr10:uid="{74E303C4-AB3C-AB48-AAD2-89BF8540CA0E}" cache="Slicer_Región" caption="Región" rowHeight="251883"/>
-  <slicer name="Casos totales" xr10:uid="{D2535F27-6E74-5548-B938-B67360975736}" cache="Slicer_Casos_totales" caption="Casos totales" rowHeight="251883"/>
-  <slicer name="Fallecidos" xr10:uid="{9CE82F8E-F641-4349-90DE-90F8089BFDA0}" cache="Slicer_Fallecidos" caption="Fallecidos" rowHeight="251883"/>
 </slicers>
 </file>
 
@@ -2228,7 +2155,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q156" totalsRowShown="0">
   <autoFilter ref="A1:Q156" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{0837C794-F666-B34B-9F53-81CDEF195346}" name="Chile"/>
     <tableColumn id="9" xr3:uid="{1C8C696A-D842-F840-A113-B0B229447965}" name="Factor_Chile"/>
     <tableColumn id="8" xr3:uid="{24535E00-FA18-F545-ACA8-B3EF181A245C}" name="China"/>
@@ -2244,7 +2171,7 @@
     <tableColumn id="5" xr3:uid="{72FC4B17-138C-E746-A917-30D9765838BD}" name="Francia"/>
     <tableColumn id="12" xr3:uid="{211C715B-ED66-6848-A8C2-0961A29503BF}" name="Factor_Francia"/>
     <tableColumn id="18" xr3:uid="{87E31AB1-B9FD-F441-9467-9014F187CF98}" name="Iran"/>
-    <tableColumn id="19" xr3:uid="{44542949-D1F6-A643-9593-F202672622E8}" name="Factor_Iran" dataDxfId="12">
+    <tableColumn id="19" xr3:uid="{44542949-D1F6-A643-9593-F202672622E8}" name="Factor_Iran" dataDxfId="16">
       <calculatedColumnFormula>Table2[[#This Row],[Iran]]/P1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2333,17 +2260,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:E17" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:E17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
-  <sortState ref="A2:E17">
-    <sortCondition ref="C1:C17"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DBB57A55-2D94-DB4D-AC23-9436C9AE3239}" name="Casos totales" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{822037A6-616F-9446-A664-26B6A4349902}" name="Fallecidos" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:G17" headerRowDxfId="15" dataDxfId="0">
+  <autoFilter ref="A1:G17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C96A0159-4EC2-A14F-A6FC-06CD8DA0A44C}" name="Casos Totales" dataDxfId="6" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="5" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{8F388594-5801-A642-BC17-2676835D3A6F}" name="Column2" dataDxfId="4" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{2B84CF96-CD69-CD40-8741-E0C2C261D390}" name="Casos nuevos s/s" dataDxfId="3" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{78885A86-74FD-6042-8DD6-0C71FA197ACC}" name="Fallecidos" dataDxfId="2" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="1" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2648,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" activeCellId="1" sqref="S6 T5"/>
+    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2764,19 +2690,19 @@
         <v>24</v>
       </c>
       <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" t="s">
         <v>60</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -2839,11 +2765,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
-        <v>68.930127531883784</v>
+        <v>74.250627531233619</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
@@ -2876,7 +2802,7 @@
       <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <v>43893</v>
       </c>
       <c r="AD2">
@@ -2953,7 +2879,7 @@
       <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="8">
         <v>43894</v>
       </c>
       <c r="AD3">
@@ -3059,7 +2985,7 @@
       <c r="AB4">
         <v>3</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>43895</v>
       </c>
       <c r="AD4">
@@ -3140,7 +3066,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.1884504746876514</v>
+        <v>1.1785813893846606</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -3173,7 +3099,7 @@
       <c r="AB5">
         <v>4</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="8">
         <v>43896</v>
       </c>
       <c r="AD5">
@@ -3252,7 +3178,7 @@
       <c r="AB6">
         <v>5</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <v>43897</v>
       </c>
       <c r="AD6">
@@ -3331,7 +3257,7 @@
       <c r="AB7">
         <v>6</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="8">
         <v>43898</v>
       </c>
       <c r="AD7">
@@ -3410,7 +3336,7 @@
       <c r="AB8">
         <v>7</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="7">
         <v>43899</v>
       </c>
       <c r="AD8">
@@ -3489,7 +3415,7 @@
       <c r="AB9">
         <v>8</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="8">
         <v>43900</v>
       </c>
       <c r="AD9">
@@ -3566,12 +3492,12 @@
         <v>1.1191245958716738</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB10">
         <v>9</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="7">
         <v>43901</v>
       </c>
       <c r="AD10">
@@ -3650,7 +3576,7 @@
       <c r="AB11">
         <v>10</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AC11" s="8">
         <v>43902</v>
       </c>
       <c r="AD11">
@@ -3729,7 +3655,7 @@
       <c r="AB12">
         <v>11</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="7">
         <v>43903</v>
       </c>
       <c r="AD12">
@@ -3808,7 +3734,7 @@
       <c r="AB13">
         <v>12</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AC13" s="8">
         <v>43904</v>
       </c>
       <c r="AD13">
@@ -3887,7 +3813,7 @@
       <c r="AB14">
         <v>13</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="7">
         <v>43905</v>
       </c>
       <c r="AD14">
@@ -3966,7 +3892,7 @@
       <c r="AB15">
         <v>14</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC15" s="8">
         <v>43906</v>
       </c>
       <c r="AD15">
@@ -4045,7 +3971,7 @@
       <c r="AB16">
         <v>15</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AC16" s="7">
         <v>43907</v>
       </c>
       <c r="AD16">
@@ -4124,7 +4050,7 @@
       <c r="AB17">
         <v>16</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="8">
         <v>43908</v>
       </c>
       <c r="AD17">
@@ -4203,7 +4129,7 @@
       <c r="AB18">
         <v>17</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AC18" s="7">
         <v>43909</v>
       </c>
       <c r="AD18">
@@ -4282,7 +4208,7 @@
       <c r="AB19">
         <v>18</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="8">
         <v>43910</v>
       </c>
       <c r="AD19">
@@ -4361,7 +4287,7 @@
       <c r="AB20">
         <v>19</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AC20" s="7">
         <v>43911</v>
       </c>
       <c r="AD20">
@@ -4440,7 +4366,7 @@
       <c r="AB21">
         <v>20</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="8">
         <v>43912</v>
       </c>
       <c r="AD21">
@@ -4519,7 +4445,7 @@
       <c r="AB22">
         <v>21</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AC22" s="7">
         <v>43913</v>
       </c>
       <c r="AD22">
@@ -4598,7 +4524,7 @@
       <c r="AB23">
         <v>22</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="8">
         <v>43914</v>
       </c>
       <c r="AD23">
@@ -4677,7 +4603,7 @@
       <c r="AB24">
         <v>23</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AC24" s="7">
         <v>43915</v>
       </c>
       <c r="AD24">
@@ -4756,7 +4682,7 @@
       <c r="AB25">
         <v>24</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="8">
         <v>43916</v>
       </c>
       <c r="AD25">
@@ -4835,7 +4761,7 @@
       <c r="AB26">
         <v>25</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AC26" s="7">
         <v>43917</v>
       </c>
       <c r="AD26">
@@ -4914,7 +4840,7 @@
       <c r="AB27">
         <v>26</v>
       </c>
-      <c r="AC27" s="9">
+      <c r="AC27" s="8">
         <v>43918</v>
       </c>
       <c r="AD27">
@@ -4993,7 +4919,7 @@
       <c r="AB28">
         <v>27</v>
       </c>
-      <c r="AC28" s="8">
+      <c r="AC28" s="7">
         <v>43919</v>
       </c>
       <c r="AD28">
@@ -5072,7 +4998,7 @@
       <c r="AB29">
         <v>28</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AC29" s="8">
         <v>43920</v>
       </c>
       <c r="AD29">
@@ -5151,7 +5077,7 @@
       <c r="AB30">
         <v>29</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AC30" s="7">
         <v>43921</v>
       </c>
       <c r="AD30">
@@ -5230,7 +5156,7 @@
       <c r="AB31">
         <v>30</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AC31" s="8">
         <v>43922</v>
       </c>
       <c r="AD31">
@@ -5309,7 +5235,7 @@
       <c r="AB32">
         <v>31</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AC32" s="7">
         <v>43923</v>
       </c>
       <c r="AD32">
@@ -5336,14 +5262,14 @@
         <f>Table2[[#This Row],[Chile]]/B32</f>
         <v>1.0978260869565217</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <f>Table2[[#This Row],[Iran]]/P32</f>
         <v>0</v>
       </c>
       <c r="AB33">
         <v>32</v>
       </c>
-      <c r="AC33" s="9">
+      <c r="AC33" s="8">
         <v>43924</v>
       </c>
       <c r="AD33">
@@ -5373,7 +5299,7 @@
       <c r="AB34">
         <v>33</v>
       </c>
-      <c r="AC34" s="8">
+      <c r="AC34" s="7">
         <v>43925</v>
       </c>
       <c r="AD34">
@@ -5400,14 +5326,14 @@
         <f>Table2[[#This Row],[Chile]]/B34</f>
         <v>1.0745013217976449</v>
       </c>
-      <c r="Q35" s="6" t="e">
+      <c r="Q35" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB35">
         <v>34</v>
       </c>
-      <c r="AC35" s="9">
+      <c r="AC35" s="8">
         <v>43926</v>
       </c>
       <c r="AD35">
@@ -5437,7 +5363,7 @@
       <c r="AB36">
         <v>35</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AC36" s="7">
         <v>43927</v>
       </c>
       <c r="AD36">
@@ -5464,14 +5390,14 @@
         <f>Table2[[#This Row],[Chile]]/B36</f>
         <v>1.0625129802699895</v>
       </c>
-      <c r="Q37" s="6" t="e">
+      <c r="Q37" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB37">
         <v>36</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AC37" s="8">
         <v>43928</v>
       </c>
       <c r="AD37">
@@ -5501,7 +5427,7 @@
       <c r="AB38">
         <v>37</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AC38" s="7">
         <v>43929</v>
       </c>
       <c r="AD38">
@@ -5531,7 +5457,7 @@
       <c r="AB39">
         <v>38</v>
       </c>
-      <c r="AC39" s="9">
+      <c r="AC39" s="8">
         <v>43930</v>
       </c>
       <c r="AD39">
@@ -5561,7 +5487,7 @@
       <c r="AB40">
         <v>39</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AC40" s="7">
         <v>43931</v>
       </c>
       <c r="AD40">
@@ -5591,7 +5517,7 @@
       <c r="AB41">
         <v>40</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AC41" s="8">
         <v>43932</v>
       </c>
       <c r="AD41">
@@ -5618,14 +5544,14 @@
         <f>Table2[[#This Row],[Chile]]/B41</f>
         <v>1.0412877147394255</v>
       </c>
-      <c r="Q42" s="6" t="e">
+      <c r="Q42" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB42">
         <v>41</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AC42" s="7">
         <v>43933</v>
       </c>
       <c r="AD42">
@@ -5652,14 +5578,14 @@
         <f>Table2[[#This Row],[Chile]]/B42</f>
         <v>1.0432552336059893</v>
       </c>
-      <c r="Q43" s="6" t="e">
+      <c r="Q43" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB43">
         <v>42</v>
       </c>
-      <c r="AC43" s="9">
+      <c r="AC43" s="8">
         <v>43934</v>
       </c>
       <c r="AD43">
@@ -5686,14 +5612,14 @@
         <f>Table2[[#This Row],[Chile]]/B43</f>
         <v>1.0520930232558139</v>
       </c>
-      <c r="Q44" s="6" t="e">
+      <c r="Q44" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB44">
         <v>43</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AC44" s="7">
         <v>43935</v>
       </c>
       <c r="AD44">
@@ -5720,14 +5646,14 @@
         <f>Table2[[#This Row],[Chile]]/B44</f>
         <v>1.0449665277251483</v>
       </c>
-      <c r="Q45" s="6" t="e">
+      <c r="Q45" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB45">
         <v>44</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AC45" s="7">
         <v>43936</v>
       </c>
       <c r="AD45">
@@ -5754,14 +5680,14 @@
         <f>Table2[[#This Row],[Chile]]/B45</f>
         <v>1.064547322615738</v>
       </c>
-      <c r="Q46" s="6" t="e">
+      <c r="Q46" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB46">
         <v>45</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AC46" s="7">
         <v>43937</v>
       </c>
       <c r="AD46">
@@ -5788,14 +5714,14 @@
         <f>Table2[[#This Row],[Chile]]/B46</f>
         <v>1.0505279890995798</v>
       </c>
-      <c r="Q47" s="6" t="e">
+      <c r="Q47" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB47">
         <v>46</v>
       </c>
-      <c r="AC47" s="8">
+      <c r="AC47" s="7">
         <v>43938</v>
       </c>
       <c r="AD47">
@@ -5822,14 +5748,14 @@
         <f>Table2[[#This Row],[Chile]]/B47</f>
         <v>1.051664504971898</v>
       </c>
-      <c r="Q48" s="6" t="e">
+      <c r="Q48" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB48">
         <v>47</v>
       </c>
-      <c r="AC48" s="8">
+      <c r="AC48" s="7">
         <v>43939</v>
       </c>
       <c r="AD48">
@@ -5856,14 +5782,14 @@
         <f>Table2[[#This Row],[Chile]]/B48</f>
         <v>1.0367934224049331</v>
       </c>
-      <c r="Q49" s="6" t="e">
+      <c r="Q49" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB49">
         <v>48</v>
       </c>
-      <c r="AC49" s="8">
+      <c r="AC49" s="7">
         <v>43940</v>
       </c>
       <c r="AD49">
@@ -5890,14 +5816,14 @@
         <f>Table2[[#This Row],[Chile]]/B49</f>
         <v>1.0415344964314037</v>
       </c>
-      <c r="Q50" s="6" t="e">
+      <c r="Q50" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB50">
         <v>49</v>
       </c>
-      <c r="AC50" s="8">
+      <c r="AC50" s="7">
         <v>43941</v>
       </c>
       <c r="AD50">
@@ -5924,14 +5850,14 @@
         <f>Table2[[#This Row],[Chile]]/B50</f>
         <v>1.0309317597791947</v>
       </c>
-      <c r="Q51" s="6" t="e">
+      <c r="Q51" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB51">
         <v>50</v>
       </c>
-      <c r="AC51" s="8">
+      <c r="AC51" s="7">
         <v>43942</v>
       </c>
       <c r="AD51">
@@ -5958,14 +5884,14 @@
         <f>Table2[[#This Row],[Chile]]/B51</f>
         <v>1.0428360413589366</v>
       </c>
-      <c r="Q52" s="6" t="e">
+      <c r="Q52" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB52">
         <v>51</v>
       </c>
-      <c r="AC52" s="8">
+      <c r="AC52" s="7">
         <v>43943</v>
       </c>
       <c r="AD52">
@@ -5992,14 +5918,14 @@
         <f>Table2[[#This Row],[Chile]]/B52</f>
         <v>1.0456798866855523</v>
       </c>
-      <c r="Q53" s="6" t="e">
+      <c r="Q53" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB53">
         <v>52</v>
       </c>
-      <c r="AC53" s="8">
+      <c r="AC53" s="7">
         <v>43944</v>
       </c>
       <c r="AD53">
@@ -6026,14 +5952,14 @@
         <f>Table2[[#This Row],[Chile]]/B53</f>
         <v>1.0418218760582458</v>
       </c>
-      <c r="Q54" s="6" t="e">
+      <c r="Q54" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB54">
         <v>53</v>
       </c>
-      <c r="AC54" s="8">
+      <c r="AC54" s="7">
         <v>43945</v>
       </c>
       <c r="AD54">
@@ -6060,14 +5986,14 @@
         <f>Table2[[#This Row],[Chile]]/B54</f>
         <v>1.0448561677230619</v>
       </c>
-      <c r="Q55" s="6" t="e">
+      <c r="Q55" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB55">
         <v>54</v>
       </c>
-      <c r="AC55" s="8">
+      <c r="AC55" s="7">
         <v>43946</v>
       </c>
       <c r="AD55">
@@ -6094,14 +6020,14 @@
         <f>Table2[[#This Row],[Chile]]/B55</f>
         <v>1.0367864364597916</v>
       </c>
-      <c r="Q56" s="6" t="e">
+      <c r="Q56" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB56">
         <v>55</v>
       </c>
-      <c r="AC56" s="8">
+      <c r="AC56" s="7">
         <v>43947</v>
       </c>
       <c r="AD56">
@@ -6114,7 +6040,7 @@
       </c>
       <c r="AF56">
         <f>Table3[[#This Row],[Factor prom diario CL]]-AE57</f>
-        <v>3.7848047348779154E-2</v>
+        <v>8.3121228061702745E-4</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
@@ -6128,15 +6054,27 @@
         <f>Table2[[#This Row],[Chile]]/B56</f>
         <v>1.0361563273572876</v>
       </c>
-      <c r="Q57" s="6" t="e">
+      <c r="Q57" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB57">
         <v>56</v>
       </c>
-      <c r="AC57" s="8">
+      <c r="AC57" s="7">
         <v>43948</v>
+      </c>
+      <c r="AD57">
+        <f>Table2[[#This Row],[Chile]]/B56</f>
+        <v>1.0361563273572876</v>
+      </c>
+      <c r="AE57">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD56)/AB57</f>
+        <v>3.7016835068162127E-2</v>
+      </c>
+      <c r="AF57">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE58</f>
+        <v>5.9370030217609226E-4</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
@@ -6150,15 +6088,27 @@
         <f>Table2[[#This Row],[Chile]]/B57</f>
         <v>1.0399623543039167</v>
       </c>
-      <c r="Q58" s="6" t="e">
+      <c r="Q58" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P57</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB58">
         <v>57</v>
       </c>
-      <c r="AC58" s="8">
+      <c r="AC58" s="7">
         <v>43949</v>
+      </c>
+      <c r="AD58">
+        <f>Table2[[#This Row],[Chile]]/B57</f>
+        <v>1.0399623543039167</v>
+      </c>
+      <c r="AE58">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD57)/AB58</f>
+        <v>3.6423134765986034E-2</v>
+      </c>
+      <c r="AF58">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE59</f>
+        <v>3.2718889710482008E-4</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
@@ -6172,44 +6122,82 @@
         <f>Table2[[#This Row],[Chile]]/B58</f>
         <v>1.0536025060911938</v>
       </c>
-      <c r="Q59" s="6" t="e">
+      <c r="Q59" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P58</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB59">
         <v>58</v>
       </c>
-      <c r="AC59" s="8">
+      <c r="AC59" s="7">
         <v>43950</v>
+      </c>
+      <c r="AD59">
+        <f>Table2[[#This Row],[Chile]]/B58</f>
+        <v>1.0536025060911938</v>
+      </c>
+      <c r="AE59">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD58)/AB59</f>
+        <v>3.6095945868881214E-2</v>
+      </c>
+      <c r="AF59">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE60</f>
+        <v>2.9468386007883152E-4</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43951</v>
       </c>
-      <c r="Q60" s="6" t="e">
+      <c r="B60">
+        <v>16023</v>
+      </c>
+      <c r="C60">
+        <f>Table2[[#This Row],[Chile]]/B59</f>
+        <v>1.0586719524281467</v>
+      </c>
+      <c r="Q60" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB60">
         <v>59</v>
       </c>
-      <c r="AC60" s="8">
+      <c r="AC60" s="7">
         <v>43951</v>
+      </c>
+      <c r="AD60">
+        <f>Table2[[#This Row],[Chile]]/B59</f>
+        <v>1.0586719524281467</v>
+      </c>
+      <c r="AE60">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD59)/AB60</f>
+        <v>3.5801262008802383E-2</v>
+      </c>
+      <c r="AF60">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE61</f>
+        <v>3.5801262008802383E-2</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43952</v>
       </c>
-      <c r="Q61" s="6" t="e">
+      <c r="B61">
+        <v>17008</v>
+      </c>
+      <c r="C61">
+        <f>Table2[[#This Row],[Chile]]/B60</f>
+        <v>1.0614741309367783</v>
+      </c>
+      <c r="Q61" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P60</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB61">
         <v>60</v>
       </c>
-      <c r="AC61" s="8">
+      <c r="AC61" s="7">
         <v>43952</v>
       </c>
     </row>
@@ -6217,14 +6205,21 @@
       <c r="A62" s="1">
         <v>43953</v>
       </c>
-      <c r="Q62" s="6" t="e">
+      <c r="B62">
+        <v>18435</v>
+      </c>
+      <c r="C62">
+        <f>Table2[[#This Row],[Chile]]/B61</f>
+        <v>1.0839016933207901</v>
+      </c>
+      <c r="Q62" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB62">
         <v>61</v>
       </c>
-      <c r="AC62" s="8">
+      <c r="AC62" s="7">
         <v>43953</v>
       </c>
     </row>
@@ -6232,14 +6227,21 @@
       <c r="A63" s="1">
         <v>43954</v>
       </c>
-      <c r="Q63" s="6" t="e">
+      <c r="B63">
+        <v>19663</v>
+      </c>
+      <c r="C63">
+        <f>Table2[[#This Row],[Chile]]/B62</f>
+        <v>1.0666124220233253</v>
+      </c>
+      <c r="Q63" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P62</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB63">
         <v>62</v>
       </c>
-      <c r="AC63" s="8">
+      <c r="AC63" s="7">
         <v>43954</v>
       </c>
     </row>
@@ -6247,14 +6249,21 @@
       <c r="A64" s="1">
         <v>43955</v>
       </c>
-      <c r="Q64" s="6" t="e">
+      <c r="B64">
+        <v>20643</v>
+      </c>
+      <c r="C64">
+        <f>Table2[[#This Row],[Chile]]/B63</f>
+        <v>1.0498398006407974</v>
+      </c>
+      <c r="Q64" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P63</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB64">
         <v>63</v>
       </c>
-      <c r="AC64" s="8">
+      <c r="AC64" s="7">
         <v>43955</v>
       </c>
     </row>
@@ -6262,14 +6271,14 @@
       <c r="A65" s="1">
         <v>43956</v>
       </c>
-      <c r="Q65" s="6" t="e">
+      <c r="Q65" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P64</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB65">
         <v>64</v>
       </c>
-      <c r="AC65" s="8">
+      <c r="AC65" s="7">
         <v>43956</v>
       </c>
     </row>
@@ -6277,14 +6286,14 @@
       <c r="A66" s="1">
         <v>43957</v>
       </c>
-      <c r="Q66" s="6" t="e">
+      <c r="Q66" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB66">
         <v>65</v>
       </c>
-      <c r="AC66" s="8">
+      <c r="AC66" s="7">
         <v>43957</v>
       </c>
     </row>
@@ -6292,7 +6301,7 @@
       <c r="A67" s="1">
         <v>43958</v>
       </c>
-      <c r="Q67" s="6" t="e">
+      <c r="Q67" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P66</f>
         <v>#DIV/0!</v>
       </c>
@@ -6301,7 +6310,7 @@
       <c r="A68" s="1">
         <v>43959</v>
       </c>
-      <c r="Q68" s="6" t="e">
+      <c r="Q68" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P67</f>
         <v>#DIV/0!</v>
       </c>
@@ -6310,7 +6319,7 @@
       <c r="A69" s="1">
         <v>43960</v>
       </c>
-      <c r="Q69" s="6" t="e">
+      <c r="Q69" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P68</f>
         <v>#DIV/0!</v>
       </c>
@@ -6319,7 +6328,7 @@
       <c r="A70" s="1">
         <v>43961</v>
       </c>
-      <c r="Q70" s="6" t="e">
+      <c r="Q70" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P69</f>
         <v>#DIV/0!</v>
       </c>
@@ -6328,7 +6337,7 @@
       <c r="A71" s="1">
         <v>43962</v>
       </c>
-      <c r="Q71" s="6" t="e">
+      <c r="Q71" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P70</f>
         <v>#DIV/0!</v>
       </c>
@@ -6337,7 +6346,7 @@
       <c r="A72" s="1">
         <v>43963</v>
       </c>
-      <c r="Q72" s="6" t="e">
+      <c r="Q72" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P71</f>
         <v>#DIV/0!</v>
       </c>
@@ -6346,7 +6355,7 @@
       <c r="A73" s="1">
         <v>43964</v>
       </c>
-      <c r="Q73" s="6" t="e">
+      <c r="Q73" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P72</f>
         <v>#DIV/0!</v>
       </c>
@@ -6355,7 +6364,7 @@
       <c r="A74" s="1">
         <v>43965</v>
       </c>
-      <c r="Q74" s="6" t="e">
+      <c r="Q74" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P73</f>
         <v>#DIV/0!</v>
       </c>
@@ -6364,7 +6373,7 @@
       <c r="A75" s="1">
         <v>43966</v>
       </c>
-      <c r="Q75" s="6" t="e">
+      <c r="Q75" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P74</f>
         <v>#DIV/0!</v>
       </c>
@@ -6373,7 +6382,7 @@
       <c r="A76" s="1">
         <v>43967</v>
       </c>
-      <c r="Q76" s="6" t="e">
+      <c r="Q76" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P75</f>
         <v>#DIV/0!</v>
       </c>
@@ -6382,7 +6391,7 @@
       <c r="A77" s="1">
         <v>43968</v>
       </c>
-      <c r="Q77" s="6" t="e">
+      <c r="Q77" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P76</f>
         <v>#DIV/0!</v>
       </c>
@@ -6391,7 +6400,7 @@
       <c r="A78" s="1">
         <v>43969</v>
       </c>
-      <c r="Q78" s="6" t="e">
+      <c r="Q78" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P77</f>
         <v>#DIV/0!</v>
       </c>
@@ -6400,7 +6409,7 @@
       <c r="A79" s="1">
         <v>43970</v>
       </c>
-      <c r="Q79" s="6" t="e">
+      <c r="Q79" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P78</f>
         <v>#DIV/0!</v>
       </c>
@@ -6409,7 +6418,7 @@
       <c r="A80" s="1">
         <v>43971</v>
       </c>
-      <c r="Q80" s="6" t="e">
+      <c r="Q80" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P79</f>
         <v>#DIV/0!</v>
       </c>
@@ -6418,7 +6427,7 @@
       <c r="A81" s="1">
         <v>43972</v>
       </c>
-      <c r="Q81" s="6" t="e">
+      <c r="Q81" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P80</f>
         <v>#DIV/0!</v>
       </c>
@@ -6427,7 +6436,7 @@
       <c r="A82" s="1">
         <v>43973</v>
       </c>
-      <c r="Q82" s="6" t="e">
+      <c r="Q82" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P81</f>
         <v>#DIV/0!</v>
       </c>
@@ -6436,7 +6445,7 @@
       <c r="A83" s="1">
         <v>43974</v>
       </c>
-      <c r="Q83" s="6" t="e">
+      <c r="Q83" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P82</f>
         <v>#DIV/0!</v>
       </c>
@@ -6445,7 +6454,7 @@
       <c r="A84" s="1">
         <v>43975</v>
       </c>
-      <c r="Q84" s="6" t="e">
+      <c r="Q84" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P83</f>
         <v>#DIV/0!</v>
       </c>
@@ -6454,7 +6463,7 @@
       <c r="A85" s="1">
         <v>43976</v>
       </c>
-      <c r="Q85" s="6" t="e">
+      <c r="Q85" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P84</f>
         <v>#DIV/0!</v>
       </c>
@@ -6463,7 +6472,7 @@
       <c r="A86" s="1">
         <v>43977</v>
       </c>
-      <c r="Q86" s="6" t="e">
+      <c r="Q86" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P85</f>
         <v>#DIV/0!</v>
       </c>
@@ -6472,7 +6481,7 @@
       <c r="A87" s="1">
         <v>43978</v>
       </c>
-      <c r="Q87" s="6" t="e">
+      <c r="Q87" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P86</f>
         <v>#DIV/0!</v>
       </c>
@@ -6481,7 +6490,7 @@
       <c r="A88" s="1">
         <v>43979</v>
       </c>
-      <c r="Q88" s="6" t="e">
+      <c r="Q88" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P87</f>
         <v>#DIV/0!</v>
       </c>
@@ -6490,7 +6499,7 @@
       <c r="A89" s="1">
         <v>43980</v>
       </c>
-      <c r="Q89" s="6" t="e">
+      <c r="Q89" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P88</f>
         <v>#DIV/0!</v>
       </c>
@@ -6499,7 +6508,7 @@
       <c r="A90" s="1">
         <v>43981</v>
       </c>
-      <c r="Q90" s="6" t="e">
+      <c r="Q90" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P89</f>
         <v>#DIV/0!</v>
       </c>
@@ -6508,7 +6517,7 @@
       <c r="A91" s="1">
         <v>43982</v>
       </c>
-      <c r="Q91" s="6" t="e">
+      <c r="Q91" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P90</f>
         <v>#DIV/0!</v>
       </c>
@@ -6517,7 +6526,7 @@
       <c r="A92" s="1">
         <v>43983</v>
       </c>
-      <c r="Q92" s="6" t="e">
+      <c r="Q92" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P91</f>
         <v>#DIV/0!</v>
       </c>
@@ -6526,7 +6535,7 @@
       <c r="A93" s="1">
         <v>43984</v>
       </c>
-      <c r="Q93" s="6" t="e">
+      <c r="Q93" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P92</f>
         <v>#DIV/0!</v>
       </c>
@@ -6535,7 +6544,7 @@
       <c r="A94" s="1">
         <v>43985</v>
       </c>
-      <c r="Q94" s="6" t="e">
+      <c r="Q94" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P93</f>
         <v>#DIV/0!</v>
       </c>
@@ -6544,7 +6553,7 @@
       <c r="A95" s="1">
         <v>43986</v>
       </c>
-      <c r="Q95" s="6" t="e">
+      <c r="Q95" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P94</f>
         <v>#DIV/0!</v>
       </c>
@@ -6553,7 +6562,7 @@
       <c r="A96" s="1">
         <v>43987</v>
       </c>
-      <c r="Q96" s="6" t="e">
+      <c r="Q96" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P95</f>
         <v>#DIV/0!</v>
       </c>
@@ -6562,7 +6571,7 @@
       <c r="A97" s="1">
         <v>43988</v>
       </c>
-      <c r="Q97" s="6" t="e">
+      <c r="Q97" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P96</f>
         <v>#DIV/0!</v>
       </c>
@@ -6571,7 +6580,7 @@
       <c r="A98" s="1">
         <v>43989</v>
       </c>
-      <c r="Q98" s="6" t="e">
+      <c r="Q98" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P97</f>
         <v>#DIV/0!</v>
       </c>
@@ -6580,7 +6589,7 @@
       <c r="A99" s="1">
         <v>43990</v>
       </c>
-      <c r="Q99" s="6" t="e">
+      <c r="Q99" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P98</f>
         <v>#DIV/0!</v>
       </c>
@@ -6589,7 +6598,7 @@
       <c r="A100" s="1">
         <v>43991</v>
       </c>
-      <c r="Q100" s="6" t="e">
+      <c r="Q100" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P99</f>
         <v>#DIV/0!</v>
       </c>
@@ -6598,7 +6607,7 @@
       <c r="A101" s="1">
         <v>43992</v>
       </c>
-      <c r="Q101" s="6" t="e">
+      <c r="Q101" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P100</f>
         <v>#DIV/0!</v>
       </c>
@@ -6607,7 +6616,7 @@
       <c r="A102" s="1">
         <v>43993</v>
       </c>
-      <c r="Q102" s="6" t="e">
+      <c r="Q102" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P101</f>
         <v>#DIV/0!</v>
       </c>
@@ -6616,7 +6625,7 @@
       <c r="A103" s="1">
         <v>43994</v>
       </c>
-      <c r="Q103" s="6" t="e">
+      <c r="Q103" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P102</f>
         <v>#DIV/0!</v>
       </c>
@@ -6625,7 +6634,7 @@
       <c r="A104" s="1">
         <v>43995</v>
       </c>
-      <c r="Q104" s="6" t="e">
+      <c r="Q104" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P103</f>
         <v>#DIV/0!</v>
       </c>
@@ -6634,7 +6643,7 @@
       <c r="A105" s="1">
         <v>43996</v>
       </c>
-      <c r="Q105" s="6" t="e">
+      <c r="Q105" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P104</f>
         <v>#DIV/0!</v>
       </c>
@@ -6643,7 +6652,7 @@
       <c r="A106" s="1">
         <v>43997</v>
       </c>
-      <c r="Q106" s="6" t="e">
+      <c r="Q106" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P105</f>
         <v>#DIV/0!</v>
       </c>
@@ -6652,7 +6661,7 @@
       <c r="A107" s="1">
         <v>43998</v>
       </c>
-      <c r="Q107" s="6" t="e">
+      <c r="Q107" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P106</f>
         <v>#DIV/0!</v>
       </c>
@@ -6661,7 +6670,7 @@
       <c r="A108" s="1">
         <v>43999</v>
       </c>
-      <c r="Q108" s="6" t="e">
+      <c r="Q108" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P107</f>
         <v>#DIV/0!</v>
       </c>
@@ -6670,7 +6679,7 @@
       <c r="A109" s="1">
         <v>44000</v>
       </c>
-      <c r="Q109" s="6" t="e">
+      <c r="Q109" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P108</f>
         <v>#DIV/0!</v>
       </c>
@@ -6679,7 +6688,7 @@
       <c r="A110" s="1">
         <v>44001</v>
       </c>
-      <c r="Q110" s="6" t="e">
+      <c r="Q110" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P109</f>
         <v>#DIV/0!</v>
       </c>
@@ -6688,7 +6697,7 @@
       <c r="A111" s="1">
         <v>44002</v>
       </c>
-      <c r="Q111" s="6" t="e">
+      <c r="Q111" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P110</f>
         <v>#DIV/0!</v>
       </c>
@@ -6697,7 +6706,7 @@
       <c r="A112" s="1">
         <v>44003</v>
       </c>
-      <c r="Q112" s="6" t="e">
+      <c r="Q112" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P111</f>
         <v>#DIV/0!</v>
       </c>
@@ -6706,7 +6715,7 @@
       <c r="A113" s="1">
         <v>44004</v>
       </c>
-      <c r="Q113" s="6" t="e">
+      <c r="Q113" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P112</f>
         <v>#DIV/0!</v>
       </c>
@@ -6715,7 +6724,7 @@
       <c r="A114" s="1">
         <v>44005</v>
       </c>
-      <c r="Q114" s="6" t="e">
+      <c r="Q114" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P113</f>
         <v>#DIV/0!</v>
       </c>
@@ -6724,7 +6733,7 @@
       <c r="A115" s="1">
         <v>44006</v>
       </c>
-      <c r="Q115" s="6" t="e">
+      <c r="Q115" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P114</f>
         <v>#DIV/0!</v>
       </c>
@@ -6733,7 +6742,7 @@
       <c r="A116" s="1">
         <v>44007</v>
       </c>
-      <c r="Q116" s="6" t="e">
+      <c r="Q116" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P115</f>
         <v>#DIV/0!</v>
       </c>
@@ -6742,7 +6751,7 @@
       <c r="A117" s="1">
         <v>44008</v>
       </c>
-      <c r="Q117" s="6" t="e">
+      <c r="Q117" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P116</f>
         <v>#DIV/0!</v>
       </c>
@@ -6751,7 +6760,7 @@
       <c r="A118" s="1">
         <v>44009</v>
       </c>
-      <c r="Q118" s="6" t="e">
+      <c r="Q118" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P117</f>
         <v>#DIV/0!</v>
       </c>
@@ -6760,7 +6769,7 @@
       <c r="A119" s="1">
         <v>44010</v>
       </c>
-      <c r="Q119" s="6" t="e">
+      <c r="Q119" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P118</f>
         <v>#DIV/0!</v>
       </c>
@@ -6769,7 +6778,7 @@
       <c r="A120" s="1">
         <v>44011</v>
       </c>
-      <c r="Q120" s="6" t="e">
+      <c r="Q120" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P119</f>
         <v>#DIV/0!</v>
       </c>
@@ -6778,7 +6787,7 @@
       <c r="A121" s="1">
         <v>44012</v>
       </c>
-      <c r="Q121" s="6" t="e">
+      <c r="Q121" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P120</f>
         <v>#DIV/0!</v>
       </c>
@@ -6787,7 +6796,7 @@
       <c r="A122" s="1">
         <v>44013</v>
       </c>
-      <c r="Q122" s="6" t="e">
+      <c r="Q122" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P121</f>
         <v>#DIV/0!</v>
       </c>
@@ -6796,7 +6805,7 @@
       <c r="A123" s="1">
         <v>44014</v>
       </c>
-      <c r="Q123" s="6" t="e">
+      <c r="Q123" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P122</f>
         <v>#DIV/0!</v>
       </c>
@@ -6805,7 +6814,7 @@
       <c r="A124" s="1">
         <v>44015</v>
       </c>
-      <c r="Q124" s="6" t="e">
+      <c r="Q124" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P123</f>
         <v>#DIV/0!</v>
       </c>
@@ -6814,7 +6823,7 @@
       <c r="A125" s="1">
         <v>44016</v>
       </c>
-      <c r="Q125" s="6" t="e">
+      <c r="Q125" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P124</f>
         <v>#DIV/0!</v>
       </c>
@@ -6823,7 +6832,7 @@
       <c r="A126" s="1">
         <v>44017</v>
       </c>
-      <c r="Q126" s="6" t="e">
+      <c r="Q126" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P125</f>
         <v>#DIV/0!</v>
       </c>
@@ -6832,7 +6841,7 @@
       <c r="A127" s="1">
         <v>44018</v>
       </c>
-      <c r="Q127" s="6" t="e">
+      <c r="Q127" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P126</f>
         <v>#DIV/0!</v>
       </c>
@@ -6841,7 +6850,7 @@
       <c r="A128" s="1">
         <v>44019</v>
       </c>
-      <c r="Q128" s="6" t="e">
+      <c r="Q128" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P127</f>
         <v>#DIV/0!</v>
       </c>
@@ -6850,7 +6859,7 @@
       <c r="A129" s="1">
         <v>44020</v>
       </c>
-      <c r="Q129" s="6" t="e">
+      <c r="Q129" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P128</f>
         <v>#DIV/0!</v>
       </c>
@@ -6859,7 +6868,7 @@
       <c r="A130" s="1">
         <v>44021</v>
       </c>
-      <c r="Q130" s="6" t="e">
+      <c r="Q130" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P129</f>
         <v>#DIV/0!</v>
       </c>
@@ -6868,7 +6877,7 @@
       <c r="A131" s="1">
         <v>44022</v>
       </c>
-      <c r="Q131" s="6" t="e">
+      <c r="Q131" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P130</f>
         <v>#DIV/0!</v>
       </c>
@@ -6877,7 +6886,7 @@
       <c r="A132" s="1">
         <v>44023</v>
       </c>
-      <c r="Q132" s="6" t="e">
+      <c r="Q132" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P131</f>
         <v>#DIV/0!</v>
       </c>
@@ -6886,7 +6895,7 @@
       <c r="A133" s="1">
         <v>44024</v>
       </c>
-      <c r="Q133" s="6" t="e">
+      <c r="Q133" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P132</f>
         <v>#DIV/0!</v>
       </c>
@@ -6895,7 +6904,7 @@
       <c r="A134" s="1">
         <v>44025</v>
       </c>
-      <c r="Q134" s="6" t="e">
+      <c r="Q134" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P133</f>
         <v>#DIV/0!</v>
       </c>
@@ -6904,7 +6913,7 @@
       <c r="A135" s="1">
         <v>44026</v>
       </c>
-      <c r="Q135" s="6" t="e">
+      <c r="Q135" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P134</f>
         <v>#DIV/0!</v>
       </c>
@@ -6913,7 +6922,7 @@
       <c r="A136" s="1">
         <v>44027</v>
       </c>
-      <c r="Q136" s="6" t="e">
+      <c r="Q136" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P135</f>
         <v>#DIV/0!</v>
       </c>
@@ -6922,7 +6931,7 @@
       <c r="A137" s="1">
         <v>44028</v>
       </c>
-      <c r="Q137" s="6" t="e">
+      <c r="Q137" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P136</f>
         <v>#DIV/0!</v>
       </c>
@@ -6931,7 +6940,7 @@
       <c r="A138" s="1">
         <v>44029</v>
       </c>
-      <c r="Q138" s="6" t="e">
+      <c r="Q138" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P137</f>
         <v>#DIV/0!</v>
       </c>
@@ -6940,7 +6949,7 @@
       <c r="A139" s="1">
         <v>44030</v>
       </c>
-      <c r="Q139" s="6" t="e">
+      <c r="Q139" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P138</f>
         <v>#DIV/0!</v>
       </c>
@@ -6949,7 +6958,7 @@
       <c r="A140" s="1">
         <v>44031</v>
       </c>
-      <c r="Q140" s="6" t="e">
+      <c r="Q140" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P139</f>
         <v>#DIV/0!</v>
       </c>
@@ -6958,7 +6967,7 @@
       <c r="A141" s="1">
         <v>44032</v>
       </c>
-      <c r="Q141" s="6" t="e">
+      <c r="Q141" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P140</f>
         <v>#DIV/0!</v>
       </c>
@@ -6967,7 +6976,7 @@
       <c r="A142" s="1">
         <v>44033</v>
       </c>
-      <c r="Q142" s="6" t="e">
+      <c r="Q142" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P141</f>
         <v>#DIV/0!</v>
       </c>
@@ -6976,7 +6985,7 @@
       <c r="A143" s="1">
         <v>44034</v>
       </c>
-      <c r="Q143" s="6" t="e">
+      <c r="Q143" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P142</f>
         <v>#DIV/0!</v>
       </c>
@@ -6985,7 +6994,7 @@
       <c r="A144" s="1">
         <v>44035</v>
       </c>
-      <c r="Q144" s="6" t="e">
+      <c r="Q144" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P143</f>
         <v>#DIV/0!</v>
       </c>
@@ -6994,7 +7003,7 @@
       <c r="A145" s="1">
         <v>44036</v>
       </c>
-      <c r="Q145" s="6" t="e">
+      <c r="Q145" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P144</f>
         <v>#DIV/0!</v>
       </c>
@@ -7003,7 +7012,7 @@
       <c r="A146" s="1">
         <v>44037</v>
       </c>
-      <c r="Q146" s="6" t="e">
+      <c r="Q146" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P145</f>
         <v>#DIV/0!</v>
       </c>
@@ -7012,7 +7021,7 @@
       <c r="A147" s="1">
         <v>44038</v>
       </c>
-      <c r="Q147" s="6" t="e">
+      <c r="Q147" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P146</f>
         <v>#DIV/0!</v>
       </c>
@@ -7021,7 +7030,7 @@
       <c r="A148" s="1">
         <v>44039</v>
       </c>
-      <c r="Q148" s="6" t="e">
+      <c r="Q148" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P147</f>
         <v>#DIV/0!</v>
       </c>
@@ -7030,7 +7039,7 @@
       <c r="A149" s="1">
         <v>44040</v>
       </c>
-      <c r="Q149" s="6" t="e">
+      <c r="Q149" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P148</f>
         <v>#DIV/0!</v>
       </c>
@@ -7039,7 +7048,7 @@
       <c r="A150" s="1">
         <v>44041</v>
       </c>
-      <c r="Q150" s="6" t="e">
+      <c r="Q150" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P149</f>
         <v>#DIV/0!</v>
       </c>
@@ -7048,7 +7057,7 @@
       <c r="A151" s="1">
         <v>44042</v>
       </c>
-      <c r="Q151" s="6" t="e">
+      <c r="Q151" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P150</f>
         <v>#DIV/0!</v>
       </c>
@@ -7057,7 +7066,7 @@
       <c r="A152" s="1">
         <v>44043</v>
       </c>
-      <c r="Q152" s="6" t="e">
+      <c r="Q152" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P151</f>
         <v>#DIV/0!</v>
       </c>
@@ -7066,7 +7075,7 @@
       <c r="A153" s="1">
         <v>44044</v>
       </c>
-      <c r="Q153" s="6" t="e">
+      <c r="Q153" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P152</f>
         <v>#DIV/0!</v>
       </c>
@@ -7075,7 +7084,7 @@
       <c r="A154" s="1">
         <v>44045</v>
       </c>
-      <c r="Q154" s="6" t="e">
+      <c r="Q154" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P153</f>
         <v>#DIV/0!</v>
       </c>
@@ -7084,7 +7093,7 @@
       <c r="A155" s="1">
         <v>44046</v>
       </c>
-      <c r="Q155" s="6" t="e">
+      <c r="Q155" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P154</f>
         <v>#DIV/0!</v>
       </c>
@@ -7093,7 +7102,7 @@
       <c r="A156" s="1">
         <v>44047</v>
       </c>
-      <c r="Q156" s="6" t="e">
+      <c r="Q156" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P155</f>
         <v>#DIV/0!</v>
       </c>
@@ -7197,7 +7206,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C59">
+  <conditionalFormatting sqref="C2:C64">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -7308,7 +7317,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C59</xm:sqref>
+          <xm:sqref>C2:C64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7318,334 +7327,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>308</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
+        <v>295</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>252</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1.89E-2</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>760</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>656</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>156</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1.17E-2</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="G7" s="9">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="10">
+        <v>13528</v>
+      </c>
+      <c r="C8" s="2">
+        <v>872</v>
+      </c>
+      <c r="D8" s="2">
+        <v>790</v>
+      </c>
+      <c r="E8" s="2">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2">
+        <v>143</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.65529999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>399</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>787</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>762</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1331</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>199</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2">
-        <v>443</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3.32E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B15" s="2">
+        <v>524</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="D16" s="2">
         <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>460</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2">
-        <v>331</v>
-      </c>
-      <c r="C8" s="11">
-        <v>7496</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.56230000000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>92</v>
-      </c>
-      <c r="D9" s="10">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>354</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>731</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5.4800000000000001E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>703</v>
-      </c>
-      <c r="D12" s="10">
-        <v>5.2699999999999997E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1216</v>
-      </c>
-      <c r="D13" s="10">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>178</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1.34E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>473</v>
-      </c>
-      <c r="D15" s="10">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7</v>
-      </c>
-      <c r="D16" s="10">
-        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
+        <v>795</v>
       </c>
       <c r="C17" s="2">
-        <v>668</v>
-      </c>
-      <c r="D17" s="10">
-        <v>5.0099999999999999E-2</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="4">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
-        <v>473</v>
+        <v>20643</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>13331</v>
-      </c>
-      <c r="D18" s="5">
+        <v>980</v>
+      </c>
+      <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="E18" s="4">
+        <v>876</v>
+      </c>
+      <c r="E18" s="11">
         <f>SUM(E2:E17)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F18" s="4">
+        <f>SUM(F2:F17)</f>
+        <v>270</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SUM(G2:G17)*100</f>
+        <v>98.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2585D-8ED6-104F-B5BE-885338FD62E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B80991-5391-D549-883E-814A228D8909}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="1" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -7329,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B80991-5391-D549-883E-814A228D8909}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F98521-A72B-FD42-9EB9-2337065E781C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="2" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
-    <sheet name="Contagios por Región" sheetId="4" r:id="rId2"/>
+    <sheet name="Macros" sheetId="5" r:id="rId2"/>
+    <sheet name="Contagios por Región" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Región">#N/A</definedName>
@@ -26,7 +27,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Fecha</t>
   </si>
@@ -228,17 +229,38 @@
     <t>Column2</t>
   </si>
   <si>
-    <t>1.49%</t>
+    <t>Casos nuevos s/s</t>
   </si>
   <si>
-    <t>Casos nuevos s/s</t>
+    <t>1.26%</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Casos totales</t>
+  </si>
+  <si>
+    <t>Nuevos casos</t>
+  </si>
+  <si>
+    <t>Casos nuevos con sintomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casos nuevos sin sintomas </t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,8 +290,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +325,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,17 +369,143 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="33">
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -354,7 +519,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -368,7 +537,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -382,7 +555,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -396,7 +573,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -410,7 +591,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -424,7 +609,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -438,7 +627,138 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -670,10 +990,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$66</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AD$2:$AD$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -850,6 +1170,30 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1.0586719524281467</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0614741309367783</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0839016933207901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0666124220233253</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0498398006407974</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0665116504384053</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.046875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0665133634154806</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0565884219519142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,10 +1230,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$66</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AE$2:$AE$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1066,6 +1410,30 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3.5801262008802383E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.533576805608208E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.517009547963227E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4685711537808313E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3594479724827341E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3067991423112543E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2513640775975468E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2021035809325464E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1688086348767089E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,10 +1470,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Contagios Chile e Internacional'!$AF$2:$AF$66</c:f>
+              <c:f>'Contagios Chile e Internacional'!$AF$2:$AF$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -1281,7 +1649,31 @@
                   <c:v>2.9468386007883152E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.5801262008802383E-2</c:v>
+                  <c:v>4.6549395272030281E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6567257644981015E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8438394182395705E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0912318129809723E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.2648830171479755E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5435064713707516E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9260496665000375E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.3294946055837521E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1688086348767089E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,16 +2448,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2101,7 +2493,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6032500" y="3784600"/>
+              <a:off x="5803900" y="4673600"/>
               <a:ext cx="1828800" cy="4889500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2155,7 +2547,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC821752-7434-3142-BCCE-6C16B16AA880}" name="Table2" displayName="Table2" ref="A1:Q156" totalsRowShown="0">
   <autoFilter ref="A1:Q156" xr:uid="{B25E91A3-337A-4A4D-BA5C-906897BB8B5B}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{28789160-252B-2E42-8D02-EAF9C7263E97}" name="Fecha" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{0837C794-F666-B34B-9F53-81CDEF195346}" name="Chile"/>
     <tableColumn id="9" xr3:uid="{1C8C696A-D842-F840-A113-B0B229447965}" name="Factor_Chile"/>
     <tableColumn id="8" xr3:uid="{24535E00-FA18-F545-ACA8-B3EF181A245C}" name="China"/>
@@ -2171,7 +2563,7 @@
     <tableColumn id="5" xr3:uid="{72FC4B17-138C-E746-A917-30D9765838BD}" name="Francia"/>
     <tableColumn id="12" xr3:uid="{211C715B-ED66-6848-A8C2-0961A29503BF}" name="Factor_Francia"/>
     <tableColumn id="18" xr3:uid="{87E31AB1-B9FD-F441-9467-9014F187CF98}" name="Iran"/>
-    <tableColumn id="19" xr3:uid="{44542949-D1F6-A643-9593-F202672622E8}" name="Factor_Iran" dataDxfId="16">
+    <tableColumn id="19" xr3:uid="{44542949-D1F6-A643-9593-F202672622E8}" name="Factor_Iran" dataDxfId="31">
       <calculatedColumnFormula>Table2[[#This Row],[Iran]]/P1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2248,8 +2640,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AF66" totalsRowShown="0">
-  <autoFilter ref="AD1:AF66" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF1EDDDF-743B-0E4B-8878-B0BCA94E8110}" name="Table3" displayName="Table3" ref="AD1:AF71" totalsRowShown="0">
+  <autoFilter ref="AD1:AF71" xr:uid="{CCB779D7-702E-4045-82D6-211B19768DF0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5A9F5AD8-690E-4140-8022-0C29EB08B63F}" name="Factor diario CL"/>
     <tableColumn id="2" xr3:uid="{FF114CD2-95B8-424E-9607-35812A20EC3A}" name="Factor prom diario CL"/>
@@ -2260,16 +2652,32 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{903681B9-2822-6D44-980E-13DCF0489D65}" name="Table7" displayName="Table7" ref="A1:G18" dataDxfId="30">
+  <autoFilter ref="A1:G18" xr:uid="{4AE49177-BF64-2543-BD33-A45E1F5D9FAA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{082190AF-9C9C-4048-8CDE-FAA978D45863}" name="Region" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{9DE771E8-9B5F-9D47-B70F-A776DEAC6EBB}" name="Casos totales" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{77A42FE9-9822-3F4A-A11F-861163382188}" name="Nuevos casos" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{0519C54A-912E-4B48-8CF6-628FC71651D3}" name="Casos nuevos con sintomas" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{71A7FF58-6055-7844-BF48-F0896D834393}" name="Casos nuevos sin sintomas " dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{EDA9AAC9-DA95-924C-98D1-6FA8A2026CBA}" name="Fallecidos" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{077D281C-0054-5C46-BBD9-33A47B718F71}" name="Porcentaje" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:G17" headerRowDxfId="15" dataDxfId="0">
   <autoFilter ref="A1:G17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C96A0159-4EC2-A14F-A6FC-06CD8DA0A44C}" name="Casos Totales" dataDxfId="6" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="5" totalsRowDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{8F388594-5801-A642-BC17-2676835D3A6F}" name="Column2" dataDxfId="4" totalsRowDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{2B84CF96-CD69-CD40-8741-E0C2C261D390}" name="Casos nuevos s/s" dataDxfId="3" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{78885A86-74FD-6042-8DD6-0C71FA197ACC}" name="Fallecidos" dataDxfId="2" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="1" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C96A0159-4EC2-A14F-A6FC-06CD8DA0A44C}" name="Casos Totales" dataDxfId="6" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="5" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{8F388594-5801-A642-BC17-2676835D3A6F}" name="Column2" dataDxfId="4" totalsRowDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{2B84CF96-CD69-CD40-8741-E0C2C261D390}" name="Casos nuevos s/s" dataDxfId="3" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{78885A86-74FD-6042-8DD6-0C71FA197ACC}" name="Fallecidos" dataDxfId="2" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="1" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2574,11 +2982,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="R1" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -2610,7 +3018,7 @@
     <col min="32" max="32" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +3113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>43893</v>
       </c>
@@ -2765,11 +3173,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
-        <v>74.250627531233619</v>
+        <v>101.82302082400372</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
@@ -2816,7 +3224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>43894</v>
       </c>
@@ -2895,7 +3303,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -3001,7 +3409,7 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -3066,7 +3474,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.1785813893846606</v>
+        <v>1.1440788856629631</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -3115,7 +3523,7 @@
         <v>0.11583333333333323</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -3194,7 +3602,7 @@
         <v>3.4761904761904772E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>43898</v>
       </c>
@@ -3273,7 +3681,7 @@
         <v>0.10191713048855905</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>43899</v>
       </c>
@@ -3352,7 +3760,7 @@
         <v>8.2132153560725008E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>43900</v>
       </c>
@@ -3431,7 +3839,7 @@
         <v>1.5562868504044924E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>43901</v>
       </c>
@@ -3513,7 +3921,7 @@
         <v>1.6853564168142265E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>43902</v>
       </c>
@@ -3592,7 +4000,7 @@
         <v>2.9880295632446263E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -3671,7 +4079,7 @@
         <v>2.2089170034753275E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>43904</v>
       </c>
@@ -3750,7 +4158,7 @@
         <v>2.3101924550647385E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>43905</v>
       </c>
@@ -3829,7 +4237,7 @@
         <v>-3.2692454324173725E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>43906</v>
       </c>
@@ -3908,7 +4316,7 @@
         <v>1.1829340058848253E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>43907</v>
       </c>
@@ -3987,7 +4395,7 @@
         <v>7.0030281285878293E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>43908</v>
       </c>
@@ -4066,7 +4474,7 @@
         <v>2.5069919826511022E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>43909</v>
       </c>
@@ -4145,7 +4553,7 @@
         <v>-2.6658051461683513E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>43910</v>
       </c>
@@ -4224,7 +4632,7 @@
         <v>-3.389395438822107E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>43911</v>
       </c>
@@ -4303,7 +4711,7 @@
         <v>3.8799551288826922E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>43912</v>
       </c>
@@ -4382,7 +4790,7 @@
         <v>8.4599637699067087E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>43913</v>
       </c>
@@ -4461,7 +4869,7 @@
         <v>2.4198023929709461E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>43914</v>
       </c>
@@ -4540,7 +4948,7 @@
         <v>2.2434810465223332E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>43915</v>
       </c>
@@ -4619,7 +5027,7 @@
         <v>8.3294073771053578E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>43916</v>
       </c>
@@ -4698,7 +5106,7 @@
         <v>4.2039613513793622E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>43917</v>
       </c>
@@ -4777,7 +5185,7 @@
         <v>2.0364846611752307E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>43918</v>
       </c>
@@ -4856,7 +5264,7 @@
         <v>7.6040218930309295E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>43919</v>
       </c>
@@ -4935,7 +5343,7 @@
         <v>4.5071937162036724E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>43920</v>
       </c>
@@ -5014,7 +5422,7 @@
         <v>2.8752434009375882E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
@@ -5093,7 +5501,7 @@
         <v>3.8649118620938394E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32">
       <c r="A31" s="1">
         <v>43922</v>
       </c>
@@ -5172,7 +5580,7 @@
         <v>2.2294509587371947E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32">
       <c r="A32" s="1">
         <v>43923</v>
       </c>
@@ -5251,7 +5659,7 @@
         <v>2.5351314218760995E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32">
       <c r="A33" s="1">
         <v>43924</v>
       </c>
@@ -5285,7 +5693,7 @@
         <v>2.3940740719182729E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32">
       <c r="A34" s="1">
         <v>43925</v>
       </c>
@@ -5315,7 +5723,7 @@
         <v>2.6568657146591734E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32">
       <c r="A35" s="1">
         <v>43926</v>
       </c>
@@ -5349,7 +5757,7 @@
         <v>2.8820433216239921E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32">
       <c r="A36" s="1">
         <v>43927</v>
       </c>
@@ -5379,7 +5787,7 @@
         <v>2.0405028230807351E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32">
       <c r="A37" s="1">
         <v>43928</v>
       </c>
@@ -5413,7 +5821,7 @@
         <v>1.4140405406291301E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32">
       <c r="A38" s="1">
         <v>43929</v>
       </c>
@@ -5443,7 +5851,7 @@
         <v>1.1504231623306466E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32">
       <c r="A39" s="1">
         <v>43930</v>
       </c>
@@ -5473,7 +5881,7 @@
         <v>1.341917755966926E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32">
       <c r="A40" s="1">
         <v>43931</v>
       </c>
@@ -5503,7 +5911,7 @@
         <v>1.6701653103254471E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32">
       <c r="A41" s="1">
         <v>43932</v>
       </c>
@@ -5533,7 +5941,7 @@
         <v>2.4669520965618155E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32">
       <c r="A42" s="1">
         <v>43933</v>
       </c>
@@ -5567,7 +5975,7 @@
         <v>1.7537834537514341E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32">
       <c r="A43" s="1">
         <v>43934</v>
       </c>
@@ -5601,7 +6009,7 @@
         <v>9.0294573126083882E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32">
       <c r="A44" s="1">
         <v>43935</v>
       </c>
@@ -5635,7 +6043,7 @@
         <v>1.0685848888678587E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32">
       <c r="A45" s="1">
         <v>43936</v>
       </c>
@@ -5669,7 +6077,7 @@
         <v>7.8235877734560144E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32">
       <c r="A46" s="1">
         <v>43937</v>
       </c>
@@ -5703,7 +6111,7 @@
         <v>8.9818748236303314E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32">
       <c r="A47" s="1">
         <v>43938</v>
       </c>
@@ -5737,7 +6145,7 @@
         <v>1.2523982069065492E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32">
       <c r="A48" s="1">
         <v>43939</v>
       </c>
@@ -5771,7 +6179,7 @@
         <v>1.2179597201772349E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32">
       <c r="A49" s="1">
         <v>43940</v>
       </c>
@@ -5805,7 +6213,7 @@
         <v>1.0946846672281393E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32">
       <c r="A50" s="1">
         <v>43941</v>
       </c>
@@ -5839,7 +6247,7 @@
         <v>9.6553036224387989E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32">
       <c r="A51" s="1">
         <v>43942</v>
       </c>
@@ -5873,7 +6281,7 @@
         <v>7.8721137640547917E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32">
       <c r="A52" s="1">
         <v>43943</v>
       </c>
@@ -5907,7 +6315,7 @@
         <v>4.9834590079708696E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32">
       <c r="A53" s="1">
         <v>43944</v>
       </c>
@@ -5941,7 +6349,7 @@
         <v>7.7694213486226293E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32">
       <c r="A54" s="1">
         <v>43945</v>
       </c>
@@ -5975,7 +6383,7 @@
         <v>7.4463971619700281E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32">
       <c r="A55" s="1">
         <v>43946</v>
       </c>
@@ -6009,7 +6417,7 @@
         <v>7.9413864717098326E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32">
       <c r="A56" s="1">
         <v>43947</v>
       </c>
@@ -6043,7 +6451,7 @@
         <v>8.3121228061702745E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32">
       <c r="A57" s="1">
         <v>43948</v>
       </c>
@@ -6077,7 +6485,7 @@
         <v>5.9370030217609226E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32">
       <c r="A58" s="1">
         <v>43949</v>
       </c>
@@ -6111,7 +6519,7 @@
         <v>3.2718889710482008E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32">
       <c r="A59" s="1">
         <v>43950</v>
       </c>
@@ -6145,7 +6553,7 @@
         <v>2.9468386007883152E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32">
       <c r="A60" s="1">
         <v>43951</v>
       </c>
@@ -6176,10 +6584,10 @@
       </c>
       <c r="AF60">
         <f>Table3[[#This Row],[Factor prom diario CL]]-AE61</f>
-        <v>3.5801262008802383E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+        <v>4.6549395272030281E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="1">
         <v>43952</v>
       </c>
@@ -6200,8 +6608,20 @@
       <c r="AC61" s="7">
         <v>43952</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AD61">
+        <f>Table2[[#This Row],[Chile]]/B60</f>
+        <v>1.0614741309367783</v>
+      </c>
+      <c r="AE61">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD60)/AB61</f>
+        <v>3.533576805608208E-2</v>
+      </c>
+      <c r="AF61">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE62</f>
+        <v>1.6567257644981015E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="1">
         <v>43953</v>
       </c>
@@ -6222,8 +6642,20 @@
       <c r="AC62" s="7">
         <v>43953</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AD62">
+        <f>Table2[[#This Row],[Chile]]/B61</f>
+        <v>1.0839016933207901</v>
+      </c>
+      <c r="AE62">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD61)/AB62</f>
+        <v>3.517009547963227E-2</v>
+      </c>
+      <c r="AF62">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE63</f>
+        <v>4.8438394182395705E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="1">
         <v>43954</v>
       </c>
@@ -6244,8 +6676,20 @@
       <c r="AC63" s="7">
         <v>43954</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AD63">
+        <f>Table2[[#This Row],[Chile]]/B62</f>
+        <v>1.0666124220233253</v>
+      </c>
+      <c r="AE63">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD62)/AB63</f>
+        <v>3.4685711537808313E-2</v>
+      </c>
+      <c r="AF63">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE64</f>
+        <v>1.0912318129809723E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="1">
         <v>43955</v>
       </c>
@@ -6266,11 +6710,30 @@
       <c r="AC64" s="7">
         <v>43955</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD64">
+        <f>Table2[[#This Row],[Chile]]/B63</f>
+        <v>1.0498398006407974</v>
+      </c>
+      <c r="AE64">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD63)/AB64</f>
+        <v>3.3594479724827341E-2</v>
+      </c>
+      <c r="AF64">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE65</f>
+        <v>5.2648830171479755E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="1">
         <v>43956</v>
       </c>
+      <c r="B65">
+        <v>22016</v>
+      </c>
+      <c r="C65">
+        <f>Table2[[#This Row],[Chile]]/B64</f>
+        <v>1.0665116504384053</v>
+      </c>
       <c r="Q65" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P64</f>
         <v>#DIV/0!</v>
@@ -6281,11 +6744,30 @@
       <c r="AC65" s="7">
         <v>43956</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD65">
+        <f>Table2[[#This Row],[Chile]]/B64</f>
+        <v>1.0665116504384053</v>
+      </c>
+      <c r="AE65">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD64)/AB65</f>
+        <v>3.3067991423112543E-2</v>
+      </c>
+      <c r="AF65">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE66</f>
+        <v>5.5435064713707516E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="1">
         <v>43957</v>
       </c>
+      <c r="B66">
+        <v>23048</v>
+      </c>
+      <c r="C66">
+        <f>Table2[[#This Row],[Chile]]/B65</f>
+        <v>1.046875</v>
+      </c>
       <c r="Q66" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P65</f>
         <v>#DIV/0!</v>
@@ -6296,224 +6778,458 @@
       <c r="AC66" s="7">
         <v>43957</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD66">
+        <f>Table2[[#This Row],[Chile]]/B65</f>
+        <v>1.046875</v>
+      </c>
+      <c r="AE66">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD65)/AB66</f>
+        <v>3.2513640775975468E-2</v>
+      </c>
+      <c r="AF66">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE67</f>
+        <v>4.9260496665000375E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="1">
         <v>43958</v>
       </c>
+      <c r="B67">
+        <v>24581</v>
+      </c>
+      <c r="C67">
+        <f>Table2[[#This Row],[Chile]]/B66</f>
+        <v>1.0665133634154806</v>
+      </c>
       <c r="Q67" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P66</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB67">
+        <v>66</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>43958</v>
+      </c>
+      <c r="AD67">
+        <f>Table2[[#This Row],[Chile]]/B66</f>
+        <v>1.0665133634154806</v>
+      </c>
+      <c r="AE67">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD66)/AB67</f>
+        <v>3.2021035809325464E-2</v>
+      </c>
+      <c r="AF67">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE68</f>
+        <v>3.3294946055837521E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="1">
         <v>43959</v>
       </c>
+      <c r="B68">
+        <v>25972</v>
+      </c>
+      <c r="C68">
+        <f>Table2[[#This Row],[Chile]]/B67</f>
+        <v>1.0565884219519142</v>
+      </c>
       <c r="Q68" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P67</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB68">
+        <v>67</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>43959</v>
+      </c>
+      <c r="AD68">
+        <f>Table2[[#This Row],[Chile]]/B67</f>
+        <v>1.0565884219519142</v>
+      </c>
+      <c r="AE68">
+        <f>(Table3[[#This Row],[Factor diario CL]]+AD67)/AB68</f>
+        <v>3.1688086348767089E-2</v>
+      </c>
+      <c r="AF68">
+        <f>Table3[[#This Row],[Factor prom diario CL]]-AE69</f>
+        <v>3.1688086348767089E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="1">
         <v>43960</v>
       </c>
+      <c r="B69">
+        <v>27219</v>
+      </c>
+      <c r="C69">
+        <f>Table2[[#This Row],[Chile]]/B68</f>
+        <v>1.0480132450331126</v>
+      </c>
       <c r="Q69" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P68</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB69">
+        <v>68</v>
+      </c>
+      <c r="AC69" s="7">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="1">
         <v>43961</v>
       </c>
+      <c r="B70">
+        <v>28886</v>
+      </c>
+      <c r="C70">
+        <f>Table2[[#This Row],[Chile]]/B69</f>
+        <v>1.0612439839817773</v>
+      </c>
       <c r="Q70" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P69</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB70">
+        <v>69</v>
+      </c>
+      <c r="AC70" s="7">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="1">
         <v>43962</v>
       </c>
+      <c r="B71">
+        <v>30063</v>
+      </c>
+      <c r="C71">
+        <f>Table2[[#This Row],[Chile]]/B70</f>
+        <v>1.0407463823305407</v>
+      </c>
       <c r="Q71" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P70</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB71">
+        <v>70</v>
+      </c>
+      <c r="AC71" s="7">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="1">
         <v>43963</v>
       </c>
+      <c r="B72">
+        <v>31721</v>
+      </c>
+      <c r="C72">
+        <f>Table2[[#This Row],[Chile]]/B71</f>
+        <v>1.0551508498819147</v>
+      </c>
       <c r="Q72" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P71</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32">
       <c r="A73" s="1">
         <v>43964</v>
       </c>
+      <c r="B73">
+        <v>34381</v>
+      </c>
+      <c r="C73">
+        <f>Table2[[#This Row],[Chile]]/B72</f>
+        <v>1.0838561205510544</v>
+      </c>
       <c r="Q73" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P72</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32">
       <c r="A74" s="1">
         <v>43965</v>
       </c>
+      <c r="B74">
+        <v>37040</v>
+      </c>
+      <c r="C74">
+        <f>Table2[[#This Row],[Chile]]/B73</f>
+        <v>1.0773392280620111</v>
+      </c>
       <c r="Q74" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P73</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32">
       <c r="A75" s="1">
         <v>43966</v>
       </c>
+      <c r="B75">
+        <v>39542</v>
+      </c>
+      <c r="C75">
+        <f>Table2[[#This Row],[Chile]]/B74</f>
+        <v>1.067548596112311</v>
+      </c>
       <c r="Q75" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P74</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32">
       <c r="A76" s="1">
         <v>43967</v>
       </c>
+      <c r="B76">
+        <v>41428</v>
+      </c>
+      <c r="C76">
+        <f>Table2[[#This Row],[Chile]]/B75</f>
+        <v>1.0476961205806483</v>
+      </c>
       <c r="Q76" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P75</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32">
       <c r="A77" s="1">
         <v>43968</v>
       </c>
+      <c r="B77">
+        <v>43781</v>
+      </c>
+      <c r="C77">
+        <f>Table2[[#This Row],[Chile]]/B76</f>
+        <v>1.056797335135657</v>
+      </c>
       <c r="Q77" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P76</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32">
       <c r="A78" s="1">
         <v>43969</v>
       </c>
+      <c r="B78">
+        <v>46059</v>
+      </c>
+      <c r="C78">
+        <f>Table2[[#This Row],[Chile]]/B77</f>
+        <v>1.0520317032502684</v>
+      </c>
       <c r="Q78" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P77</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32">
       <c r="A79" s="1">
         <v>43970</v>
       </c>
+      <c r="B79">
+        <v>49579</v>
+      </c>
+      <c r="C79">
+        <f>Table2[[#This Row],[Chile]]/B78</f>
+        <v>1.0764237174059359</v>
+      </c>
       <c r="Q79" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P78</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32">
       <c r="A80" s="1">
         <v>43971</v>
       </c>
+      <c r="B80">
+        <v>53617</v>
+      </c>
+      <c r="C80">
+        <f>Table2[[#This Row],[Chile]]/B79</f>
+        <v>1.0814457734121301</v>
+      </c>
       <c r="Q80" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P79</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>43972</v>
       </c>
+      <c r="B81">
+        <v>57581</v>
+      </c>
+      <c r="C81">
+        <f>Table2[[#This Row],[Chile]]/B80</f>
+        <v>1.0739317753697522</v>
+      </c>
       <c r="Q81" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P80</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>43973</v>
       </c>
+      <c r="B82">
+        <v>61857</v>
+      </c>
+      <c r="C82">
+        <f>Table2[[#This Row],[Chile]]/B81</f>
+        <v>1.074260606797381</v>
+      </c>
       <c r="Q82" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P81</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>43974</v>
       </c>
+      <c r="B83">
+        <v>65393</v>
+      </c>
+      <c r="C83">
+        <f>Table2[[#This Row],[Chile]]/B82</f>
+        <v>1.0571641043050908</v>
+      </c>
       <c r="Q83" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P82</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>43975</v>
       </c>
+      <c r="B84">
+        <v>69102</v>
+      </c>
+      <c r="C84">
+        <f>Table2[[#This Row],[Chile]]/B83</f>
+        <v>1.0567186090254308</v>
+      </c>
       <c r="Q84" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P83</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>43976</v>
       </c>
+      <c r="B85">
+        <v>73997</v>
+      </c>
+      <c r="C85">
+        <f>Table2[[#This Row],[Chile]]/B84</f>
+        <v>1.0708373129576567</v>
+      </c>
       <c r="Q85" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P84</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>43977</v>
       </c>
+      <c r="B86">
+        <v>77961</v>
+      </c>
+      <c r="C86">
+        <f>Table2[[#This Row],[Chile]]/B85</f>
+        <v>1.053569739313756</v>
+      </c>
       <c r="Q86" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P85</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>43978</v>
       </c>
+      <c r="B87">
+        <v>82289</v>
+      </c>
+      <c r="C87">
+        <f>Table2[[#This Row],[Chile]]/B86</f>
+        <v>1.0555149369556573</v>
+      </c>
       <c r="Q87" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>43979</v>
       </c>
+      <c r="B88">
+        <v>86943</v>
+      </c>
+      <c r="C88">
+        <f>Table2[[#This Row],[Chile]]/B87</f>
+        <v>1.0565567694345539</v>
+      </c>
       <c r="Q88" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P87</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>43980</v>
       </c>
+      <c r="B89">
+        <v>90638</v>
+      </c>
+      <c r="C89">
+        <f>Table2[[#This Row],[Chile]]/B88</f>
+        <v>1.0424991086113891</v>
+      </c>
       <c r="Q89" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>43981</v>
       </c>
+      <c r="B90">
+        <v>94858</v>
+      </c>
+      <c r="C90">
+        <f>Table2[[#This Row],[Chile]]/B89</f>
+        <v>1.0465588384562765</v>
+      </c>
       <c r="Q90" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P89</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>43982</v>
       </c>
@@ -6522,7 +7238,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>43983</v>
       </c>
@@ -6531,7 +7247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>43984</v>
       </c>
@@ -6540,7 +7256,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
         <v>43985</v>
       </c>
@@ -6549,7 +7265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
         <v>43986</v>
       </c>
@@ -6558,7 +7274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
         <v>43987</v>
       </c>
@@ -6567,7 +7283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
         <v>43988</v>
       </c>
@@ -6576,7 +7292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
         <v>43989</v>
       </c>
@@ -6585,7 +7301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
         <v>43990</v>
       </c>
@@ -6594,7 +7310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
         <v>43991</v>
       </c>
@@ -6603,7 +7319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="1">
         <v>43992</v>
       </c>
@@ -6612,7 +7328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
         <v>43993</v>
       </c>
@@ -6621,7 +7337,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" s="1">
         <v>43994</v>
       </c>
@@ -6630,7 +7346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
         <v>43995</v>
       </c>
@@ -6639,7 +7355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" s="1">
         <v>43996</v>
       </c>
@@ -6648,7 +7364,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" s="1">
         <v>43997</v>
       </c>
@@ -6657,7 +7373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" s="1">
         <v>43998</v>
       </c>
@@ -6666,7 +7382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" s="1">
         <v>43999</v>
       </c>
@@ -6675,7 +7391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" s="1">
         <v>44000</v>
       </c>
@@ -6684,7 +7400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="1">
         <v>44001</v>
       </c>
@@ -6693,7 +7409,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="1">
         <v>44002</v>
       </c>
@@ -6702,7 +7418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" s="1">
         <v>44003</v>
       </c>
@@ -6711,7 +7427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="1">
         <v>44004</v>
       </c>
@@ -6720,7 +7436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" s="1">
         <v>44005</v>
       </c>
@@ -6729,7 +7445,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" s="1">
         <v>44006</v>
       </c>
@@ -6738,7 +7454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" s="1">
         <v>44007</v>
       </c>
@@ -6747,7 +7463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" s="1">
         <v>44008</v>
       </c>
@@ -6756,7 +7472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" s="1">
         <v>44009</v>
       </c>
@@ -6765,7 +7481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" s="1">
         <v>44010</v>
       </c>
@@ -6774,7 +7490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" s="1">
         <v>44011</v>
       </c>
@@ -6783,7 +7499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="A121" s="1">
         <v>44012</v>
       </c>
@@ -6792,7 +7508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" s="1">
         <v>44013</v>
       </c>
@@ -6801,7 +7517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="A123" s="1">
         <v>44014</v>
       </c>
@@ -6810,7 +7526,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="A124" s="1">
         <v>44015</v>
       </c>
@@ -6819,7 +7535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="A125" s="1">
         <v>44016</v>
       </c>
@@ -6828,7 +7544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="A126" s="1">
         <v>44017</v>
       </c>
@@ -6837,7 +7553,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17">
       <c r="A127" s="1">
         <v>44018</v>
       </c>
@@ -6846,7 +7562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" s="1">
         <v>44019</v>
       </c>
@@ -6855,7 +7571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" s="1">
         <v>44020</v>
       </c>
@@ -6864,7 +7580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="A130" s="1">
         <v>44021</v>
       </c>
@@ -6873,7 +7589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="A131" s="1">
         <v>44022</v>
       </c>
@@ -6882,7 +7598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="A132" s="1">
         <v>44023</v>
       </c>
@@ -6891,7 +7607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="1">
         <v>44024</v>
       </c>
@@ -6900,7 +7616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="A134" s="1">
         <v>44025</v>
       </c>
@@ -6909,7 +7625,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" s="1">
         <v>44026</v>
       </c>
@@ -6918,7 +7634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="A136" s="1">
         <v>44027</v>
       </c>
@@ -6927,7 +7643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="1">
         <v>44028</v>
       </c>
@@ -6936,7 +7652,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="A138" s="1">
         <v>44029</v>
       </c>
@@ -6945,7 +7661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" s="1">
         <v>44030</v>
       </c>
@@ -6954,7 +7670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="A140" s="1">
         <v>44031</v>
       </c>
@@ -6963,7 +7679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="A141" s="1">
         <v>44032</v>
       </c>
@@ -6972,7 +7688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="A142" s="1">
         <v>44033</v>
       </c>
@@ -6981,7 +7697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="A143" s="1">
         <v>44034</v>
       </c>
@@ -6990,7 +7706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
       <c r="A144" s="1">
         <v>44035</v>
       </c>
@@ -6999,7 +7715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17">
       <c r="A145" s="1">
         <v>44036</v>
       </c>
@@ -7008,7 +7724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17">
       <c r="A146" s="1">
         <v>44037</v>
       </c>
@@ -7017,7 +7733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17">
       <c r="A147" s="1">
         <v>44038</v>
       </c>
@@ -7026,7 +7742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17">
       <c r="A148" s="1">
         <v>44039</v>
       </c>
@@ -7035,7 +7751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17">
       <c r="A149" s="1">
         <v>44040</v>
       </c>
@@ -7044,7 +7760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17">
       <c r="A150" s="1">
         <v>44041</v>
       </c>
@@ -7053,7 +7769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17">
       <c r="A151" s="1">
         <v>44042</v>
       </c>
@@ -7062,7 +7778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17">
       <c r="A152" s="1">
         <v>44043</v>
       </c>
@@ -7071,7 +7787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17">
       <c r="A153" s="1">
         <v>44044</v>
       </c>
@@ -7080,7 +7796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17">
       <c r="A154" s="1">
         <v>44045</v>
       </c>
@@ -7089,7 +7805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17">
       <c r="A155" s="1">
         <v>44046</v>
       </c>
@@ -7098,7 +7814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17">
       <c r="A156" s="1">
         <v>44047</v>
       </c>
@@ -7206,7 +7922,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C64">
+  <conditionalFormatting sqref="C2:C90">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -7317,7 +8033,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C64</xm:sqref>
+          <xm:sqref>C2:C90</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7326,14 +8042,490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7508E8AF-0979-C541-A690-0B3C7FD3AC92}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>327</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>459</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>923</v>
+      </c>
+      <c r="C4" s="2">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>828</v>
+      </c>
+      <c r="C7" s="2">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9">
+        <v>17979</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1151</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1022</v>
+      </c>
+      <c r="E8" s="2">
+        <v>129</v>
+      </c>
+      <c r="F8" s="2">
+        <v>157</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2">
+        <v>167</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>425</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>794</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>18</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <v>842</v>
+      </c>
+      <c r="C12" s="2">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1403</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36</v>
+      </c>
+      <c r="G13" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2">
+        <v>548</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>867</v>
+      </c>
+      <c r="C17" s="2">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19">
+      <c r="A18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="13">
+        <f t="shared" ref="B18:G18" si="0">SUM(B2:B17)</f>
+        <v>25972</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>1391</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>1183</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.98739999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ADD28B45-D29D-2441-9B3E-2E3EA27FC02C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ADD28B45-D29D-2441-9B3E-2E3EA27FC02C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -7343,7 +8535,7 @@
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -7357,7 +8549,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -7366,404 +8558,404 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2">
-        <v>308</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="15">
+        <v>588</v>
+      </c>
+      <c r="C2" s="15">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2250</v>
+      </c>
+      <c r="C3" s="15">
+        <v>157</v>
+      </c>
+      <c r="D3" s="15">
+        <v>124</v>
+      </c>
+      <c r="E3" s="15">
+        <v>33</v>
+      </c>
+      <c r="F3" s="15">
+        <v>18</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2429</v>
+      </c>
+      <c r="C4" s="15">
+        <v>111</v>
+      </c>
+      <c r="D4" s="15">
+        <v>90</v>
+      </c>
+      <c r="E4" s="15">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15">
+        <v>29</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="15">
+        <v>215</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F5" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G5" s="16">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="15">
+        <v>597</v>
+      </c>
+      <c r="C6" s="15">
+        <v>60</v>
+      </c>
+      <c r="D6" s="15">
+        <v>52</v>
+      </c>
+      <c r="E6" s="15">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3037</v>
+      </c>
+      <c r="C7" s="15">
+        <v>195</v>
+      </c>
+      <c r="D7" s="15">
+        <v>169</v>
+      </c>
+      <c r="E7" s="15">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="17">
+        <v>76251</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3341</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3035</v>
+      </c>
+      <c r="E8" s="15">
+        <v>306</v>
+      </c>
+      <c r="F8" s="15">
+        <v>728</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.80379999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="15">
+        <v>756</v>
+      </c>
+      <c r="C9" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
-        <v>295</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="F9" s="15">
+        <v>16</v>
+      </c>
+      <c r="G9" s="16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1256</v>
+      </c>
+      <c r="C10" s="15">
+        <v>76</v>
+      </c>
+      <c r="D10" s="15">
+        <v>59</v>
+      </c>
+      <c r="E10" s="15">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15">
+        <v>15</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1256</v>
+      </c>
+      <c r="C11" s="15">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7</v>
+      </c>
+      <c r="F11" s="15">
         <v>23</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G11" s="16">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1888</v>
+      </c>
+      <c r="C12" s="15">
+        <v>110</v>
+      </c>
+      <c r="D12" s="15">
+        <v>80</v>
+      </c>
+      <c r="E12" s="15">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2060</v>
+      </c>
+      <c r="C13" s="15">
+        <v>71</v>
+      </c>
+      <c r="D13" s="15">
+        <v>47</v>
+      </c>
+      <c r="E13" s="15">
+        <v>24</v>
+      </c>
+      <c r="F13" s="15">
+        <v>47</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="15">
+        <v>345</v>
+      </c>
+      <c r="C14" s="15">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15">
+        <v>12</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="15">
+        <v>860</v>
+      </c>
+      <c r="C15" s="15">
+        <v>38</v>
+      </c>
+      <c r="D15" s="15">
+        <v>33</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>13</v>
+      </c>
+      <c r="G15" s="16">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="15">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1054</v>
+      </c>
+      <c r="C17" s="15">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.43E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2">
-        <v>760</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D17" s="15">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>3.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2">
-        <v>91</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2">
-        <v>656</v>
-      </c>
-      <c r="C7" s="2">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="10">
-        <v>13528</v>
-      </c>
-      <c r="C8" s="2">
-        <v>872</v>
-      </c>
-      <c r="D8" s="2">
-        <v>790</v>
-      </c>
-      <c r="E8" s="2">
-        <v>82</v>
-      </c>
-      <c r="F8" s="2">
-        <v>143</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.65529999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="9">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2">
-        <v>399</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2">
-        <v>787</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>17</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2">
-        <v>762</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3.6900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1331</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>36</v>
-      </c>
-      <c r="G13" s="9">
-        <v>6.4500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2">
-        <v>199</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2">
-        <v>524</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="9">
-        <v>2.5399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2">
-        <v>795</v>
-      </c>
-      <c r="C17" s="2">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3.85E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="15">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
-        <v>20643</v>
+        <v>94858</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>980</v>
+        <v>4220</v>
       </c>
       <c r="D18" s="4">
         <f>SUM(D2:D17)</f>
-        <v>876</v>
-      </c>
-      <c r="E18" s="11">
+        <v>3736</v>
+      </c>
+      <c r="E18" s="10">
         <f>SUM(E2:E17)</f>
-        <v>104</v>
+        <v>484</v>
       </c>
       <c r="F18" s="4">
         <f>SUM(F2:F17)</f>
-        <v>270</v>
+        <v>997</v>
       </c>
       <c r="G18" s="4">
         <f>SUM(G2:G17)*100</f>
-        <v>98.49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>55</v>
       </c>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/showiz/Desktop/Desktop/django-matplotlib-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F98521-A72B-FD42-9EB9-2337065E781C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053748E-5860-4442-B50D-ADB827D4690F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="2" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
+    <workbookView xWindow="14520" yWindow="460" windowWidth="14280" windowHeight="17540" xr2:uid="{363164D2-BFEE-5B4B-B34D-C47C0EB878F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagios Chile e Internacional" sheetId="1" r:id="rId1"/>
@@ -389,100 +389,20 @@
   <dxfs count="33">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -519,20 +439,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -555,20 +471,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -591,6 +503,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -609,6 +535,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -623,6 +563,66 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -2459,8 +2459,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Región">
@@ -2483,7 +2483,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2668,16 +2668,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:G17" headerRowDxfId="15" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CF161A-7EC6-994D-B6F1-874B63AA7DBD}" name="Table6" displayName="Table6" ref="A1:G17" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G17" xr:uid="{C115B430-F489-C545-A5F6-A1888D8B0268}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C96A0159-4EC2-A14F-A6FC-06CD8DA0A44C}" name="Casos Totales" dataDxfId="6" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="5" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{8F388594-5801-A642-BC17-2676835D3A6F}" name="Column2" dataDxfId="4" totalsRowDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{2B84CF96-CD69-CD40-8741-E0C2C261D390}" name="Casos nuevos s/s" dataDxfId="3" totalsRowDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{78885A86-74FD-6042-8DD6-0C71FA197ACC}" name="Fallecidos" dataDxfId="2" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="1" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{487606E5-9CDA-FA4D-ACB2-C89128250EFC}" name="Región" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C96A0159-4EC2-A14F-A6FC-06CD8DA0A44C}" name="Casos Totales" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{605A4213-6C2C-5748-A7FA-2533FDC4A356}" name="Casos nuevos" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{8F388594-5801-A642-BC17-2676835D3A6F}" name="Column2" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{2B84CF96-CD69-CD40-8741-E0C2C261D390}" name="Casos nuevos s/s" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{78885A86-74FD-6042-8DD6-0C71FA197ACC}" name="Fallecidos" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0649BAA1-693A-C24B-BCD0-36D3103D3B2E}" name="% Casos totales" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2982,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DCBFE-5E83-244D-94B1-A76644A6D0E9}">
   <dimension ref="A1:AF156"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3173,11 +3173,11 @@
         <v>1.5562958027981346</v>
       </c>
       <c r="S2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T2">
         <f>SUM(Table2[[#This Row],[Factor_Chile]]:C156)</f>
-        <v>101.82302082400372</v>
+        <v>103.928820268034</v>
       </c>
       <c r="U2">
         <f>SUM(Table2[[#This Row],[Factor_China]]:E41)</f>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="T5">
         <f>T2/Table4[Dias_CL]</f>
-        <v>1.1440788856629631</v>
+        <v>1.1420749480003736</v>
       </c>
       <c r="U5">
         <f>U2/S5</f>
@@ -7233,6 +7233,13 @@
       <c r="A91" s="1">
         <v>43982</v>
       </c>
+      <c r="B91">
+        <v>99688</v>
+      </c>
+      <c r="C91">
+        <f>Table2[[#This Row],[Chile]]/B90</f>
+        <v>1.0509182145944465</v>
+      </c>
       <c r="Q91" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P90</f>
         <v>#DIV/0!</v>
@@ -7241,6 +7248,13 @@
     <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>43983</v>
+      </c>
+      <c r="B92">
+        <v>105159</v>
+      </c>
+      <c r="C92">
+        <f>Table2[[#This Row],[Chile]]/B91</f>
+        <v>1.0548812294358398</v>
       </c>
       <c r="Q92" s="5" t="e">
         <f>Table2[[#This Row],[Iran]]/P91</f>
@@ -7922,7 +7936,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C90">
+  <conditionalFormatting sqref="C2:C92">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -8033,7 +8047,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C90</xm:sqref>
+          <xm:sqref>C2:C92</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8521,7 +8535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA420C0C-A0C7-034C-AC7F-7A4895EEDD8E}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
